--- a/curation/draft/collection/collection_specialization_LB_Local_Urinalysis.xlsx
+++ b/curation/draft/collection/collection_specialization_LB_Local_Urinalysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3370C64F-335B-40AE-A095-ACBBD6DBD780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0373C892-225D-4572-9D11-CB639681ACE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="224">
   <si>
     <t>package_date</t>
   </si>
@@ -160,6 +160,10 @@
     <t>LBCAT</t>
   </si>
   <si>
+    <t xml:space="preserve">
+Lab Panel Name</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
@@ -298,12 +302,20 @@
     <t>LBORNRLO</t>
   </si>
   <si>
+    <t xml:space="preserve">
+Normal Range Lower Limit</t>
+  </si>
+  <si>
     <t>COLOR_LBORNRHI</t>
   </si>
   <si>
     <t>LBORNRHI</t>
   </si>
   <si>
+    <t xml:space="preserve">
+Normal Range Upper Limit</t>
+  </si>
+  <si>
     <t>COLOR_LBCLSIG</t>
   </si>
   <si>
@@ -547,9 +559,6 @@
     <t>PROT_LBORRESU</t>
   </si>
   <si>
-    <t>C64571</t>
-  </si>
-  <si>
     <t>mg/dL;g/dL;g/L</t>
   </si>
   <si>
@@ -688,13 +697,7 @@
     <t>C82515</t>
   </si>
   <si>
-    <t>Lab Panel Name</t>
-  </si>
-  <si>
-    <t>Normal Range Lower Limit</t>
-  </si>
-  <si>
-    <t>Normal Range Upper Limit</t>
+    <t>C82535</t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24:P84"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L91" sqref="L91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1097,6 @@
     <col min="10" max="10" width="40.85546875" customWidth="1"/>
     <col min="11" max="11" width="38.28515625" customWidth="1"/>
     <col min="12" max="13" width="22" customWidth="1"/>
-    <col min="16" max="16" width="21.140625" customWidth="1"/>
     <col min="25" max="25" width="17.42578125" customWidth="1"/>
     <col min="26" max="26" width="23.140625" customWidth="1"/>
     <col min="30" max="30" width="26.7109375" customWidth="1"/>
@@ -1238,25 +1240,25 @@
         <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T2">
         <v>100</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD2" t="s">
         <v>44</v>
@@ -1294,34 +1296,34 @@
         <v>41</v>
       </c>
       <c r="L3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q3">
         <v>2</v>
       </c>
       <c r="R3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T3">
         <v>100</v>
       </c>
       <c r="V3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -1353,31 +1355,31 @@
         <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q4">
         <v>3</v>
       </c>
       <c r="R4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T4">
         <v>200</v>
       </c>
       <c r="AD4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -1409,34 +1411,34 @@
         <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q5">
         <v>4</v>
       </c>
       <c r="R5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T5">
         <v>10</v>
       </c>
       <c r="AD5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -1468,46 +1470,46 @@
         <v>41</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q6">
         <v>5</v>
       </c>
       <c r="R6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" t="s">
         <v>47</v>
-      </c>
-      <c r="S6" t="s">
-        <v>46</v>
       </c>
       <c r="T6">
         <v>100</v>
       </c>
       <c r="W6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -1539,43 +1541,49 @@
         <v>41</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M7" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="N7" t="s">
+        <v>110</v>
       </c>
       <c r="O7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q7">
         <v>6</v>
       </c>
       <c r="R7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T7">
         <v>1</v>
       </c>
       <c r="W7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z7" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>111</v>
       </c>
       <c r="AD7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -1607,13 +1615,13 @@
         <v>41</v>
       </c>
       <c r="L8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s">
         <v>42</v>
@@ -1622,10 +1630,10 @@
         <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T8">
         <v>8</v>
@@ -1634,10 +1642,10 @@
         <v>2</v>
       </c>
       <c r="AD8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -1669,28 +1677,31 @@
         <v>41</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
       </c>
       <c r="P9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q9">
         <v>8</v>
       </c>
       <c r="S9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T9">
         <v>20</v>
       </c>
       <c r="AD9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -1722,31 +1733,34 @@
         <v>41</v>
       </c>
       <c r="L10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M10" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="N10" t="s">
+        <v>223</v>
       </c>
       <c r="P10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q10">
         <v>9</v>
       </c>
       <c r="R10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T10">
         <v>100</v>
       </c>
       <c r="AD10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
@@ -1778,22 +1792,22 @@
         <v>41</v>
       </c>
       <c r="L11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="Q11">
         <v>10</v>
       </c>
       <c r="R11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T11">
         <v>8</v>
@@ -1802,10 +1816,10 @@
         <v>2</v>
       </c>
       <c r="AD11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
@@ -1837,22 +1851,22 @@
         <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="Q12">
         <v>11</v>
       </c>
       <c r="R12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T12">
         <v>8</v>
@@ -1861,10 +1875,10 @@
         <v>2</v>
       </c>
       <c r="AD12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -1896,51 +1910,54 @@
         <v>41</v>
       </c>
       <c r="L13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q13">
         <v>12</v>
       </c>
       <c r="R13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T13">
         <v>1</v>
       </c>
       <c r="W13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>111</v>
       </c>
       <c r="AD13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AE13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
         <v>35</v>
@@ -1952,7 +1969,7 @@
         <v>37</v>
       </c>
       <c r="H14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I14" t="s">
         <v>39</v>
@@ -1961,34 +1978,34 @@
         <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M14" t="s">
         <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="Q14">
         <v>1</v>
       </c>
       <c r="R14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T14">
         <v>100</v>
       </c>
       <c r="V14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD14" t="s">
         <v>44</v>
@@ -1999,10 +2016,10 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
         <v>35</v>
@@ -2014,7 +2031,7 @@
         <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I15" t="s">
         <v>39</v>
@@ -2023,45 +2040,45 @@
         <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q15">
         <v>2</v>
       </c>
       <c r="R15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T15">
         <v>100</v>
       </c>
       <c r="V15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
         <v>35</v>
@@ -2073,7 +2090,7 @@
         <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I16" t="s">
         <v>39</v>
@@ -2082,42 +2099,42 @@
         <v>40</v>
       </c>
       <c r="K16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q16">
         <v>3</v>
       </c>
       <c r="R16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T16">
         <v>200</v>
       </c>
       <c r="AD16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
         <v>35</v>
@@ -2129,7 +2146,7 @@
         <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I17" t="s">
         <v>39</v>
@@ -2138,45 +2155,45 @@
         <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L17" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q17">
         <v>4</v>
       </c>
       <c r="R17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T17">
         <v>10</v>
       </c>
       <c r="AD17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
         <v>35</v>
@@ -2188,7 +2205,7 @@
         <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I18" t="s">
         <v>39</v>
@@ -2197,57 +2214,57 @@
         <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L18" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q18">
         <v>5</v>
       </c>
       <c r="R18" t="s">
+        <v>48</v>
+      </c>
+      <c r="S18" t="s">
         <v>47</v>
-      </c>
-      <c r="S18" t="s">
-        <v>46</v>
       </c>
       <c r="T18">
         <v>100</v>
       </c>
       <c r="W18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
@@ -2259,7 +2276,7 @@
         <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I19" t="s">
         <v>39</v>
@@ -2268,60 +2285,60 @@
         <v>40</v>
       </c>
       <c r="K19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L19" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N19" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q19">
         <v>6</v>
       </c>
       <c r="R19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T19">
         <v>1</v>
       </c>
       <c r="W19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AD19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
         <v>35</v>
@@ -2333,7 +2350,7 @@
         <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I20" t="s">
         <v>39</v>
@@ -2342,28 +2359,28 @@
         <v>40</v>
       </c>
       <c r="K20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P20" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q20">
         <v>7</v>
       </c>
       <c r="R20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T20">
         <v>8</v>
@@ -2372,18 +2389,18 @@
         <v>2</v>
       </c>
       <c r="AD20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D21" t="s">
         <v>35</v>
@@ -2395,7 +2412,7 @@
         <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I21" t="s">
         <v>39</v>
@@ -2404,60 +2421,60 @@
         <v>40</v>
       </c>
       <c r="K21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N21" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q21">
         <v>8</v>
       </c>
       <c r="R21" t="s">
+        <v>48</v>
+      </c>
+      <c r="S21" t="s">
         <v>47</v>
-      </c>
-      <c r="S21" t="s">
-        <v>46</v>
       </c>
       <c r="T21">
         <v>20</v>
       </c>
       <c r="W21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="X21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Y21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Z21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AA21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AD21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE21" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
@@ -2469,7 +2486,7 @@
         <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I22" t="s">
         <v>39</v>
@@ -2478,42 +2495,45 @@
         <v>40</v>
       </c>
       <c r="K22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M22" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="N22" t="s">
+        <v>223</v>
       </c>
       <c r="P22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q22">
         <v>9</v>
       </c>
       <c r="R22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T22">
         <v>100</v>
       </c>
       <c r="AD22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -2525,7 +2545,7 @@
         <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I23" t="s">
         <v>39</v>
@@ -2534,25 +2554,25 @@
         <v>40</v>
       </c>
       <c r="K23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L23" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P23" t="s">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="Q23">
         <v>10</v>
       </c>
       <c r="R23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T23">
         <v>8</v>
@@ -2561,18 +2581,18 @@
         <v>2</v>
       </c>
       <c r="AD23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -2584,7 +2604,7 @@
         <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I24" t="s">
         <v>39</v>
@@ -2593,25 +2613,25 @@
         <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L24" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="Q24">
         <v>11</v>
       </c>
       <c r="R24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T24">
         <v>8</v>
@@ -2620,86 +2640,89 @@
         <v>2</v>
       </c>
       <c r="AD24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE24" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" t="s">
+        <v>102</v>
+      </c>
+      <c r="L25" t="s">
+        <v>123</v>
+      </c>
+      <c r="M25" t="s">
         <v>97</v>
       </c>
-      <c r="D25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="O25" t="s">
         <v>98</v>
-      </c>
-      <c r="I25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25" t="s">
-        <v>99</v>
-      </c>
-      <c r="L25" t="s">
-        <v>120</v>
-      </c>
-      <c r="M25" t="s">
-        <v>94</v>
-      </c>
-      <c r="O25" t="s">
-        <v>95</v>
       </c>
       <c r="Q25">
         <v>12</v>
       </c>
       <c r="R25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T25">
         <v>1</v>
       </c>
       <c r="W25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z25" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>111</v>
       </c>
       <c r="AD25" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AE25" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
         <v>35</v>
@@ -2711,7 +2734,7 @@
         <v>37</v>
       </c>
       <c r="H26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I26" t="s">
         <v>39</v>
@@ -2720,34 +2743,34 @@
         <v>40</v>
       </c>
       <c r="K26" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L26" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M26" t="s">
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="Q26">
         <v>1</v>
       </c>
       <c r="R26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T26">
         <v>100</v>
       </c>
       <c r="V26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD26" t="s">
         <v>44</v>
@@ -2758,10 +2781,10 @@
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
         <v>35</v>
@@ -2773,7 +2796,7 @@
         <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I27" t="s">
         <v>39</v>
@@ -2782,45 +2805,45 @@
         <v>40</v>
       </c>
       <c r="K27" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L27" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q27">
         <v>2</v>
       </c>
       <c r="R27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T27">
         <v>100</v>
       </c>
       <c r="V27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
         <v>35</v>
@@ -2832,7 +2855,7 @@
         <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I28" t="s">
         <v>39</v>
@@ -2841,42 +2864,42 @@
         <v>40</v>
       </c>
       <c r="K28" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L28" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q28">
         <v>3</v>
       </c>
       <c r="R28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T28">
         <v>200</v>
       </c>
       <c r="AD28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
         <v>35</v>
@@ -2888,7 +2911,7 @@
         <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I29" t="s">
         <v>39</v>
@@ -2897,45 +2920,45 @@
         <v>40</v>
       </c>
       <c r="K29" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L29" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q29">
         <v>4</v>
       </c>
       <c r="R29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T29">
         <v>10</v>
       </c>
       <c r="AD29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
@@ -2947,7 +2970,7 @@
         <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I30" t="s">
         <v>39</v>
@@ -2956,57 +2979,57 @@
         <v>40</v>
       </c>
       <c r="K30" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L30" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q30">
         <v>5</v>
       </c>
       <c r="R30" t="s">
+        <v>48</v>
+      </c>
+      <c r="S30" t="s">
         <v>47</v>
-      </c>
-      <c r="S30" t="s">
-        <v>46</v>
       </c>
       <c r="T30">
         <v>100</v>
       </c>
       <c r="W30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D31" t="s">
         <v>35</v>
@@ -3018,7 +3041,7 @@
         <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I31" t="s">
         <v>39</v>
@@ -3027,60 +3050,60 @@
         <v>40</v>
       </c>
       <c r="K31" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N31" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q31">
         <v>6</v>
       </c>
       <c r="R31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T31">
         <v>1</v>
       </c>
       <c r="W31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA31" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AD31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
         <v>35</v>
@@ -3092,7 +3115,7 @@
         <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I32" t="s">
         <v>39</v>
@@ -3101,28 +3124,28 @@
         <v>40</v>
       </c>
       <c r="K32" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L32" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P32" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q32">
         <v>7</v>
       </c>
       <c r="R32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T32">
         <v>8</v>
@@ -3131,18 +3154,18 @@
         <v>2</v>
       </c>
       <c r="AD32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE32" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
@@ -3154,7 +3177,7 @@
         <v>37</v>
       </c>
       <c r="H33" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I33" t="s">
         <v>39</v>
@@ -3163,60 +3186,60 @@
         <v>40</v>
       </c>
       <c r="K33" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L33" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q33">
         <v>8</v>
       </c>
       <c r="R33" t="s">
+        <v>48</v>
+      </c>
+      <c r="S33" t="s">
         <v>47</v>
-      </c>
-      <c r="S33" t="s">
-        <v>46</v>
       </c>
       <c r="T33">
         <v>20</v>
       </c>
       <c r="W33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="X33" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Y33" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Z33" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AA33" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AD33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE33" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
@@ -3228,7 +3251,7 @@
         <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I34" t="s">
         <v>39</v>
@@ -3237,42 +3260,45 @@
         <v>40</v>
       </c>
       <c r="K34" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L34" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M34" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="N34" t="s">
+        <v>223</v>
       </c>
       <c r="P34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q34">
         <v>9</v>
       </c>
       <c r="R34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T34">
         <v>100</v>
       </c>
       <c r="AD34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s">
         <v>35</v>
@@ -3284,7 +3310,7 @@
         <v>37</v>
       </c>
       <c r="H35" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I35" t="s">
         <v>39</v>
@@ -3293,25 +3319,25 @@
         <v>40</v>
       </c>
       <c r="K35" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L35" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P35" t="s">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="Q35">
         <v>10</v>
       </c>
       <c r="R35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T35">
         <v>8</v>
@@ -3320,18 +3346,18 @@
         <v>2</v>
       </c>
       <c r="AD35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
         <v>35</v>
@@ -3343,7 +3369,7 @@
         <v>37</v>
       </c>
       <c r="H36" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I36" t="s">
         <v>39</v>
@@ -3352,25 +3378,25 @@
         <v>40</v>
       </c>
       <c r="K36" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L36" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P36" t="s">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="Q36">
         <v>11</v>
       </c>
       <c r="R36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T36">
         <v>8</v>
@@ -3379,18 +3405,18 @@
         <v>2</v>
       </c>
       <c r="AD36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
         <v>35</v>
@@ -3402,7 +3428,7 @@
         <v>37</v>
       </c>
       <c r="H37" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I37" t="s">
         <v>39</v>
@@ -3411,54 +3437,57 @@
         <v>40</v>
       </c>
       <c r="K37" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L37" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="M37" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O37" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q37">
         <v>12</v>
       </c>
       <c r="R37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T37">
         <v>1</v>
       </c>
       <c r="W37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z37" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>111</v>
       </c>
       <c r="AD37" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AE37" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D38" t="s">
         <v>35</v>
@@ -3470,7 +3499,7 @@
         <v>37</v>
       </c>
       <c r="H38" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I38" t="s">
         <v>39</v>
@@ -3479,34 +3508,34 @@
         <v>40</v>
       </c>
       <c r="K38" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L38" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M38" t="s">
         <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="Q38">
         <v>1</v>
       </c>
       <c r="R38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T38">
         <v>100</v>
       </c>
       <c r="V38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD38" t="s">
         <v>44</v>
@@ -3517,10 +3546,10 @@
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D39" t="s">
         <v>35</v>
@@ -3532,7 +3561,7 @@
         <v>37</v>
       </c>
       <c r="H39" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I39" t="s">
         <v>39</v>
@@ -3541,45 +3570,45 @@
         <v>40</v>
       </c>
       <c r="K39" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L39" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q39">
         <v>2</v>
       </c>
       <c r="R39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T39">
         <v>100</v>
       </c>
       <c r="V39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D40" t="s">
         <v>35</v>
@@ -3591,7 +3620,7 @@
         <v>37</v>
       </c>
       <c r="H40" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I40" t="s">
         <v>39</v>
@@ -3600,42 +3629,42 @@
         <v>40</v>
       </c>
       <c r="K40" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L40" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q40">
         <v>3</v>
       </c>
       <c r="R40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T40">
         <v>200</v>
       </c>
       <c r="AD40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D41" t="s">
         <v>35</v>
@@ -3647,7 +3676,7 @@
         <v>37</v>
       </c>
       <c r="H41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I41" t="s">
         <v>39</v>
@@ -3656,45 +3685,45 @@
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L41" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q41">
         <v>4</v>
       </c>
       <c r="R41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T41">
         <v>10</v>
       </c>
       <c r="AD41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D42" t="s">
         <v>35</v>
@@ -3706,7 +3735,7 @@
         <v>37</v>
       </c>
       <c r="H42" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I42" t="s">
         <v>39</v>
@@ -3715,57 +3744,57 @@
         <v>40</v>
       </c>
       <c r="K42" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L42" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q42">
         <v>5</v>
       </c>
       <c r="R42" t="s">
+        <v>48</v>
+      </c>
+      <c r="S42" t="s">
         <v>47</v>
-      </c>
-      <c r="S42" t="s">
-        <v>46</v>
       </c>
       <c r="T42">
         <v>100</v>
       </c>
       <c r="W42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB42" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D43" t="s">
         <v>35</v>
@@ -3777,7 +3806,7 @@
         <v>37</v>
       </c>
       <c r="H43" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I43" t="s">
         <v>39</v>
@@ -3786,60 +3815,60 @@
         <v>40</v>
       </c>
       <c r="K43" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L43" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N43" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q43">
         <v>6</v>
       </c>
       <c r="R43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T43">
         <v>1</v>
       </c>
       <c r="W43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA43" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AD43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D44" t="s">
         <v>35</v>
@@ -3851,7 +3880,7 @@
         <v>37</v>
       </c>
       <c r="H44" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I44" t="s">
         <v>39</v>
@@ -3860,28 +3889,28 @@
         <v>40</v>
       </c>
       <c r="K44" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L44" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P44" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q44">
         <v>7</v>
       </c>
       <c r="R44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T44">
         <v>8</v>
@@ -3890,18 +3919,18 @@
         <v>2</v>
       </c>
       <c r="AD44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE44" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D45" t="s">
         <v>35</v>
@@ -3913,7 +3942,7 @@
         <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I45" t="s">
         <v>39</v>
@@ -3922,39 +3951,42 @@
         <v>40</v>
       </c>
       <c r="K45" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L45" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M45" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N45" t="s">
+        <v>115</v>
       </c>
       <c r="P45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q45">
         <v>8</v>
       </c>
       <c r="S45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T45">
         <v>20</v>
       </c>
       <c r="AD45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE45" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D46" t="s">
         <v>35</v>
@@ -3966,7 +3998,7 @@
         <v>37</v>
       </c>
       <c r="H46" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I46" t="s">
         <v>39</v>
@@ -3975,42 +4007,45 @@
         <v>40</v>
       </c>
       <c r="K46" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L46" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M46" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="N46" t="s">
+        <v>223</v>
       </c>
       <c r="P46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q46">
         <v>9</v>
       </c>
       <c r="R46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T46">
         <v>100</v>
       </c>
       <c r="AD46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D47" t="s">
         <v>35</v>
@@ -4022,7 +4057,7 @@
         <v>37</v>
       </c>
       <c r="H47" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I47" t="s">
         <v>39</v>
@@ -4031,25 +4066,25 @@
         <v>40</v>
       </c>
       <c r="K47" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L47" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P47" t="s">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="Q47">
         <v>10</v>
       </c>
       <c r="R47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T47">
         <v>8</v>
@@ -4058,18 +4093,18 @@
         <v>2</v>
       </c>
       <c r="AD47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE47" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D48" t="s">
         <v>35</v>
@@ -4081,7 +4116,7 @@
         <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I48" t="s">
         <v>39</v>
@@ -4090,25 +4125,25 @@
         <v>40</v>
       </c>
       <c r="K48" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L48" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P48" t="s">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="Q48">
         <v>11</v>
       </c>
       <c r="R48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S48" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T48">
         <v>8</v>
@@ -4117,18 +4152,18 @@
         <v>2</v>
       </c>
       <c r="AD48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D49" t="s">
         <v>35</v>
@@ -4140,7 +4175,7 @@
         <v>37</v>
       </c>
       <c r="H49" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I49" t="s">
         <v>39</v>
@@ -4149,54 +4184,57 @@
         <v>40</v>
       </c>
       <c r="K49" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L49" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M49" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O49" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q49">
         <v>12</v>
       </c>
       <c r="R49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T49">
         <v>1</v>
       </c>
       <c r="W49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z49" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>111</v>
       </c>
       <c r="AD49" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AE49" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C50" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D50" t="s">
         <v>35</v>
@@ -4208,7 +4246,7 @@
         <v>37</v>
       </c>
       <c r="H50" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I50" t="s">
         <v>39</v>
@@ -4217,34 +4255,34 @@
         <v>40</v>
       </c>
       <c r="K50" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L50" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M50" t="s">
         <v>44</v>
       </c>
       <c r="P50" t="s">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="Q50">
         <v>1</v>
       </c>
       <c r="R50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T50">
         <v>100</v>
       </c>
       <c r="V50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD50" t="s">
         <v>44</v>
@@ -4255,10 +4293,10 @@
     </row>
     <row r="51" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D51" t="s">
         <v>35</v>
@@ -4270,7 +4308,7 @@
         <v>37</v>
       </c>
       <c r="H51" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I51" t="s">
         <v>39</v>
@@ -4279,45 +4317,45 @@
         <v>40</v>
       </c>
       <c r="K51" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L51" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q51">
         <v>2</v>
       </c>
       <c r="R51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T51">
         <v>100</v>
       </c>
       <c r="V51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D52" t="s">
         <v>35</v>
@@ -4329,7 +4367,7 @@
         <v>37</v>
       </c>
       <c r="H52" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I52" t="s">
         <v>39</v>
@@ -4338,42 +4376,42 @@
         <v>40</v>
       </c>
       <c r="K52" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L52" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q52">
         <v>3</v>
       </c>
       <c r="R52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T52">
         <v>200</v>
       </c>
       <c r="AD52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D53" t="s">
         <v>35</v>
@@ -4385,7 +4423,7 @@
         <v>37</v>
       </c>
       <c r="H53" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I53" t="s">
         <v>39</v>
@@ -4394,45 +4432,45 @@
         <v>40</v>
       </c>
       <c r="K53" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L53" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q53">
         <v>4</v>
       </c>
       <c r="R53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T53">
         <v>10</v>
       </c>
       <c r="AD53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D54" t="s">
         <v>35</v>
@@ -4444,7 +4482,7 @@
         <v>37</v>
       </c>
       <c r="H54" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I54" t="s">
         <v>39</v>
@@ -4453,57 +4491,57 @@
         <v>40</v>
       </c>
       <c r="K54" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L54" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q54">
         <v>5</v>
       </c>
       <c r="R54" t="s">
+        <v>48</v>
+      </c>
+      <c r="S54" t="s">
         <v>47</v>
-      </c>
-      <c r="S54" t="s">
-        <v>46</v>
       </c>
       <c r="T54">
         <v>100</v>
       </c>
       <c r="W54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C55" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D55" t="s">
         <v>35</v>
@@ -4515,7 +4553,7 @@
         <v>37</v>
       </c>
       <c r="H55" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I55" t="s">
         <v>39</v>
@@ -4524,60 +4562,60 @@
         <v>40</v>
       </c>
       <c r="K55" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L55" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N55" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O55" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q55">
         <v>6</v>
       </c>
       <c r="R55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T55">
         <v>1</v>
       </c>
       <c r="W55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA55" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AD55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D56" t="s">
         <v>35</v>
@@ -4589,7 +4627,7 @@
         <v>37</v>
       </c>
       <c r="H56" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I56" t="s">
         <v>39</v>
@@ -4598,28 +4636,28 @@
         <v>40</v>
       </c>
       <c r="K56" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L56" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P56" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q56">
         <v>7</v>
       </c>
       <c r="R56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T56">
         <v>8</v>
@@ -4628,18 +4666,18 @@
         <v>2</v>
       </c>
       <c r="AD56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE56" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C57" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D57" t="s">
         <v>35</v>
@@ -4651,7 +4689,7 @@
         <v>37</v>
       </c>
       <c r="H57" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I57" t="s">
         <v>39</v>
@@ -4660,60 +4698,60 @@
         <v>40</v>
       </c>
       <c r="K57" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L57" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N57" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="P57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q57">
         <v>8</v>
       </c>
       <c r="R57" t="s">
+        <v>48</v>
+      </c>
+      <c r="S57" t="s">
         <v>47</v>
-      </c>
-      <c r="S57" t="s">
-        <v>46</v>
       </c>
       <c r="T57">
         <v>20</v>
       </c>
       <c r="W57" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="X57" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Y57" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Z57" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AA57" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AD57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE57" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C58" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D58" t="s">
         <v>35</v>
@@ -4725,7 +4763,7 @@
         <v>37</v>
       </c>
       <c r="H58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I58" t="s">
         <v>39</v>
@@ -4734,42 +4772,45 @@
         <v>40</v>
       </c>
       <c r="K58" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L58" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M58" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="N58" t="s">
+        <v>223</v>
       </c>
       <c r="P58" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q58">
         <v>9</v>
       </c>
       <c r="R58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T58">
         <v>100</v>
       </c>
       <c r="AD58" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE58" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C59" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D59" t="s">
         <v>35</v>
@@ -4781,7 +4822,7 @@
         <v>37</v>
       </c>
       <c r="H59" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I59" t="s">
         <v>39</v>
@@ -4790,25 +4831,25 @@
         <v>40</v>
       </c>
       <c r="K59" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L59" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="Q59">
         <v>10</v>
       </c>
       <c r="R59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T59">
         <v>8</v>
@@ -4817,18 +4858,18 @@
         <v>2</v>
       </c>
       <c r="AD59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C60" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D60" t="s">
         <v>35</v>
@@ -4840,7 +4881,7 @@
         <v>37</v>
       </c>
       <c r="H60" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I60" t="s">
         <v>39</v>
@@ -4849,25 +4890,25 @@
         <v>40</v>
       </c>
       <c r="K60" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L60" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M60" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="Q60">
         <v>11</v>
       </c>
       <c r="R60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T60">
         <v>8</v>
@@ -4876,18 +4917,18 @@
         <v>2</v>
       </c>
       <c r="AD60" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE60" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D61" t="s">
         <v>35</v>
@@ -4899,7 +4940,7 @@
         <v>37</v>
       </c>
       <c r="H61" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I61" t="s">
         <v>39</v>
@@ -4908,54 +4949,57 @@
         <v>40</v>
       </c>
       <c r="K61" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L61" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M61" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O61" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q61">
         <v>12</v>
       </c>
       <c r="R61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T61">
         <v>1</v>
       </c>
       <c r="W61" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z61" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>111</v>
       </c>
       <c r="AD61" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AE61" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C62" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" t="s">
         <v>35</v>
@@ -4967,7 +5011,7 @@
         <v>37</v>
       </c>
       <c r="H62" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I62" t="s">
         <v>39</v>
@@ -4976,34 +5020,34 @@
         <v>40</v>
       </c>
       <c r="K62" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L62" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M62" t="s">
         <v>44</v>
       </c>
       <c r="P62" t="s">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="Q62">
         <v>1</v>
       </c>
       <c r="R62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T62">
         <v>100</v>
       </c>
       <c r="V62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD62" t="s">
         <v>44</v>
@@ -5014,10 +5058,10 @@
     </row>
     <row r="63" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" t="s">
         <v>35</v>
@@ -5029,7 +5073,7 @@
         <v>37</v>
       </c>
       <c r="H63" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I63" t="s">
         <v>39</v>
@@ -5038,45 +5082,45 @@
         <v>40</v>
       </c>
       <c r="K63" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L63" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q63">
         <v>2</v>
       </c>
       <c r="R63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T63">
         <v>100</v>
       </c>
       <c r="V63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C64" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D64" t="s">
         <v>35</v>
@@ -5088,7 +5132,7 @@
         <v>37</v>
       </c>
       <c r="H64" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I64" t="s">
         <v>39</v>
@@ -5097,42 +5141,42 @@
         <v>40</v>
       </c>
       <c r="K64" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L64" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q64">
         <v>3</v>
       </c>
       <c r="R64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T64">
         <v>200</v>
       </c>
       <c r="AD64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C65" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D65" t="s">
         <v>35</v>
@@ -5144,7 +5188,7 @@
         <v>37</v>
       </c>
       <c r="H65" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I65" t="s">
         <v>39</v>
@@ -5153,45 +5197,45 @@
         <v>40</v>
       </c>
       <c r="K65" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L65" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q65">
         <v>4</v>
       </c>
       <c r="R65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T65">
         <v>10</v>
       </c>
       <c r="AD65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D66" t="s">
         <v>35</v>
@@ -5203,7 +5247,7 @@
         <v>37</v>
       </c>
       <c r="H66" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I66" t="s">
         <v>39</v>
@@ -5212,57 +5256,57 @@
         <v>40</v>
       </c>
       <c r="K66" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L66" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q66">
         <v>5</v>
       </c>
       <c r="R66" t="s">
+        <v>48</v>
+      </c>
+      <c r="S66" t="s">
         <v>47</v>
-      </c>
-      <c r="S66" t="s">
-        <v>46</v>
       </c>
       <c r="T66">
         <v>100</v>
       </c>
       <c r="W66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C67" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D67" t="s">
         <v>35</v>
@@ -5274,7 +5318,7 @@
         <v>37</v>
       </c>
       <c r="H67" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I67" t="s">
         <v>39</v>
@@ -5283,60 +5327,60 @@
         <v>40</v>
       </c>
       <c r="K67" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L67" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N67" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q67">
         <v>6</v>
       </c>
       <c r="R67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T67">
         <v>1</v>
       </c>
       <c r="W67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y67" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z67" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA67" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AD67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D68" t="s">
         <v>35</v>
@@ -5348,7 +5392,7 @@
         <v>37</v>
       </c>
       <c r="H68" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I68" t="s">
         <v>39</v>
@@ -5357,28 +5401,28 @@
         <v>40</v>
       </c>
       <c r="K68" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L68" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N68" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P68" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>7</v>
       </c>
       <c r="R68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S68" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T68">
         <v>8</v>
@@ -5387,18 +5431,18 @@
         <v>2</v>
       </c>
       <c r="AD68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE68" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C69" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D69" t="s">
         <v>35</v>
@@ -5410,7 +5454,7 @@
         <v>37</v>
       </c>
       <c r="H69" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I69" t="s">
         <v>39</v>
@@ -5419,39 +5463,42 @@
         <v>40</v>
       </c>
       <c r="K69" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L69" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M69" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="N69" t="s">
+        <v>115</v>
       </c>
       <c r="P69" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q69">
         <v>8</v>
       </c>
       <c r="S69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T69">
         <v>20</v>
       </c>
       <c r="AD69" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE69" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C70" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D70" t="s">
         <v>35</v>
@@ -5463,7 +5510,7 @@
         <v>37</v>
       </c>
       <c r="H70" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I70" t="s">
         <v>39</v>
@@ -5472,42 +5519,45 @@
         <v>40</v>
       </c>
       <c r="K70" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L70" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M70" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="N70" t="s">
+        <v>223</v>
       </c>
       <c r="P70" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q70">
         <v>9</v>
       </c>
       <c r="R70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T70">
         <v>100</v>
       </c>
       <c r="AD70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C71" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D71" t="s">
         <v>35</v>
@@ -5519,7 +5569,7 @@
         <v>37</v>
       </c>
       <c r="H71" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I71" t="s">
         <v>39</v>
@@ -5528,25 +5578,25 @@
         <v>40</v>
       </c>
       <c r="K71" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L71" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="Q71">
         <v>10</v>
       </c>
       <c r="R71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S71" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T71">
         <v>8</v>
@@ -5555,18 +5605,18 @@
         <v>2</v>
       </c>
       <c r="AD71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C72" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D72" t="s">
         <v>35</v>
@@ -5578,7 +5628,7 @@
         <v>37</v>
       </c>
       <c r="H72" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I72" t="s">
         <v>39</v>
@@ -5587,25 +5637,25 @@
         <v>40</v>
       </c>
       <c r="K72" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L72" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M72" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P72" t="s">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="Q72">
         <v>11</v>
       </c>
       <c r="R72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T72">
         <v>8</v>
@@ -5614,18 +5664,18 @@
         <v>2</v>
       </c>
       <c r="AD72" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE72" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C73" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D73" t="s">
         <v>35</v>
@@ -5637,7 +5687,7 @@
         <v>37</v>
       </c>
       <c r="H73" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I73" t="s">
         <v>39</v>
@@ -5646,54 +5696,57 @@
         <v>40</v>
       </c>
       <c r="K73" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L73" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M73" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O73" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q73">
         <v>12</v>
       </c>
       <c r="R73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T73">
         <v>1</v>
       </c>
       <c r="W73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z73" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>111</v>
       </c>
       <c r="AD73" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AE73" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C74" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D74" t="s">
         <v>35</v>
@@ -5705,7 +5758,7 @@
         <v>37</v>
       </c>
       <c r="H74" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I74" t="s">
         <v>39</v>
@@ -5714,34 +5767,34 @@
         <v>40</v>
       </c>
       <c r="K74" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L74" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M74" t="s">
         <v>44</v>
       </c>
       <c r="P74" t="s">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="Q74">
         <v>1</v>
       </c>
       <c r="R74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T74">
         <v>100</v>
       </c>
       <c r="V74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD74" t="s">
         <v>44</v>
@@ -5752,10 +5805,10 @@
     </row>
     <row r="75" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C75" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D75" t="s">
         <v>35</v>
@@ -5767,7 +5820,7 @@
         <v>37</v>
       </c>
       <c r="H75" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I75" t="s">
         <v>39</v>
@@ -5776,45 +5829,45 @@
         <v>40</v>
       </c>
       <c r="K75" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L75" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q75">
         <v>2</v>
       </c>
       <c r="R75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T75">
         <v>100</v>
       </c>
       <c r="V75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AE75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C76" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D76" t="s">
         <v>35</v>
@@ -5826,7 +5879,7 @@
         <v>37</v>
       </c>
       <c r="H76" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I76" t="s">
         <v>39</v>
@@ -5835,42 +5888,42 @@
         <v>40</v>
       </c>
       <c r="K76" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L76" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q76">
         <v>3</v>
       </c>
       <c r="R76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T76">
         <v>200</v>
       </c>
       <c r="AD76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D77" t="s">
         <v>35</v>
@@ -5882,7 +5935,7 @@
         <v>37</v>
       </c>
       <c r="H77" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I77" t="s">
         <v>39</v>
@@ -5891,45 +5944,45 @@
         <v>40</v>
       </c>
       <c r="K77" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L77" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q77">
         <v>4</v>
       </c>
       <c r="R77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T77">
         <v>10</v>
       </c>
       <c r="AD77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AE77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D78" t="s">
         <v>35</v>
@@ -5941,7 +5994,7 @@
         <v>37</v>
       </c>
       <c r="H78" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I78" t="s">
         <v>39</v>
@@ -5950,57 +6003,57 @@
         <v>40</v>
       </c>
       <c r="K78" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L78" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N78" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P78" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q78">
         <v>5</v>
       </c>
       <c r="R78" t="s">
+        <v>48</v>
+      </c>
+      <c r="S78" t="s">
         <v>47</v>
-      </c>
-      <c r="S78" t="s">
-        <v>46</v>
       </c>
       <c r="T78">
         <v>100</v>
       </c>
       <c r="W78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X78" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB78" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AC78" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AD78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C79" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D79" t="s">
         <v>35</v>
@@ -6012,7 +6065,7 @@
         <v>37</v>
       </c>
       <c r="H79" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I79" t="s">
         <v>39</v>
@@ -6021,60 +6074,60 @@
         <v>40</v>
       </c>
       <c r="K79" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L79" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M79" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N79" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O79" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q79">
         <v>6</v>
       </c>
       <c r="R79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T79">
         <v>1</v>
       </c>
       <c r="W79" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X79" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y79" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z79" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA79" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AD79" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE79" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C80" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D80" t="s">
         <v>35</v>
@@ -6086,7 +6139,7 @@
         <v>37</v>
       </c>
       <c r="H80" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I80" t="s">
         <v>39</v>
@@ -6095,28 +6148,28 @@
         <v>40</v>
       </c>
       <c r="K80" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L80" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M80" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N80" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P80" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q80">
         <v>7</v>
       </c>
       <c r="R80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S80" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T80">
         <v>8</v>
@@ -6125,18 +6178,18 @@
         <v>2</v>
       </c>
       <c r="AD80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE80" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C81" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D81" t="s">
         <v>35</v>
@@ -6148,7 +6201,7 @@
         <v>37</v>
       </c>
       <c r="H81" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I81" t="s">
         <v>39</v>
@@ -6157,60 +6210,60 @@
         <v>40</v>
       </c>
       <c r="K81" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L81" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N81" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q81">
         <v>8</v>
       </c>
       <c r="R81" t="s">
+        <v>48</v>
+      </c>
+      <c r="S81" t="s">
         <v>47</v>
-      </c>
-      <c r="S81" t="s">
-        <v>46</v>
       </c>
       <c r="T81">
         <v>20</v>
       </c>
       <c r="W81" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="X81" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Y81" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Z81" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AA81" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AD81" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE81" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C82" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D82" t="s">
         <v>35</v>
@@ -6222,7 +6275,7 @@
         <v>37</v>
       </c>
       <c r="H82" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I82" t="s">
         <v>39</v>
@@ -6231,42 +6284,45 @@
         <v>40</v>
       </c>
       <c r="K82" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L82" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M82" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="N82" t="s">
+        <v>223</v>
       </c>
       <c r="P82" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q82">
         <v>9</v>
       </c>
       <c r="R82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T82">
         <v>100</v>
       </c>
       <c r="AD82" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE82" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C83" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D83" t="s">
         <v>35</v>
@@ -6278,7 +6334,7 @@
         <v>37</v>
       </c>
       <c r="H83" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I83" t="s">
         <v>39</v>
@@ -6287,25 +6343,25 @@
         <v>40</v>
       </c>
       <c r="K83" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L83" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M83" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P83" t="s">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="Q83">
         <v>10</v>
       </c>
       <c r="R83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S83" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T83">
         <v>8</v>
@@ -6314,18 +6370,18 @@
         <v>2</v>
       </c>
       <c r="AD83" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AE83" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C84" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D84" t="s">
         <v>35</v>
@@ -6337,7 +6393,7 @@
         <v>37</v>
       </c>
       <c r="H84" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I84" t="s">
         <v>39</v>
@@ -6346,25 +6402,25 @@
         <v>40</v>
       </c>
       <c r="K84" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L84" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M84" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P84" t="s">
-        <v>223</v>
+        <v>95</v>
       </c>
       <c r="Q84">
         <v>11</v>
       </c>
       <c r="R84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S84" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T84">
         <v>8</v>
@@ -6373,18 +6429,18 @@
         <v>2</v>
       </c>
       <c r="AD84" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE84" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C85" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D85" t="s">
         <v>35</v>
@@ -6396,7 +6452,7 @@
         <v>37</v>
       </c>
       <c r="H85" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I85" t="s">
         <v>39</v>
@@ -6405,46 +6461,49 @@
         <v>40</v>
       </c>
       <c r="K85" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L85" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M85" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O85" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q85">
         <v>12</v>
       </c>
       <c r="R85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T85">
         <v>1</v>
       </c>
       <c r="W85" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X85" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z85" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>111</v>
       </c>
       <c r="AD85" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AE85" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/curation/draft/collection/collection_specialization_LB_Local_Urinalysis.xlsx
+++ b/curation/draft/collection/collection_specialization_LB_Local_Urinalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0373C892-225D-4572-9D11-CB639681ACE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53479412-5442-4446-A3AD-717DE40F9E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,10 +160,6 @@
     <t>LBCAT</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Lab Panel Name</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -302,20 +298,12 @@
     <t>LBORNRLO</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Normal Range Lower Limit</t>
-  </si>
-  <si>
     <t>COLOR_LBORNRHI</t>
   </si>
   <si>
     <t>LBORNRHI</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Normal Range Upper Limit</t>
-  </si>
-  <si>
     <t>COLOR_LBCLSIG</t>
   </si>
   <si>
@@ -698,6 +686,15 @@
   </si>
   <si>
     <t>C82535</t>
+  </si>
+  <si>
+    <t>Lab Panel Name</t>
+  </si>
+  <si>
+    <t>Normal Range Lower Limit</t>
+  </si>
+  <si>
+    <t>Normal Range Upper Limit</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1085,7 @@
   <dimension ref="A1:AG85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L91" sqref="L91"/>
+      <selection activeCell="P24" sqref="P24:P84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,25 +1237,25 @@
         <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" t="s">
         <v>46</v>
-      </c>
-      <c r="S2" t="s">
-        <v>47</v>
       </c>
       <c r="T2">
         <v>100</v>
       </c>
       <c r="V2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" t="s">
         <v>48</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>49</v>
       </c>
       <c r="AD2" t="s">
         <v>44</v>
@@ -1296,34 +1293,34 @@
         <v>41</v>
       </c>
       <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s">
         <v>50</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>51</v>
-      </c>
-      <c r="P3" t="s">
-        <v>52</v>
       </c>
       <c r="Q3">
         <v>2</v>
       </c>
       <c r="R3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" t="s">
         <v>46</v>
-      </c>
-      <c r="S3" t="s">
-        <v>47</v>
       </c>
       <c r="T3">
         <v>100</v>
       </c>
       <c r="V3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
@@ -1355,31 +1352,31 @@
         <v>41</v>
       </c>
       <c r="L4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" t="s">
         <v>53</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>54</v>
-      </c>
-      <c r="O4" t="s">
-        <v>55</v>
       </c>
       <c r="Q4">
         <v>3</v>
       </c>
       <c r="R4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" t="s">
         <v>46</v>
-      </c>
-      <c r="S4" t="s">
-        <v>47</v>
       </c>
       <c r="T4">
         <v>200</v>
       </c>
       <c r="AD4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -1411,34 +1408,34 @@
         <v>41</v>
       </c>
       <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
         <v>56</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P5" t="s">
         <v>57</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="P5" t="s">
-        <v>58</v>
       </c>
       <c r="Q5">
         <v>4</v>
       </c>
       <c r="R5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T5">
         <v>10</v>
       </c>
       <c r="AD5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
@@ -1470,46 +1467,46 @@
         <v>41</v>
       </c>
       <c r="L6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M6" t="s">
         <v>61</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>62</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>63</v>
-      </c>
-      <c r="P6" t="s">
-        <v>64</v>
       </c>
       <c r="Q6">
         <v>5</v>
       </c>
       <c r="R6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T6">
         <v>100</v>
       </c>
       <c r="W6" t="s">
+        <v>64</v>
+      </c>
+      <c r="X6" t="s">
         <v>65</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AB6" t="s">
         <v>66</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>67</v>
       </c>
-      <c r="AC6" t="s">
-        <v>68</v>
-      </c>
       <c r="AD6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -1541,49 +1538,49 @@
         <v>41</v>
       </c>
       <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="s">
         <v>69</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O7" t="s">
         <v>70</v>
-      </c>
-      <c r="N7" t="s">
-        <v>110</v>
-      </c>
-      <c r="O7" t="s">
-        <v>71</v>
       </c>
       <c r="Q7">
         <v>6</v>
       </c>
       <c r="R7" t="s">
+        <v>45</v>
+      </c>
+      <c r="S7" t="s">
         <v>46</v>
-      </c>
-      <c r="S7" t="s">
-        <v>47</v>
       </c>
       <c r="T7">
         <v>1</v>
       </c>
       <c r="W7" t="s">
+        <v>71</v>
+      </c>
+      <c r="X7" t="s">
         <v>72</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>73</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>74</v>
       </c>
-      <c r="Z7" t="s">
-        <v>75</v>
-      </c>
       <c r="AA7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AD7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -1615,13 +1612,13 @@
         <v>41</v>
       </c>
       <c r="L8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" t="s">
         <v>76</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>77</v>
-      </c>
-      <c r="N8" t="s">
-        <v>78</v>
       </c>
       <c r="P8" t="s">
         <v>42</v>
@@ -1630,10 +1627,10 @@
         <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T8">
         <v>8</v>
@@ -1642,10 +1639,10 @@
         <v>2</v>
       </c>
       <c r="AD8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE8" t="s">
         <v>80</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -1677,31 +1674,31 @@
         <v>41</v>
       </c>
       <c r="L9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M9" t="s">
         <v>82</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" t="s">
         <v>83</v>
-      </c>
-      <c r="N9" t="s">
-        <v>115</v>
-      </c>
-      <c r="P9" t="s">
-        <v>84</v>
       </c>
       <c r="Q9">
         <v>8</v>
       </c>
       <c r="S9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T9">
         <v>20</v>
       </c>
       <c r="AD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE9" t="s">
         <v>85</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -1733,34 +1730,34 @@
         <v>41</v>
       </c>
       <c r="L10" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" t="s">
         <v>87</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
+        <v>220</v>
+      </c>
+      <c r="P10" t="s">
         <v>88</v>
-      </c>
-      <c r="N10" t="s">
-        <v>223</v>
-      </c>
-      <c r="P10" t="s">
-        <v>89</v>
       </c>
       <c r="Q10">
         <v>9</v>
       </c>
       <c r="R10" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" t="s">
         <v>46</v>
-      </c>
-      <c r="S10" t="s">
-        <v>47</v>
       </c>
       <c r="T10">
         <v>100</v>
       </c>
       <c r="AD10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
@@ -1792,22 +1789,22 @@
         <v>41</v>
       </c>
       <c r="L11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" t="s">
         <v>90</v>
       </c>
-      <c r="M11" t="s">
-        <v>91</v>
-      </c>
       <c r="P11" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="Q11">
         <v>10</v>
       </c>
       <c r="R11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T11">
         <v>8</v>
@@ -1816,10 +1813,10 @@
         <v>2</v>
       </c>
       <c r="AD11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
@@ -1851,22 +1848,22 @@
         <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="Q12">
         <v>11</v>
       </c>
       <c r="R12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T12">
         <v>8</v>
@@ -1875,10 +1872,10 @@
         <v>2</v>
       </c>
       <c r="AD12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AE12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
@@ -1910,102 +1907,102 @@
         <v>41</v>
       </c>
       <c r="L13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q13">
         <v>12</v>
       </c>
       <c r="R13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S13" t="s">
         <v>46</v>
-      </c>
-      <c r="S13" t="s">
-        <v>47</v>
       </c>
       <c r="T13">
         <v>1</v>
       </c>
       <c r="W13" t="s">
+        <v>71</v>
+      </c>
+      <c r="X13" t="s">
         <v>72</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>73</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>74</v>
       </c>
-      <c r="Z13" t="s">
-        <v>75</v>
-      </c>
       <c r="AA13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AD13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" t="s">
         <v>99</v>
       </c>
-      <c r="C14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="L14" t="s">
         <v>101</v>
-      </c>
-      <c r="I14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" t="s">
-        <v>104</v>
       </c>
       <c r="M14" t="s">
         <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="Q14">
         <v>1</v>
       </c>
       <c r="R14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S14" t="s">
         <v>46</v>
-      </c>
-      <c r="S14" t="s">
-        <v>47</v>
       </c>
       <c r="T14">
         <v>100</v>
       </c>
       <c r="V14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB14" t="s">
         <v>48</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>49</v>
       </c>
       <c r="AD14" t="s">
         <v>44</v>
@@ -2016,371 +2013,371 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" t="s">
         <v>99</v>
       </c>
-      <c r="C15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>102</v>
       </c>
-      <c r="L15" t="s">
-        <v>105</v>
-      </c>
       <c r="M15" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" t="s">
         <v>51</v>
-      </c>
-      <c r="P15" t="s">
-        <v>52</v>
       </c>
       <c r="Q15">
         <v>2</v>
       </c>
       <c r="R15" t="s">
+        <v>45</v>
+      </c>
+      <c r="S15" t="s">
         <v>46</v>
-      </c>
-      <c r="S15" t="s">
-        <v>47</v>
       </c>
       <c r="T15">
         <v>100</v>
       </c>
       <c r="V15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" t="s">
         <v>99</v>
       </c>
-      <c r="C16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" t="s">
-        <v>101</v>
-      </c>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" t="s">
-        <v>102</v>
-      </c>
       <c r="L16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M16" t="s">
+        <v>53</v>
+      </c>
+      <c r="O16" t="s">
         <v>54</v>
-      </c>
-      <c r="O16" t="s">
-        <v>55</v>
       </c>
       <c r="Q16">
         <v>3</v>
       </c>
       <c r="R16" t="s">
+        <v>45</v>
+      </c>
+      <c r="S16" t="s">
         <v>46</v>
-      </c>
-      <c r="S16" t="s">
-        <v>47</v>
       </c>
       <c r="T16">
         <v>200</v>
       </c>
       <c r="AD16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K17" t="s">
         <v>99</v>
       </c>
-      <c r="C17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" t="s">
-        <v>101</v>
-      </c>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" t="s">
-        <v>102</v>
-      </c>
       <c r="L17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M17" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P17" t="s">
         <v>57</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="P17" t="s">
-        <v>58</v>
       </c>
       <c r="Q17">
         <v>4</v>
       </c>
       <c r="R17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T17">
         <v>10</v>
       </c>
       <c r="AD17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" t="s">
         <v>99</v>
       </c>
-      <c r="C18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" t="s">
-        <v>102</v>
-      </c>
       <c r="L18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M18" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18" t="s">
         <v>62</v>
       </c>
-      <c r="N18" t="s">
+      <c r="P18" t="s">
         <v>63</v>
-      </c>
-      <c r="P18" t="s">
-        <v>64</v>
       </c>
       <c r="Q18">
         <v>5</v>
       </c>
       <c r="R18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T18">
         <v>100</v>
       </c>
       <c r="W18" t="s">
+        <v>64</v>
+      </c>
+      <c r="X18" t="s">
         <v>65</v>
       </c>
-      <c r="X18" t="s">
+      <c r="AB18" t="s">
         <v>66</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>67</v>
       </c>
-      <c r="AC18" t="s">
-        <v>68</v>
-      </c>
       <c r="AD18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" t="s">
         <v>99</v>
       </c>
-      <c r="C19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" t="s">
-        <v>102</v>
-      </c>
       <c r="L19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M19" t="s">
+        <v>69</v>
+      </c>
+      <c r="N19" t="s">
+        <v>107</v>
+      </c>
+      <c r="O19" t="s">
         <v>70</v>
-      </c>
-      <c r="N19" t="s">
-        <v>110</v>
-      </c>
-      <c r="O19" t="s">
-        <v>71</v>
       </c>
       <c r="Q19">
         <v>6</v>
       </c>
       <c r="R19" t="s">
+        <v>45</v>
+      </c>
+      <c r="S19" t="s">
         <v>46</v>
-      </c>
-      <c r="S19" t="s">
-        <v>47</v>
       </c>
       <c r="T19">
         <v>1</v>
       </c>
       <c r="W19" t="s">
+        <v>71</v>
+      </c>
+      <c r="X19" t="s">
         <v>72</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>73</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>74</v>
       </c>
-      <c r="Z19" t="s">
-        <v>75</v>
-      </c>
       <c r="AA19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AD19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20" t="s">
         <v>99</v>
       </c>
-      <c r="C20" t="s">
+      <c r="L20" t="s">
+        <v>109</v>
+      </c>
+      <c r="M20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" t="s">
         <v>100</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" t="s">
-        <v>112</v>
-      </c>
-      <c r="M20" t="s">
-        <v>77</v>
-      </c>
-      <c r="N20" t="s">
-        <v>78</v>
-      </c>
-      <c r="P20" t="s">
-        <v>103</v>
       </c>
       <c r="Q20">
         <v>7</v>
       </c>
       <c r="R20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T20">
         <v>8</v>
@@ -2389,190 +2386,190 @@
         <v>2</v>
       </c>
       <c r="AD20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" t="s">
         <v>99</v>
       </c>
-      <c r="C21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" t="s">
-        <v>102</v>
-      </c>
       <c r="L21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M21" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" t="s">
         <v>83</v>
-      </c>
-      <c r="N21" t="s">
-        <v>115</v>
-      </c>
-      <c r="P21" t="s">
-        <v>84</v>
       </c>
       <c r="Q21">
         <v>8</v>
       </c>
       <c r="R21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T21">
         <v>20</v>
       </c>
       <c r="W21" t="s">
+        <v>113</v>
+      </c>
+      <c r="X21" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE21" t="s">
         <v>116</v>
-      </c>
-      <c r="X21" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" t="s">
         <v>99</v>
       </c>
-      <c r="C22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" t="s">
-        <v>101</v>
-      </c>
-      <c r="I22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" t="s">
-        <v>102</v>
-      </c>
       <c r="L22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M22" t="s">
+        <v>87</v>
+      </c>
+      <c r="N22" t="s">
+        <v>220</v>
+      </c>
+      <c r="P22" t="s">
         <v>88</v>
-      </c>
-      <c r="N22" t="s">
-        <v>223</v>
-      </c>
-      <c r="P22" t="s">
-        <v>89</v>
       </c>
       <c r="Q22">
         <v>9</v>
       </c>
       <c r="R22" t="s">
+        <v>45</v>
+      </c>
+      <c r="S22" t="s">
         <v>46</v>
-      </c>
-      <c r="S22" t="s">
-        <v>47</v>
       </c>
       <c r="T22">
         <v>100</v>
       </c>
       <c r="AD22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" t="s">
         <v>99</v>
       </c>
-      <c r="C23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" t="s">
-        <v>40</v>
-      </c>
-      <c r="K23" t="s">
-        <v>102</v>
-      </c>
       <c r="L23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="Q23">
         <v>10</v>
       </c>
       <c r="R23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T23">
         <v>8</v>
@@ -2581,57 +2578,57 @@
         <v>2</v>
       </c>
       <c r="AD23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" t="s">
         <v>99</v>
       </c>
-      <c r="C24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" t="s">
-        <v>101</v>
-      </c>
-      <c r="I24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" t="s">
-        <v>102</v>
-      </c>
       <c r="L24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P24" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="Q24">
         <v>11</v>
       </c>
       <c r="R24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T24">
         <v>8</v>
@@ -2640,137 +2637,137 @@
         <v>2</v>
       </c>
       <c r="AD24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AE24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K25" t="s">
         <v>99</v>
       </c>
-      <c r="C25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" t="s">
-        <v>101</v>
-      </c>
-      <c r="I25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" t="s">
-        <v>40</v>
-      </c>
-      <c r="K25" t="s">
-        <v>102</v>
-      </c>
       <c r="L25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q25">
         <v>12</v>
       </c>
       <c r="R25" t="s">
+        <v>45</v>
+      </c>
+      <c r="S25" t="s">
         <v>46</v>
-      </c>
-      <c r="S25" t="s">
-        <v>47</v>
       </c>
       <c r="T25">
         <v>1</v>
       </c>
       <c r="W25" t="s">
+        <v>71</v>
+      </c>
+      <c r="X25" t="s">
         <v>72</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>73</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>74</v>
       </c>
-      <c r="Z25" t="s">
-        <v>75</v>
-      </c>
       <c r="AA25" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AD25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s">
+        <v>123</v>
+      </c>
+      <c r="I26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" t="s">
         <v>124</v>
       </c>
-      <c r="C26" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="L26" t="s">
         <v>126</v>
-      </c>
-      <c r="I26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26" t="s">
-        <v>127</v>
-      </c>
-      <c r="L26" t="s">
-        <v>129</v>
       </c>
       <c r="M26" t="s">
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="Q26">
         <v>1</v>
       </c>
       <c r="R26" t="s">
+        <v>45</v>
+      </c>
+      <c r="S26" t="s">
         <v>46</v>
-      </c>
-      <c r="S26" t="s">
-        <v>47</v>
       </c>
       <c r="T26">
         <v>100</v>
       </c>
       <c r="V26" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB26" t="s">
         <v>48</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>49</v>
       </c>
       <c r="AD26" t="s">
         <v>44</v>
@@ -2781,371 +2778,371 @@
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" t="s">
         <v>124</v>
       </c>
-      <c r="C27" t="s">
-        <v>125</v>
-      </c>
-      <c r="D27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" t="s">
-        <v>126</v>
-      </c>
-      <c r="I27" t="s">
-        <v>39</v>
-      </c>
-      <c r="J27" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>127</v>
       </c>
-      <c r="L27" t="s">
-        <v>130</v>
-      </c>
       <c r="M27" t="s">
+        <v>50</v>
+      </c>
+      <c r="P27" t="s">
         <v>51</v>
-      </c>
-      <c r="P27" t="s">
-        <v>52</v>
       </c>
       <c r="Q27">
         <v>2</v>
       </c>
       <c r="R27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S27" t="s">
         <v>46</v>
-      </c>
-      <c r="S27" t="s">
-        <v>47</v>
       </c>
       <c r="T27">
         <v>100</v>
       </c>
       <c r="V27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" t="s">
+        <v>39</v>
+      </c>
+      <c r="J28" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" t="s">
         <v>124</v>
       </c>
-      <c r="C28" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" t="s">
-        <v>126</v>
-      </c>
-      <c r="I28" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" t="s">
-        <v>40</v>
-      </c>
-      <c r="K28" t="s">
-        <v>127</v>
-      </c>
       <c r="L28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M28" t="s">
+        <v>53</v>
+      </c>
+      <c r="O28" t="s">
         <v>54</v>
-      </c>
-      <c r="O28" t="s">
-        <v>55</v>
       </c>
       <c r="Q28">
         <v>3</v>
       </c>
       <c r="R28" t="s">
+        <v>45</v>
+      </c>
+      <c r="S28" t="s">
         <v>46</v>
-      </c>
-      <c r="S28" t="s">
-        <v>47</v>
       </c>
       <c r="T28">
         <v>200</v>
       </c>
       <c r="AD28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" t="s">
         <v>124</v>
       </c>
-      <c r="C29" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" t="s">
-        <v>126</v>
-      </c>
-      <c r="I29" t="s">
-        <v>39</v>
-      </c>
-      <c r="J29" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29" t="s">
-        <v>127</v>
-      </c>
       <c r="L29" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M29" t="s">
+        <v>56</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P29" t="s">
         <v>57</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="P29" t="s">
-        <v>58</v>
       </c>
       <c r="Q29">
         <v>4</v>
       </c>
       <c r="R29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T29">
         <v>10</v>
       </c>
       <c r="AD29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J30" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" t="s">
         <v>124</v>
       </c>
-      <c r="C30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" t="s">
-        <v>37</v>
-      </c>
-      <c r="H30" t="s">
-        <v>126</v>
-      </c>
-      <c r="I30" t="s">
-        <v>39</v>
-      </c>
-      <c r="J30" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" t="s">
-        <v>127</v>
-      </c>
       <c r="L30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M30" t="s">
+        <v>61</v>
+      </c>
+      <c r="N30" t="s">
         <v>62</v>
       </c>
-      <c r="N30" t="s">
+      <c r="P30" t="s">
         <v>63</v>
-      </c>
-      <c r="P30" t="s">
-        <v>64</v>
       </c>
       <c r="Q30">
         <v>5</v>
       </c>
       <c r="R30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T30">
         <v>100</v>
       </c>
       <c r="W30" t="s">
+        <v>64</v>
+      </c>
+      <c r="X30" t="s">
         <v>65</v>
       </c>
-      <c r="X30" t="s">
+      <c r="AB30" t="s">
         <v>66</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AC30" t="s">
         <v>67</v>
       </c>
-      <c r="AC30" t="s">
-        <v>68</v>
-      </c>
       <c r="AD30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" t="s">
         <v>124</v>
       </c>
-      <c r="C31" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" t="s">
-        <v>126</v>
-      </c>
-      <c r="I31" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" t="s">
-        <v>127</v>
-      </c>
       <c r="L31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M31" t="s">
+        <v>69</v>
+      </c>
+      <c r="N31" t="s">
+        <v>107</v>
+      </c>
+      <c r="O31" t="s">
         <v>70</v>
-      </c>
-      <c r="N31" t="s">
-        <v>110</v>
-      </c>
-      <c r="O31" t="s">
-        <v>71</v>
       </c>
       <c r="Q31">
         <v>6</v>
       </c>
       <c r="R31" t="s">
+        <v>45</v>
+      </c>
+      <c r="S31" t="s">
         <v>46</v>
-      </c>
-      <c r="S31" t="s">
-        <v>47</v>
       </c>
       <c r="T31">
         <v>1</v>
       </c>
       <c r="W31" t="s">
+        <v>71</v>
+      </c>
+      <c r="X31" t="s">
         <v>72</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>73</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>74</v>
       </c>
-      <c r="Z31" t="s">
-        <v>75</v>
-      </c>
       <c r="AA31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AD31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32" t="s">
         <v>124</v>
       </c>
-      <c r="C32" t="s">
+      <c r="L32" t="s">
+        <v>132</v>
+      </c>
+      <c r="M32" t="s">
+        <v>76</v>
+      </c>
+      <c r="N32" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" t="s">
         <v>125</v>
-      </c>
-      <c r="D32" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" t="s">
-        <v>37</v>
-      </c>
-      <c r="H32" t="s">
-        <v>126</v>
-      </c>
-      <c r="I32" t="s">
-        <v>39</v>
-      </c>
-      <c r="J32" t="s">
-        <v>40</v>
-      </c>
-      <c r="K32" t="s">
-        <v>127</v>
-      </c>
-      <c r="L32" t="s">
-        <v>135</v>
-      </c>
-      <c r="M32" t="s">
-        <v>77</v>
-      </c>
-      <c r="N32" t="s">
-        <v>78</v>
-      </c>
-      <c r="P32" t="s">
-        <v>128</v>
       </c>
       <c r="Q32">
         <v>7</v>
       </c>
       <c r="R32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T32">
         <v>8</v>
@@ -3154,190 +3151,190 @@
         <v>2</v>
       </c>
       <c r="AD32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" t="s">
+        <v>123</v>
+      </c>
+      <c r="I33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33" t="s">
         <v>124</v>
       </c>
-      <c r="C33" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" t="s">
-        <v>126</v>
-      </c>
-      <c r="I33" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33" t="s">
-        <v>127</v>
-      </c>
       <c r="L33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M33" t="s">
+        <v>82</v>
+      </c>
+      <c r="N33" t="s">
+        <v>112</v>
+      </c>
+      <c r="P33" t="s">
         <v>83</v>
-      </c>
-      <c r="N33" t="s">
-        <v>115</v>
-      </c>
-      <c r="P33" t="s">
-        <v>84</v>
       </c>
       <c r="Q33">
         <v>8</v>
       </c>
       <c r="R33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T33">
         <v>20</v>
       </c>
       <c r="W33" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="X33" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Y33" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Z33" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AA33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AD33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE33" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" t="s">
         <v>124</v>
       </c>
-      <c r="C34" t="s">
-        <v>125</v>
-      </c>
-      <c r="D34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" t="s">
-        <v>126</v>
-      </c>
-      <c r="I34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J34" t="s">
-        <v>40</v>
-      </c>
-      <c r="K34" t="s">
-        <v>127</v>
-      </c>
       <c r="L34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M34" t="s">
+        <v>87</v>
+      </c>
+      <c r="N34" t="s">
+        <v>220</v>
+      </c>
+      <c r="P34" t="s">
         <v>88</v>
-      </c>
-      <c r="N34" t="s">
-        <v>223</v>
-      </c>
-      <c r="P34" t="s">
-        <v>89</v>
       </c>
       <c r="Q34">
         <v>9</v>
       </c>
       <c r="R34" t="s">
+        <v>45</v>
+      </c>
+      <c r="S34" t="s">
         <v>46</v>
-      </c>
-      <c r="S34" t="s">
-        <v>47</v>
       </c>
       <c r="T34">
         <v>100</v>
       </c>
       <c r="AD34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J35" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" t="s">
         <v>124</v>
       </c>
-      <c r="C35" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" t="s">
-        <v>126</v>
-      </c>
-      <c r="I35" t="s">
-        <v>39</v>
-      </c>
-      <c r="J35" t="s">
-        <v>40</v>
-      </c>
-      <c r="K35" t="s">
-        <v>127</v>
-      </c>
       <c r="L35" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P35" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="Q35">
         <v>10</v>
       </c>
       <c r="R35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T35">
         <v>8</v>
@@ -3346,57 +3343,57 @@
         <v>2</v>
       </c>
       <c r="AD35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s">
+        <v>123</v>
+      </c>
+      <c r="I36" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" t="s">
+        <v>40</v>
+      </c>
+      <c r="K36" t="s">
         <v>124</v>
       </c>
-      <c r="C36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" t="s">
-        <v>126</v>
-      </c>
-      <c r="I36" t="s">
-        <v>39</v>
-      </c>
-      <c r="J36" t="s">
-        <v>40</v>
-      </c>
-      <c r="K36" t="s">
-        <v>127</v>
-      </c>
       <c r="L36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P36" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="Q36">
         <v>11</v>
       </c>
       <c r="R36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T36">
         <v>8</v>
@@ -3405,137 +3402,137 @@
         <v>2</v>
       </c>
       <c r="AD36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AE36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" t="s">
+        <v>40</v>
+      </c>
+      <c r="K37" t="s">
         <v>124</v>
       </c>
-      <c r="C37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" t="s">
-        <v>37</v>
-      </c>
-      <c r="H37" t="s">
-        <v>126</v>
-      </c>
-      <c r="I37" t="s">
-        <v>39</v>
-      </c>
-      <c r="J37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K37" t="s">
-        <v>127</v>
-      </c>
       <c r="L37" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q37">
         <v>12</v>
       </c>
       <c r="R37" t="s">
+        <v>45</v>
+      </c>
+      <c r="S37" t="s">
         <v>46</v>
-      </c>
-      <c r="S37" t="s">
-        <v>47</v>
       </c>
       <c r="T37">
         <v>1</v>
       </c>
       <c r="W37" t="s">
+        <v>71</v>
+      </c>
+      <c r="X37" t="s">
         <v>72</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>73</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>74</v>
       </c>
-      <c r="Z37" t="s">
-        <v>75</v>
-      </c>
       <c r="AA37" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AD37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" t="s">
+        <v>143</v>
+      </c>
+      <c r="I38" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K38" t="s">
         <v>144</v>
       </c>
-      <c r="C38" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="L38" t="s">
         <v>146</v>
-      </c>
-      <c r="I38" t="s">
-        <v>39</v>
-      </c>
-      <c r="J38" t="s">
-        <v>40</v>
-      </c>
-      <c r="K38" t="s">
-        <v>147</v>
-      </c>
-      <c r="L38" t="s">
-        <v>149</v>
       </c>
       <c r="M38" t="s">
         <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="Q38">
         <v>1</v>
       </c>
       <c r="R38" t="s">
+        <v>45</v>
+      </c>
+      <c r="S38" t="s">
         <v>46</v>
-      </c>
-      <c r="S38" t="s">
-        <v>47</v>
       </c>
       <c r="T38">
         <v>100</v>
       </c>
       <c r="V38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB38" t="s">
         <v>48</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>49</v>
       </c>
       <c r="AD38" t="s">
         <v>44</v>
@@ -3546,371 +3543,371 @@
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" t="s">
+        <v>143</v>
+      </c>
+      <c r="I39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" t="s">
         <v>144</v>
       </c>
-      <c r="C39" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" t="s">
-        <v>146</v>
-      </c>
-      <c r="I39" t="s">
-        <v>39</v>
-      </c>
-      <c r="J39" t="s">
-        <v>40</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>147</v>
       </c>
-      <c r="L39" t="s">
-        <v>150</v>
-      </c>
       <c r="M39" t="s">
+        <v>50</v>
+      </c>
+      <c r="P39" t="s">
         <v>51</v>
-      </c>
-      <c r="P39" t="s">
-        <v>52</v>
       </c>
       <c r="Q39">
         <v>2</v>
       </c>
       <c r="R39" t="s">
+        <v>45</v>
+      </c>
+      <c r="S39" t="s">
         <v>46</v>
-      </c>
-      <c r="S39" t="s">
-        <v>47</v>
       </c>
       <c r="T39">
         <v>100</v>
       </c>
       <c r="V39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" t="s">
+        <v>143</v>
+      </c>
+      <c r="I40" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" t="s">
+        <v>40</v>
+      </c>
+      <c r="K40" t="s">
         <v>144</v>
       </c>
-      <c r="C40" t="s">
-        <v>145</v>
-      </c>
-      <c r="D40" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" t="s">
-        <v>146</v>
-      </c>
-      <c r="I40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J40" t="s">
-        <v>40</v>
-      </c>
-      <c r="K40" t="s">
-        <v>147</v>
-      </c>
       <c r="L40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M40" t="s">
+        <v>53</v>
+      </c>
+      <c r="O40" t="s">
         <v>54</v>
-      </c>
-      <c r="O40" t="s">
-        <v>55</v>
       </c>
       <c r="Q40">
         <v>3</v>
       </c>
       <c r="R40" t="s">
+        <v>45</v>
+      </c>
+      <c r="S40" t="s">
         <v>46</v>
-      </c>
-      <c r="S40" t="s">
-        <v>47</v>
       </c>
       <c r="T40">
         <v>200</v>
       </c>
       <c r="AD40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" t="s">
+        <v>142</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" t="s">
+        <v>143</v>
+      </c>
+      <c r="I41" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41" t="s">
         <v>144</v>
       </c>
-      <c r="C41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D41" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" t="s">
-        <v>37</v>
-      </c>
-      <c r="H41" t="s">
-        <v>146</v>
-      </c>
-      <c r="I41" t="s">
-        <v>39</v>
-      </c>
-      <c r="J41" t="s">
-        <v>40</v>
-      </c>
-      <c r="K41" t="s">
-        <v>147</v>
-      </c>
       <c r="L41" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M41" t="s">
+        <v>56</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P41" t="s">
         <v>57</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="P41" t="s">
-        <v>58</v>
       </c>
       <c r="Q41">
         <v>4</v>
       </c>
       <c r="R41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T41">
         <v>10</v>
       </c>
       <c r="AD41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" t="s">
+        <v>143</v>
+      </c>
+      <c r="I42" t="s">
+        <v>39</v>
+      </c>
+      <c r="J42" t="s">
+        <v>40</v>
+      </c>
+      <c r="K42" t="s">
         <v>144</v>
       </c>
-      <c r="C42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" t="s">
-        <v>146</v>
-      </c>
-      <c r="I42" t="s">
-        <v>39</v>
-      </c>
-      <c r="J42" t="s">
-        <v>40</v>
-      </c>
-      <c r="K42" t="s">
-        <v>147</v>
-      </c>
       <c r="L42" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M42" t="s">
+        <v>61</v>
+      </c>
+      <c r="N42" t="s">
         <v>62</v>
       </c>
-      <c r="N42" t="s">
+      <c r="P42" t="s">
         <v>63</v>
-      </c>
-      <c r="P42" t="s">
-        <v>64</v>
       </c>
       <c r="Q42">
         <v>5</v>
       </c>
       <c r="R42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T42">
         <v>100</v>
       </c>
       <c r="W42" t="s">
+        <v>64</v>
+      </c>
+      <c r="X42" t="s">
         <v>65</v>
       </c>
-      <c r="X42" t="s">
+      <c r="AB42" t="s">
         <v>66</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AC42" t="s">
         <v>67</v>
       </c>
-      <c r="AC42" t="s">
-        <v>68</v>
-      </c>
       <c r="AD42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s">
+        <v>143</v>
+      </c>
+      <c r="I43" t="s">
+        <v>39</v>
+      </c>
+      <c r="J43" t="s">
+        <v>40</v>
+      </c>
+      <c r="K43" t="s">
         <v>144</v>
       </c>
-      <c r="C43" t="s">
-        <v>145</v>
-      </c>
-      <c r="D43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" t="s">
-        <v>36</v>
-      </c>
-      <c r="G43" t="s">
-        <v>37</v>
-      </c>
-      <c r="H43" t="s">
-        <v>146</v>
-      </c>
-      <c r="I43" t="s">
-        <v>39</v>
-      </c>
-      <c r="J43" t="s">
-        <v>40</v>
-      </c>
-      <c r="K43" t="s">
-        <v>147</v>
-      </c>
       <c r="L43" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M43" t="s">
+        <v>69</v>
+      </c>
+      <c r="N43" t="s">
+        <v>107</v>
+      </c>
+      <c r="O43" t="s">
         <v>70</v>
-      </c>
-      <c r="N43" t="s">
-        <v>110</v>
-      </c>
-      <c r="O43" t="s">
-        <v>71</v>
       </c>
       <c r="Q43">
         <v>6</v>
       </c>
       <c r="R43" t="s">
+        <v>45</v>
+      </c>
+      <c r="S43" t="s">
         <v>46</v>
-      </c>
-      <c r="S43" t="s">
-        <v>47</v>
       </c>
       <c r="T43">
         <v>1</v>
       </c>
       <c r="W43" t="s">
+        <v>71</v>
+      </c>
+      <c r="X43" t="s">
         <v>72</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>73</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>74</v>
       </c>
-      <c r="Z43" t="s">
-        <v>75</v>
-      </c>
       <c r="AA43" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AD43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" t="s">
+        <v>143</v>
+      </c>
+      <c r="I44" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" t="s">
+        <v>40</v>
+      </c>
+      <c r="K44" t="s">
         <v>144</v>
       </c>
-      <c r="C44" t="s">
+      <c r="L44" t="s">
+        <v>152</v>
+      </c>
+      <c r="M44" t="s">
+        <v>76</v>
+      </c>
+      <c r="N44" t="s">
+        <v>77</v>
+      </c>
+      <c r="P44" t="s">
         <v>145</v>
-      </c>
-      <c r="D44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" t="s">
-        <v>36</v>
-      </c>
-      <c r="G44" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" t="s">
-        <v>146</v>
-      </c>
-      <c r="I44" t="s">
-        <v>39</v>
-      </c>
-      <c r="J44" t="s">
-        <v>40</v>
-      </c>
-      <c r="K44" t="s">
-        <v>147</v>
-      </c>
-      <c r="L44" t="s">
-        <v>155</v>
-      </c>
-      <c r="M44" t="s">
-        <v>77</v>
-      </c>
-      <c r="N44" t="s">
-        <v>78</v>
-      </c>
-      <c r="P44" t="s">
-        <v>148</v>
       </c>
       <c r="Q44">
         <v>7</v>
       </c>
       <c r="R44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T44">
         <v>8</v>
@@ -3919,172 +3916,172 @@
         <v>2</v>
       </c>
       <c r="AD44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" t="s">
+        <v>143</v>
+      </c>
+      <c r="I45" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45" t="s">
+        <v>40</v>
+      </c>
+      <c r="K45" t="s">
         <v>144</v>
       </c>
-      <c r="C45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" t="s">
-        <v>146</v>
-      </c>
-      <c r="I45" t="s">
-        <v>39</v>
-      </c>
-      <c r="J45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K45" t="s">
-        <v>147</v>
-      </c>
       <c r="L45" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M45" t="s">
+        <v>82</v>
+      </c>
+      <c r="N45" t="s">
+        <v>112</v>
+      </c>
+      <c r="P45" t="s">
         <v>83</v>
-      </c>
-      <c r="N45" t="s">
-        <v>115</v>
-      </c>
-      <c r="P45" t="s">
-        <v>84</v>
       </c>
       <c r="Q45">
         <v>8</v>
       </c>
       <c r="S45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T45">
         <v>20</v>
       </c>
       <c r="AD45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE45" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" t="s">
+        <v>143</v>
+      </c>
+      <c r="I46" t="s">
+        <v>39</v>
+      </c>
+      <c r="J46" t="s">
+        <v>40</v>
+      </c>
+      <c r="K46" t="s">
         <v>144</v>
       </c>
-      <c r="C46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46" t="s">
-        <v>36</v>
-      </c>
-      <c r="G46" t="s">
-        <v>37</v>
-      </c>
-      <c r="H46" t="s">
-        <v>146</v>
-      </c>
-      <c r="I46" t="s">
-        <v>39</v>
-      </c>
-      <c r="J46" t="s">
-        <v>40</v>
-      </c>
-      <c r="K46" t="s">
-        <v>147</v>
-      </c>
       <c r="L46" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M46" t="s">
+        <v>87</v>
+      </c>
+      <c r="N46" t="s">
+        <v>220</v>
+      </c>
+      <c r="P46" t="s">
         <v>88</v>
-      </c>
-      <c r="N46" t="s">
-        <v>223</v>
-      </c>
-      <c r="P46" t="s">
-        <v>89</v>
       </c>
       <c r="Q46">
         <v>9</v>
       </c>
       <c r="R46" t="s">
+        <v>45</v>
+      </c>
+      <c r="S46" t="s">
         <v>46</v>
-      </c>
-      <c r="S46" t="s">
-        <v>47</v>
       </c>
       <c r="T46">
         <v>100</v>
       </c>
       <c r="AD46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" t="s">
+        <v>143</v>
+      </c>
+      <c r="I47" t="s">
+        <v>39</v>
+      </c>
+      <c r="J47" t="s">
+        <v>40</v>
+      </c>
+      <c r="K47" t="s">
         <v>144</v>
       </c>
-      <c r="C47" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" t="s">
-        <v>37</v>
-      </c>
-      <c r="H47" t="s">
-        <v>146</v>
-      </c>
-      <c r="I47" t="s">
-        <v>39</v>
-      </c>
-      <c r="J47" t="s">
-        <v>40</v>
-      </c>
-      <c r="K47" t="s">
-        <v>147</v>
-      </c>
       <c r="L47" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P47" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="Q47">
         <v>10</v>
       </c>
       <c r="R47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T47">
         <v>8</v>
@@ -4093,57 +4090,57 @@
         <v>2</v>
       </c>
       <c r="AD47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" t="s">
+        <v>143</v>
+      </c>
+      <c r="I48" t="s">
+        <v>39</v>
+      </c>
+      <c r="J48" t="s">
+        <v>40</v>
+      </c>
+      <c r="K48" t="s">
         <v>144</v>
       </c>
-      <c r="C48" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" t="s">
-        <v>37</v>
-      </c>
-      <c r="H48" t="s">
-        <v>146</v>
-      </c>
-      <c r="I48" t="s">
-        <v>39</v>
-      </c>
-      <c r="J48" t="s">
-        <v>40</v>
-      </c>
-      <c r="K48" t="s">
-        <v>147</v>
-      </c>
       <c r="L48" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P48" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="Q48">
         <v>11</v>
       </c>
       <c r="R48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T48">
         <v>8</v>
@@ -4152,137 +4149,137 @@
         <v>2</v>
       </c>
       <c r="AD48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AE48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" t="s">
+        <v>143</v>
+      </c>
+      <c r="I49" t="s">
+        <v>39</v>
+      </c>
+      <c r="J49" t="s">
+        <v>40</v>
+      </c>
+      <c r="K49" t="s">
         <v>144</v>
       </c>
-      <c r="C49" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E49" t="s">
-        <v>36</v>
-      </c>
-      <c r="G49" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" t="s">
-        <v>146</v>
-      </c>
-      <c r="I49" t="s">
-        <v>39</v>
-      </c>
-      <c r="J49" t="s">
-        <v>40</v>
-      </c>
-      <c r="K49" t="s">
-        <v>147</v>
-      </c>
       <c r="L49" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q49">
         <v>12</v>
       </c>
       <c r="R49" t="s">
+        <v>45</v>
+      </c>
+      <c r="S49" t="s">
         <v>46</v>
-      </c>
-      <c r="S49" t="s">
-        <v>47</v>
       </c>
       <c r="T49">
         <v>1</v>
       </c>
       <c r="W49" t="s">
+        <v>71</v>
+      </c>
+      <c r="X49" t="s">
         <v>72</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>73</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>74</v>
       </c>
-      <c r="Z49" t="s">
-        <v>75</v>
-      </c>
       <c r="AA49" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AD49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" t="s">
+        <v>162</v>
+      </c>
+      <c r="I50" t="s">
+        <v>39</v>
+      </c>
+      <c r="J50" t="s">
+        <v>40</v>
+      </c>
+      <c r="K50" t="s">
         <v>163</v>
       </c>
-      <c r="C50" t="s">
-        <v>164</v>
-      </c>
-      <c r="D50" t="s">
-        <v>35</v>
-      </c>
-      <c r="E50" t="s">
-        <v>36</v>
-      </c>
-      <c r="G50" t="s">
-        <v>37</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="L50" t="s">
         <v>165</v>
-      </c>
-      <c r="I50" t="s">
-        <v>39</v>
-      </c>
-      <c r="J50" t="s">
-        <v>40</v>
-      </c>
-      <c r="K50" t="s">
-        <v>166</v>
-      </c>
-      <c r="L50" t="s">
-        <v>168</v>
       </c>
       <c r="M50" t="s">
         <v>44</v>
       </c>
       <c r="P50" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="Q50">
         <v>1</v>
       </c>
       <c r="R50" t="s">
+        <v>45</v>
+      </c>
+      <c r="S50" t="s">
         <v>46</v>
-      </c>
-      <c r="S50" t="s">
-        <v>47</v>
       </c>
       <c r="T50">
         <v>100</v>
       </c>
       <c r="V50" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB50" t="s">
         <v>48</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>49</v>
       </c>
       <c r="AD50" t="s">
         <v>44</v>
@@ -4293,371 +4290,371 @@
     </row>
     <row r="51" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" t="s">
+        <v>162</v>
+      </c>
+      <c r="I51" t="s">
+        <v>39</v>
+      </c>
+      <c r="J51" t="s">
+        <v>40</v>
+      </c>
+      <c r="K51" t="s">
         <v>163</v>
       </c>
-      <c r="C51" t="s">
-        <v>164</v>
-      </c>
-      <c r="D51" t="s">
-        <v>35</v>
-      </c>
-      <c r="E51" t="s">
-        <v>36</v>
-      </c>
-      <c r="G51" t="s">
-        <v>37</v>
-      </c>
-      <c r="H51" t="s">
-        <v>165</v>
-      </c>
-      <c r="I51" t="s">
-        <v>39</v>
-      </c>
-      <c r="J51" t="s">
-        <v>40</v>
-      </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>166</v>
       </c>
-      <c r="L51" t="s">
-        <v>169</v>
-      </c>
       <c r="M51" t="s">
+        <v>50</v>
+      </c>
+      <c r="P51" t="s">
         <v>51</v>
-      </c>
-      <c r="P51" t="s">
-        <v>52</v>
       </c>
       <c r="Q51">
         <v>2</v>
       </c>
       <c r="R51" t="s">
+        <v>45</v>
+      </c>
+      <c r="S51" t="s">
         <v>46</v>
-      </c>
-      <c r="S51" t="s">
-        <v>47</v>
       </c>
       <c r="T51">
         <v>100</v>
       </c>
       <c r="V51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" t="s">
+        <v>162</v>
+      </c>
+      <c r="I52" t="s">
+        <v>39</v>
+      </c>
+      <c r="J52" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" t="s">
         <v>163</v>
       </c>
-      <c r="C52" t="s">
-        <v>164</v>
-      </c>
-      <c r="D52" t="s">
-        <v>35</v>
-      </c>
-      <c r="E52" t="s">
-        <v>36</v>
-      </c>
-      <c r="G52" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" t="s">
-        <v>165</v>
-      </c>
-      <c r="I52" t="s">
-        <v>39</v>
-      </c>
-      <c r="J52" t="s">
-        <v>40</v>
-      </c>
-      <c r="K52" t="s">
-        <v>166</v>
-      </c>
       <c r="L52" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M52" t="s">
+        <v>53</v>
+      </c>
+      <c r="O52" t="s">
         <v>54</v>
-      </c>
-      <c r="O52" t="s">
-        <v>55</v>
       </c>
       <c r="Q52">
         <v>3</v>
       </c>
       <c r="R52" t="s">
+        <v>45</v>
+      </c>
+      <c r="S52" t="s">
         <v>46</v>
-      </c>
-      <c r="S52" t="s">
-        <v>47</v>
       </c>
       <c r="T52">
         <v>200</v>
       </c>
       <c r="AD52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" t="s">
+        <v>162</v>
+      </c>
+      <c r="I53" t="s">
+        <v>39</v>
+      </c>
+      <c r="J53" t="s">
+        <v>40</v>
+      </c>
+      <c r="K53" t="s">
         <v>163</v>
       </c>
-      <c r="C53" t="s">
-        <v>164</v>
-      </c>
-      <c r="D53" t="s">
-        <v>35</v>
-      </c>
-      <c r="E53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" t="s">
-        <v>37</v>
-      </c>
-      <c r="H53" t="s">
-        <v>165</v>
-      </c>
-      <c r="I53" t="s">
-        <v>39</v>
-      </c>
-      <c r="J53" t="s">
-        <v>40</v>
-      </c>
-      <c r="K53" t="s">
-        <v>166</v>
-      </c>
       <c r="L53" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M53" t="s">
+        <v>56</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P53" t="s">
         <v>57</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="P53" t="s">
-        <v>58</v>
       </c>
       <c r="Q53">
         <v>4</v>
       </c>
       <c r="R53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T53">
         <v>10</v>
       </c>
       <c r="AD53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" t="s">
+        <v>162</v>
+      </c>
+      <c r="I54" t="s">
+        <v>39</v>
+      </c>
+      <c r="J54" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" t="s">
         <v>163</v>
       </c>
-      <c r="C54" t="s">
-        <v>164</v>
-      </c>
-      <c r="D54" t="s">
-        <v>35</v>
-      </c>
-      <c r="E54" t="s">
-        <v>36</v>
-      </c>
-      <c r="G54" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" t="s">
-        <v>165</v>
-      </c>
-      <c r="I54" t="s">
-        <v>39</v>
-      </c>
-      <c r="J54" t="s">
-        <v>40</v>
-      </c>
-      <c r="K54" t="s">
-        <v>166</v>
-      </c>
       <c r="L54" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M54" t="s">
+        <v>61</v>
+      </c>
+      <c r="N54" t="s">
         <v>62</v>
       </c>
-      <c r="N54" t="s">
+      <c r="P54" t="s">
         <v>63</v>
-      </c>
-      <c r="P54" t="s">
-        <v>64</v>
       </c>
       <c r="Q54">
         <v>5</v>
       </c>
       <c r="R54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T54">
         <v>100</v>
       </c>
       <c r="W54" t="s">
+        <v>64</v>
+      </c>
+      <c r="X54" t="s">
         <v>65</v>
       </c>
-      <c r="X54" t="s">
+      <c r="AB54" t="s">
         <v>66</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AC54" t="s">
         <v>67</v>
       </c>
-      <c r="AC54" t="s">
-        <v>68</v>
-      </c>
       <c r="AD54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" t="s">
+        <v>162</v>
+      </c>
+      <c r="I55" t="s">
+        <v>39</v>
+      </c>
+      <c r="J55" t="s">
+        <v>40</v>
+      </c>
+      <c r="K55" t="s">
         <v>163</v>
       </c>
-      <c r="C55" t="s">
-        <v>164</v>
-      </c>
-      <c r="D55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" t="s">
-        <v>36</v>
-      </c>
-      <c r="G55" t="s">
-        <v>37</v>
-      </c>
-      <c r="H55" t="s">
-        <v>165</v>
-      </c>
-      <c r="I55" t="s">
-        <v>39</v>
-      </c>
-      <c r="J55" t="s">
-        <v>40</v>
-      </c>
-      <c r="K55" t="s">
-        <v>166</v>
-      </c>
       <c r="L55" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M55" t="s">
+        <v>69</v>
+      </c>
+      <c r="N55" t="s">
+        <v>107</v>
+      </c>
+      <c r="O55" t="s">
         <v>70</v>
-      </c>
-      <c r="N55" t="s">
-        <v>110</v>
-      </c>
-      <c r="O55" t="s">
-        <v>71</v>
       </c>
       <c r="Q55">
         <v>6</v>
       </c>
       <c r="R55" t="s">
+        <v>45</v>
+      </c>
+      <c r="S55" t="s">
         <v>46</v>
-      </c>
-      <c r="S55" t="s">
-        <v>47</v>
       </c>
       <c r="T55">
         <v>1</v>
       </c>
       <c r="W55" t="s">
+        <v>71</v>
+      </c>
+      <c r="X55" t="s">
         <v>72</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>73</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>74</v>
       </c>
-      <c r="Z55" t="s">
-        <v>75</v>
-      </c>
       <c r="AA55" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AD55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" t="s">
+        <v>162</v>
+      </c>
+      <c r="I56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J56" t="s">
+        <v>40</v>
+      </c>
+      <c r="K56" t="s">
         <v>163</v>
       </c>
-      <c r="C56" t="s">
+      <c r="L56" t="s">
+        <v>171</v>
+      </c>
+      <c r="M56" t="s">
+        <v>76</v>
+      </c>
+      <c r="N56" t="s">
+        <v>77</v>
+      </c>
+      <c r="P56" t="s">
         <v>164</v>
-      </c>
-      <c r="D56" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" t="s">
-        <v>165</v>
-      </c>
-      <c r="I56" t="s">
-        <v>39</v>
-      </c>
-      <c r="J56" t="s">
-        <v>40</v>
-      </c>
-      <c r="K56" t="s">
-        <v>166</v>
-      </c>
-      <c r="L56" t="s">
-        <v>174</v>
-      </c>
-      <c r="M56" t="s">
-        <v>77</v>
-      </c>
-      <c r="N56" t="s">
-        <v>78</v>
-      </c>
-      <c r="P56" t="s">
-        <v>167</v>
       </c>
       <c r="Q56">
         <v>7</v>
       </c>
       <c r="R56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T56">
         <v>8</v>
@@ -4666,190 +4663,190 @@
         <v>2</v>
       </c>
       <c r="AD56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE56" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" t="s">
+        <v>162</v>
+      </c>
+      <c r="I57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J57" t="s">
+        <v>40</v>
+      </c>
+      <c r="K57" t="s">
         <v>163</v>
       </c>
-      <c r="C57" t="s">
-        <v>164</v>
-      </c>
-      <c r="D57" t="s">
-        <v>35</v>
-      </c>
-      <c r="E57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57" t="s">
-        <v>37</v>
-      </c>
-      <c r="H57" t="s">
-        <v>165</v>
-      </c>
-      <c r="I57" t="s">
-        <v>39</v>
-      </c>
-      <c r="J57" t="s">
-        <v>40</v>
-      </c>
-      <c r="K57" t="s">
-        <v>166</v>
-      </c>
       <c r="L57" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M57" t="s">
+        <v>82</v>
+      </c>
+      <c r="N57" t="s">
+        <v>112</v>
+      </c>
+      <c r="P57" t="s">
         <v>83</v>
-      </c>
-      <c r="N57" t="s">
-        <v>115</v>
-      </c>
-      <c r="P57" t="s">
-        <v>84</v>
       </c>
       <c r="Q57">
         <v>8</v>
       </c>
       <c r="R57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T57">
         <v>20</v>
       </c>
       <c r="W57" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="X57" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Y57" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Z57" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AA57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AD57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE57" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" t="s">
+        <v>161</v>
+      </c>
+      <c r="D58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" t="s">
+        <v>162</v>
+      </c>
+      <c r="I58" t="s">
+        <v>39</v>
+      </c>
+      <c r="J58" t="s">
+        <v>40</v>
+      </c>
+      <c r="K58" t="s">
         <v>163</v>
       </c>
-      <c r="C58" t="s">
-        <v>164</v>
-      </c>
-      <c r="D58" t="s">
-        <v>35</v>
-      </c>
-      <c r="E58" t="s">
-        <v>36</v>
-      </c>
-      <c r="G58" t="s">
-        <v>37</v>
-      </c>
-      <c r="H58" t="s">
-        <v>165</v>
-      </c>
-      <c r="I58" t="s">
-        <v>39</v>
-      </c>
-      <c r="J58" t="s">
-        <v>40</v>
-      </c>
-      <c r="K58" t="s">
-        <v>166</v>
-      </c>
       <c r="L58" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M58" t="s">
+        <v>87</v>
+      </c>
+      <c r="N58" t="s">
+        <v>220</v>
+      </c>
+      <c r="P58" t="s">
         <v>88</v>
-      </c>
-      <c r="N58" t="s">
-        <v>223</v>
-      </c>
-      <c r="P58" t="s">
-        <v>89</v>
       </c>
       <c r="Q58">
         <v>9</v>
       </c>
       <c r="R58" t="s">
+        <v>45</v>
+      </c>
+      <c r="S58" t="s">
         <v>46</v>
-      </c>
-      <c r="S58" t="s">
-        <v>47</v>
       </c>
       <c r="T58">
         <v>100</v>
       </c>
       <c r="AD58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" t="s">
+        <v>162</v>
+      </c>
+      <c r="I59" t="s">
+        <v>39</v>
+      </c>
+      <c r="J59" t="s">
+        <v>40</v>
+      </c>
+      <c r="K59" t="s">
         <v>163</v>
       </c>
-      <c r="C59" t="s">
-        <v>164</v>
-      </c>
-      <c r="D59" t="s">
-        <v>35</v>
-      </c>
-      <c r="E59" t="s">
-        <v>36</v>
-      </c>
-      <c r="G59" t="s">
-        <v>37</v>
-      </c>
-      <c r="H59" t="s">
-        <v>165</v>
-      </c>
-      <c r="I59" t="s">
-        <v>39</v>
-      </c>
-      <c r="J59" t="s">
-        <v>40</v>
-      </c>
-      <c r="K59" t="s">
-        <v>166</v>
-      </c>
       <c r="L59" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P59" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>10</v>
       </c>
       <c r="R59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T59">
         <v>8</v>
@@ -4858,57 +4855,57 @@
         <v>2</v>
       </c>
       <c r="AD59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" t="s">
+        <v>162</v>
+      </c>
+      <c r="I60" t="s">
+        <v>39</v>
+      </c>
+      <c r="J60" t="s">
+        <v>40</v>
+      </c>
+      <c r="K60" t="s">
         <v>163</v>
       </c>
-      <c r="C60" t="s">
-        <v>164</v>
-      </c>
-      <c r="D60" t="s">
-        <v>35</v>
-      </c>
-      <c r="E60" t="s">
-        <v>36</v>
-      </c>
-      <c r="G60" t="s">
-        <v>37</v>
-      </c>
-      <c r="H60" t="s">
-        <v>165</v>
-      </c>
-      <c r="I60" t="s">
-        <v>39</v>
-      </c>
-      <c r="J60" t="s">
-        <v>40</v>
-      </c>
-      <c r="K60" t="s">
-        <v>166</v>
-      </c>
       <c r="L60" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P60" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="Q60">
         <v>11</v>
       </c>
       <c r="R60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T60">
         <v>8</v>
@@ -4917,137 +4914,137 @@
         <v>2</v>
       </c>
       <c r="AD60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AE60" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" t="s">
+        <v>162</v>
+      </c>
+      <c r="I61" t="s">
+        <v>39</v>
+      </c>
+      <c r="J61" t="s">
+        <v>40</v>
+      </c>
+      <c r="K61" t="s">
         <v>163</v>
       </c>
-      <c r="C61" t="s">
-        <v>164</v>
-      </c>
-      <c r="D61" t="s">
-        <v>35</v>
-      </c>
-      <c r="E61" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" t="s">
-        <v>37</v>
-      </c>
-      <c r="H61" t="s">
-        <v>165</v>
-      </c>
-      <c r="I61" t="s">
-        <v>39</v>
-      </c>
-      <c r="J61" t="s">
-        <v>40</v>
-      </c>
-      <c r="K61" t="s">
-        <v>166</v>
-      </c>
       <c r="L61" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M61" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O61" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q61">
         <v>12</v>
       </c>
       <c r="R61" t="s">
+        <v>45</v>
+      </c>
+      <c r="S61" t="s">
         <v>46</v>
-      </c>
-      <c r="S61" t="s">
-        <v>47</v>
       </c>
       <c r="T61">
         <v>1</v>
       </c>
       <c r="W61" t="s">
+        <v>71</v>
+      </c>
+      <c r="X61" t="s">
         <v>72</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>73</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>74</v>
       </c>
-      <c r="Z61" t="s">
-        <v>75</v>
-      </c>
       <c r="AA61" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AD61" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE61" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62" t="s">
+        <v>182</v>
+      </c>
+      <c r="I62" t="s">
+        <v>39</v>
+      </c>
+      <c r="J62" t="s">
+        <v>40</v>
+      </c>
+      <c r="K62" t="s">
         <v>183</v>
       </c>
-      <c r="C62" t="s">
-        <v>184</v>
-      </c>
-      <c r="D62" t="s">
-        <v>35</v>
-      </c>
-      <c r="E62" t="s">
-        <v>36</v>
-      </c>
-      <c r="G62" t="s">
-        <v>37</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="L62" t="s">
         <v>185</v>
-      </c>
-      <c r="I62" t="s">
-        <v>39</v>
-      </c>
-      <c r="J62" t="s">
-        <v>40</v>
-      </c>
-      <c r="K62" t="s">
-        <v>186</v>
-      </c>
-      <c r="L62" t="s">
-        <v>188</v>
       </c>
       <c r="M62" t="s">
         <v>44</v>
       </c>
       <c r="P62" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="Q62">
         <v>1</v>
       </c>
       <c r="R62" t="s">
+        <v>45</v>
+      </c>
+      <c r="S62" t="s">
         <v>46</v>
-      </c>
-      <c r="S62" t="s">
-        <v>47</v>
       </c>
       <c r="T62">
         <v>100</v>
       </c>
       <c r="V62" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB62" t="s">
         <v>48</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>49</v>
       </c>
       <c r="AD62" t="s">
         <v>44</v>
@@ -5058,371 +5055,371 @@
     </row>
     <row r="63" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" t="s">
+        <v>37</v>
+      </c>
+      <c r="H63" t="s">
+        <v>182</v>
+      </c>
+      <c r="I63" t="s">
+        <v>39</v>
+      </c>
+      <c r="J63" t="s">
+        <v>40</v>
+      </c>
+      <c r="K63" t="s">
         <v>183</v>
       </c>
-      <c r="C63" t="s">
-        <v>184</v>
-      </c>
-      <c r="D63" t="s">
-        <v>35</v>
-      </c>
-      <c r="E63" t="s">
-        <v>36</v>
-      </c>
-      <c r="G63" t="s">
-        <v>37</v>
-      </c>
-      <c r="H63" t="s">
-        <v>185</v>
-      </c>
-      <c r="I63" t="s">
-        <v>39</v>
-      </c>
-      <c r="J63" t="s">
-        <v>40</v>
-      </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>186</v>
       </c>
-      <c r="L63" t="s">
-        <v>189</v>
-      </c>
       <c r="M63" t="s">
+        <v>50</v>
+      </c>
+      <c r="P63" t="s">
         <v>51</v>
-      </c>
-      <c r="P63" t="s">
-        <v>52</v>
       </c>
       <c r="Q63">
         <v>2</v>
       </c>
       <c r="R63" t="s">
+        <v>45</v>
+      </c>
+      <c r="S63" t="s">
         <v>46</v>
-      </c>
-      <c r="S63" t="s">
-        <v>47</v>
       </c>
       <c r="T63">
         <v>100</v>
       </c>
       <c r="V63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H64" t="s">
+        <v>182</v>
+      </c>
+      <c r="I64" t="s">
+        <v>39</v>
+      </c>
+      <c r="J64" t="s">
+        <v>40</v>
+      </c>
+      <c r="K64" t="s">
         <v>183</v>
       </c>
-      <c r="C64" t="s">
-        <v>184</v>
-      </c>
-      <c r="D64" t="s">
-        <v>35</v>
-      </c>
-      <c r="E64" t="s">
-        <v>36</v>
-      </c>
-      <c r="G64" t="s">
-        <v>37</v>
-      </c>
-      <c r="H64" t="s">
-        <v>185</v>
-      </c>
-      <c r="I64" t="s">
-        <v>39</v>
-      </c>
-      <c r="J64" t="s">
-        <v>40</v>
-      </c>
-      <c r="K64" t="s">
-        <v>186</v>
-      </c>
       <c r="L64" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M64" t="s">
+        <v>53</v>
+      </c>
+      <c r="O64" t="s">
         <v>54</v>
-      </c>
-      <c r="O64" t="s">
-        <v>55</v>
       </c>
       <c r="Q64">
         <v>3</v>
       </c>
       <c r="R64" t="s">
+        <v>45</v>
+      </c>
+      <c r="S64" t="s">
         <v>46</v>
-      </c>
-      <c r="S64" t="s">
-        <v>47</v>
       </c>
       <c r="T64">
         <v>200</v>
       </c>
       <c r="AD64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" t="s">
+        <v>182</v>
+      </c>
+      <c r="I65" t="s">
+        <v>39</v>
+      </c>
+      <c r="J65" t="s">
+        <v>40</v>
+      </c>
+      <c r="K65" t="s">
         <v>183</v>
       </c>
-      <c r="C65" t="s">
-        <v>184</v>
-      </c>
-      <c r="D65" t="s">
-        <v>35</v>
-      </c>
-      <c r="E65" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" t="s">
-        <v>37</v>
-      </c>
-      <c r="H65" t="s">
-        <v>185</v>
-      </c>
-      <c r="I65" t="s">
-        <v>39</v>
-      </c>
-      <c r="J65" t="s">
-        <v>40</v>
-      </c>
-      <c r="K65" t="s">
-        <v>186</v>
-      </c>
       <c r="L65" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M65" t="s">
+        <v>56</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P65" t="s">
         <v>57</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="P65" t="s">
-        <v>58</v>
       </c>
       <c r="Q65">
         <v>4</v>
       </c>
       <c r="R65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T65">
         <v>10</v>
       </c>
       <c r="AD65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>180</v>
+      </c>
+      <c r="C66" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" t="s">
+        <v>37</v>
+      </c>
+      <c r="H66" t="s">
+        <v>182</v>
+      </c>
+      <c r="I66" t="s">
+        <v>39</v>
+      </c>
+      <c r="J66" t="s">
+        <v>40</v>
+      </c>
+      <c r="K66" t="s">
         <v>183</v>
       </c>
-      <c r="C66" t="s">
-        <v>184</v>
-      </c>
-      <c r="D66" t="s">
-        <v>35</v>
-      </c>
-      <c r="E66" t="s">
-        <v>36</v>
-      </c>
-      <c r="G66" t="s">
-        <v>37</v>
-      </c>
-      <c r="H66" t="s">
-        <v>185</v>
-      </c>
-      <c r="I66" t="s">
-        <v>39</v>
-      </c>
-      <c r="J66" t="s">
-        <v>40</v>
-      </c>
-      <c r="K66" t="s">
-        <v>186</v>
-      </c>
       <c r="L66" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M66" t="s">
+        <v>61</v>
+      </c>
+      <c r="N66" t="s">
         <v>62</v>
       </c>
-      <c r="N66" t="s">
+      <c r="P66" t="s">
         <v>63</v>
-      </c>
-      <c r="P66" t="s">
-        <v>64</v>
       </c>
       <c r="Q66">
         <v>5</v>
       </c>
       <c r="R66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T66">
         <v>100</v>
       </c>
       <c r="W66" t="s">
+        <v>64</v>
+      </c>
+      <c r="X66" t="s">
         <v>65</v>
       </c>
-      <c r="X66" t="s">
+      <c r="AB66" t="s">
         <v>66</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AC66" t="s">
         <v>67</v>
       </c>
-      <c r="AC66" t="s">
-        <v>68</v>
-      </c>
       <c r="AD66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
+        <v>180</v>
+      </c>
+      <c r="C67" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" t="s">
+        <v>182</v>
+      </c>
+      <c r="I67" t="s">
+        <v>39</v>
+      </c>
+      <c r="J67" t="s">
+        <v>40</v>
+      </c>
+      <c r="K67" t="s">
         <v>183</v>
       </c>
-      <c r="C67" t="s">
-        <v>184</v>
-      </c>
-      <c r="D67" t="s">
-        <v>35</v>
-      </c>
-      <c r="E67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G67" t="s">
-        <v>37</v>
-      </c>
-      <c r="H67" t="s">
-        <v>185</v>
-      </c>
-      <c r="I67" t="s">
-        <v>39</v>
-      </c>
-      <c r="J67" t="s">
-        <v>40</v>
-      </c>
-      <c r="K67" t="s">
-        <v>186</v>
-      </c>
       <c r="L67" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M67" t="s">
+        <v>69</v>
+      </c>
+      <c r="N67" t="s">
+        <v>107</v>
+      </c>
+      <c r="O67" t="s">
         <v>70</v>
-      </c>
-      <c r="N67" t="s">
-        <v>110</v>
-      </c>
-      <c r="O67" t="s">
-        <v>71</v>
       </c>
       <c r="Q67">
         <v>6</v>
       </c>
       <c r="R67" t="s">
+        <v>45</v>
+      </c>
+      <c r="S67" t="s">
         <v>46</v>
-      </c>
-      <c r="S67" t="s">
-        <v>47</v>
       </c>
       <c r="T67">
         <v>1</v>
       </c>
       <c r="W67" t="s">
+        <v>71</v>
+      </c>
+      <c r="X67" t="s">
         <v>72</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>73</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>74</v>
       </c>
-      <c r="Z67" t="s">
-        <v>75</v>
-      </c>
       <c r="AA67" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AD67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>180</v>
+      </c>
+      <c r="C68" t="s">
+        <v>181</v>
+      </c>
+      <c r="D68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" t="s">
+        <v>37</v>
+      </c>
+      <c r="H68" t="s">
+        <v>182</v>
+      </c>
+      <c r="I68" t="s">
+        <v>39</v>
+      </c>
+      <c r="J68" t="s">
+        <v>40</v>
+      </c>
+      <c r="K68" t="s">
         <v>183</v>
       </c>
-      <c r="C68" t="s">
+      <c r="L68" t="s">
+        <v>191</v>
+      </c>
+      <c r="M68" t="s">
+        <v>76</v>
+      </c>
+      <c r="N68" t="s">
+        <v>77</v>
+      </c>
+      <c r="P68" t="s">
         <v>184</v>
-      </c>
-      <c r="D68" t="s">
-        <v>35</v>
-      </c>
-      <c r="E68" t="s">
-        <v>36</v>
-      </c>
-      <c r="G68" t="s">
-        <v>37</v>
-      </c>
-      <c r="H68" t="s">
-        <v>185</v>
-      </c>
-      <c r="I68" t="s">
-        <v>39</v>
-      </c>
-      <c r="J68" t="s">
-        <v>40</v>
-      </c>
-      <c r="K68" t="s">
-        <v>186</v>
-      </c>
-      <c r="L68" t="s">
-        <v>194</v>
-      </c>
-      <c r="M68" t="s">
-        <v>77</v>
-      </c>
-      <c r="N68" t="s">
-        <v>78</v>
-      </c>
-      <c r="P68" t="s">
-        <v>187</v>
       </c>
       <c r="Q68">
         <v>7</v>
       </c>
       <c r="R68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T68">
         <v>8</v>
@@ -5431,172 +5428,172 @@
         <v>2</v>
       </c>
       <c r="AD68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE68" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" t="s">
+        <v>36</v>
+      </c>
+      <c r="G69" t="s">
+        <v>37</v>
+      </c>
+      <c r="H69" t="s">
+        <v>182</v>
+      </c>
+      <c r="I69" t="s">
+        <v>39</v>
+      </c>
+      <c r="J69" t="s">
+        <v>40</v>
+      </c>
+      <c r="K69" t="s">
         <v>183</v>
       </c>
-      <c r="C69" t="s">
-        <v>184</v>
-      </c>
-      <c r="D69" t="s">
-        <v>35</v>
-      </c>
-      <c r="E69" t="s">
-        <v>36</v>
-      </c>
-      <c r="G69" t="s">
-        <v>37</v>
-      </c>
-      <c r="H69" t="s">
-        <v>185</v>
-      </c>
-      <c r="I69" t="s">
-        <v>39</v>
-      </c>
-      <c r="J69" t="s">
-        <v>40</v>
-      </c>
-      <c r="K69" t="s">
-        <v>186</v>
-      </c>
       <c r="L69" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M69" t="s">
+        <v>82</v>
+      </c>
+      <c r="N69" t="s">
+        <v>112</v>
+      </c>
+      <c r="P69" t="s">
         <v>83</v>
-      </c>
-      <c r="N69" t="s">
-        <v>115</v>
-      </c>
-      <c r="P69" t="s">
-        <v>84</v>
       </c>
       <c r="Q69">
         <v>8</v>
       </c>
       <c r="S69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T69">
         <v>20</v>
       </c>
       <c r="AD69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE69" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>180</v>
+      </c>
+      <c r="C70" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G70" t="s">
+        <v>37</v>
+      </c>
+      <c r="H70" t="s">
+        <v>182</v>
+      </c>
+      <c r="I70" t="s">
+        <v>39</v>
+      </c>
+      <c r="J70" t="s">
+        <v>40</v>
+      </c>
+      <c r="K70" t="s">
         <v>183</v>
       </c>
-      <c r="C70" t="s">
-        <v>184</v>
-      </c>
-      <c r="D70" t="s">
-        <v>35</v>
-      </c>
-      <c r="E70" t="s">
-        <v>36</v>
-      </c>
-      <c r="G70" t="s">
-        <v>37</v>
-      </c>
-      <c r="H70" t="s">
-        <v>185</v>
-      </c>
-      <c r="I70" t="s">
-        <v>39</v>
-      </c>
-      <c r="J70" t="s">
-        <v>40</v>
-      </c>
-      <c r="K70" t="s">
-        <v>186</v>
-      </c>
       <c r="L70" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M70" t="s">
+        <v>87</v>
+      </c>
+      <c r="N70" t="s">
+        <v>220</v>
+      </c>
+      <c r="P70" t="s">
         <v>88</v>
-      </c>
-      <c r="N70" t="s">
-        <v>223</v>
-      </c>
-      <c r="P70" t="s">
-        <v>89</v>
       </c>
       <c r="Q70">
         <v>9</v>
       </c>
       <c r="R70" t="s">
+        <v>45</v>
+      </c>
+      <c r="S70" t="s">
         <v>46</v>
-      </c>
-      <c r="S70" t="s">
-        <v>47</v>
       </c>
       <c r="T70">
         <v>100</v>
       </c>
       <c r="AD70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" t="s">
+        <v>181</v>
+      </c>
+      <c r="D71" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" t="s">
+        <v>37</v>
+      </c>
+      <c r="H71" t="s">
+        <v>182</v>
+      </c>
+      <c r="I71" t="s">
+        <v>39</v>
+      </c>
+      <c r="J71" t="s">
+        <v>40</v>
+      </c>
+      <c r="K71" t="s">
         <v>183</v>
       </c>
-      <c r="C71" t="s">
-        <v>184</v>
-      </c>
-      <c r="D71" t="s">
-        <v>35</v>
-      </c>
-      <c r="E71" t="s">
-        <v>36</v>
-      </c>
-      <c r="G71" t="s">
-        <v>37</v>
-      </c>
-      <c r="H71" t="s">
-        <v>185</v>
-      </c>
-      <c r="I71" t="s">
-        <v>39</v>
-      </c>
-      <c r="J71" t="s">
-        <v>40</v>
-      </c>
-      <c r="K71" t="s">
-        <v>186</v>
-      </c>
       <c r="L71" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P71" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>10</v>
       </c>
       <c r="R71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S71" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T71">
         <v>8</v>
@@ -5605,57 +5602,57 @@
         <v>2</v>
       </c>
       <c r="AD71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" t="s">
+        <v>181</v>
+      </c>
+      <c r="D72" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" t="s">
+        <v>182</v>
+      </c>
+      <c r="I72" t="s">
+        <v>39</v>
+      </c>
+      <c r="J72" t="s">
+        <v>40</v>
+      </c>
+      <c r="K72" t="s">
         <v>183</v>
       </c>
-      <c r="C72" t="s">
-        <v>184</v>
-      </c>
-      <c r="D72" t="s">
-        <v>35</v>
-      </c>
-      <c r="E72" t="s">
-        <v>36</v>
-      </c>
-      <c r="G72" t="s">
-        <v>37</v>
-      </c>
-      <c r="H72" t="s">
-        <v>185</v>
-      </c>
-      <c r="I72" t="s">
-        <v>39</v>
-      </c>
-      <c r="J72" t="s">
-        <v>40</v>
-      </c>
-      <c r="K72" t="s">
-        <v>186</v>
-      </c>
       <c r="L72" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M72" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P72" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="Q72">
         <v>11</v>
       </c>
       <c r="R72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S72" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T72">
         <v>8</v>
@@ -5664,137 +5661,137 @@
         <v>2</v>
       </c>
       <c r="AD72" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AE72" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" t="s">
+        <v>181</v>
+      </c>
+      <c r="D73" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" t="s">
+        <v>36</v>
+      </c>
+      <c r="G73" t="s">
+        <v>37</v>
+      </c>
+      <c r="H73" t="s">
+        <v>182</v>
+      </c>
+      <c r="I73" t="s">
+        <v>39</v>
+      </c>
+      <c r="J73" t="s">
+        <v>40</v>
+      </c>
+      <c r="K73" t="s">
         <v>183</v>
       </c>
-      <c r="C73" t="s">
-        <v>184</v>
-      </c>
-      <c r="D73" t="s">
-        <v>35</v>
-      </c>
-      <c r="E73" t="s">
-        <v>36</v>
-      </c>
-      <c r="G73" t="s">
-        <v>37</v>
-      </c>
-      <c r="H73" t="s">
-        <v>185</v>
-      </c>
-      <c r="I73" t="s">
-        <v>39</v>
-      </c>
-      <c r="J73" t="s">
-        <v>40</v>
-      </c>
-      <c r="K73" t="s">
-        <v>186</v>
-      </c>
       <c r="L73" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M73" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O73" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q73">
         <v>12</v>
       </c>
       <c r="R73" t="s">
+        <v>45</v>
+      </c>
+      <c r="S73" t="s">
         <v>46</v>
-      </c>
-      <c r="S73" t="s">
-        <v>47</v>
       </c>
       <c r="T73">
         <v>1</v>
       </c>
       <c r="W73" t="s">
+        <v>71</v>
+      </c>
+      <c r="X73" t="s">
         <v>72</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>73</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>74</v>
       </c>
-      <c r="Z73" t="s">
-        <v>75</v>
-      </c>
       <c r="AA73" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AD73" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE73" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
+        <v>199</v>
+      </c>
+      <c r="C74" t="s">
+        <v>200</v>
+      </c>
+      <c r="D74" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74" t="s">
+        <v>37</v>
+      </c>
+      <c r="H74" t="s">
+        <v>201</v>
+      </c>
+      <c r="I74" t="s">
+        <v>39</v>
+      </c>
+      <c r="J74" t="s">
+        <v>40</v>
+      </c>
+      <c r="K74" t="s">
         <v>202</v>
       </c>
-      <c r="C74" t="s">
-        <v>203</v>
-      </c>
-      <c r="D74" t="s">
-        <v>35</v>
-      </c>
-      <c r="E74" t="s">
-        <v>36</v>
-      </c>
-      <c r="G74" t="s">
-        <v>37</v>
-      </c>
-      <c r="H74" t="s">
+      <c r="L74" t="s">
         <v>204</v>
-      </c>
-      <c r="I74" t="s">
-        <v>39</v>
-      </c>
-      <c r="J74" t="s">
-        <v>40</v>
-      </c>
-      <c r="K74" t="s">
-        <v>205</v>
-      </c>
-      <c r="L74" t="s">
-        <v>207</v>
       </c>
       <c r="M74" t="s">
         <v>44</v>
       </c>
       <c r="P74" t="s">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="Q74">
         <v>1</v>
       </c>
       <c r="R74" t="s">
+        <v>45</v>
+      </c>
+      <c r="S74" t="s">
         <v>46</v>
-      </c>
-      <c r="S74" t="s">
-        <v>47</v>
       </c>
       <c r="T74">
         <v>100</v>
       </c>
       <c r="V74" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB74" t="s">
         <v>48</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>49</v>
       </c>
       <c r="AD74" t="s">
         <v>44</v>
@@ -5805,371 +5802,371 @@
     </row>
     <row r="75" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
+        <v>199</v>
+      </c>
+      <c r="C75" t="s">
+        <v>200</v>
+      </c>
+      <c r="D75" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" t="s">
+        <v>36</v>
+      </c>
+      <c r="G75" t="s">
+        <v>37</v>
+      </c>
+      <c r="H75" t="s">
+        <v>201</v>
+      </c>
+      <c r="I75" t="s">
+        <v>39</v>
+      </c>
+      <c r="J75" t="s">
+        <v>40</v>
+      </c>
+      <c r="K75" t="s">
         <v>202</v>
       </c>
-      <c r="C75" t="s">
-        <v>203</v>
-      </c>
-      <c r="D75" t="s">
-        <v>35</v>
-      </c>
-      <c r="E75" t="s">
-        <v>36</v>
-      </c>
-      <c r="G75" t="s">
-        <v>37</v>
-      </c>
-      <c r="H75" t="s">
-        <v>204</v>
-      </c>
-      <c r="I75" t="s">
-        <v>39</v>
-      </c>
-      <c r="J75" t="s">
-        <v>40</v>
-      </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>205</v>
       </c>
-      <c r="L75" t="s">
-        <v>208</v>
-      </c>
       <c r="M75" t="s">
+        <v>50</v>
+      </c>
+      <c r="P75" t="s">
         <v>51</v>
-      </c>
-      <c r="P75" t="s">
-        <v>52</v>
       </c>
       <c r="Q75">
         <v>2</v>
       </c>
       <c r="R75" t="s">
+        <v>45</v>
+      </c>
+      <c r="S75" t="s">
         <v>46</v>
-      </c>
-      <c r="S75" t="s">
-        <v>47</v>
       </c>
       <c r="T75">
         <v>100</v>
       </c>
       <c r="V75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
+        <v>199</v>
+      </c>
+      <c r="C76" t="s">
+        <v>200</v>
+      </c>
+      <c r="D76" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" t="s">
+        <v>37</v>
+      </c>
+      <c r="H76" t="s">
+        <v>201</v>
+      </c>
+      <c r="I76" t="s">
+        <v>39</v>
+      </c>
+      <c r="J76" t="s">
+        <v>40</v>
+      </c>
+      <c r="K76" t="s">
         <v>202</v>
       </c>
-      <c r="C76" t="s">
-        <v>203</v>
-      </c>
-      <c r="D76" t="s">
-        <v>35</v>
-      </c>
-      <c r="E76" t="s">
-        <v>36</v>
-      </c>
-      <c r="G76" t="s">
-        <v>37</v>
-      </c>
-      <c r="H76" t="s">
-        <v>204</v>
-      </c>
-      <c r="I76" t="s">
-        <v>39</v>
-      </c>
-      <c r="J76" t="s">
-        <v>40</v>
-      </c>
-      <c r="K76" t="s">
-        <v>205</v>
-      </c>
       <c r="L76" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M76" t="s">
+        <v>53</v>
+      </c>
+      <c r="O76" t="s">
         <v>54</v>
-      </c>
-      <c r="O76" t="s">
-        <v>55</v>
       </c>
       <c r="Q76">
         <v>3</v>
       </c>
       <c r="R76" t="s">
+        <v>45</v>
+      </c>
+      <c r="S76" t="s">
         <v>46</v>
-      </c>
-      <c r="S76" t="s">
-        <v>47</v>
       </c>
       <c r="T76">
         <v>200</v>
       </c>
       <c r="AD76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" t="s">
+        <v>200</v>
+      </c>
+      <c r="D77" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H77" t="s">
+        <v>201</v>
+      </c>
+      <c r="I77" t="s">
+        <v>39</v>
+      </c>
+      <c r="J77" t="s">
+        <v>40</v>
+      </c>
+      <c r="K77" t="s">
         <v>202</v>
       </c>
-      <c r="C77" t="s">
-        <v>203</v>
-      </c>
-      <c r="D77" t="s">
-        <v>35</v>
-      </c>
-      <c r="E77" t="s">
-        <v>36</v>
-      </c>
-      <c r="G77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H77" t="s">
-        <v>204</v>
-      </c>
-      <c r="I77" t="s">
-        <v>39</v>
-      </c>
-      <c r="J77" t="s">
-        <v>40</v>
-      </c>
-      <c r="K77" t="s">
-        <v>205</v>
-      </c>
       <c r="L77" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="M77" t="s">
+        <v>56</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P77" t="s">
         <v>57</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="P77" t="s">
-        <v>58</v>
       </c>
       <c r="Q77">
         <v>4</v>
       </c>
       <c r="R77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T77">
         <v>10</v>
       </c>
       <c r="AD77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AE77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
+        <v>199</v>
+      </c>
+      <c r="C78" t="s">
+        <v>200</v>
+      </c>
+      <c r="D78" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" t="s">
+        <v>37</v>
+      </c>
+      <c r="H78" t="s">
+        <v>201</v>
+      </c>
+      <c r="I78" t="s">
+        <v>39</v>
+      </c>
+      <c r="J78" t="s">
+        <v>40</v>
+      </c>
+      <c r="K78" t="s">
         <v>202</v>
       </c>
-      <c r="C78" t="s">
-        <v>203</v>
-      </c>
-      <c r="D78" t="s">
-        <v>35</v>
-      </c>
-      <c r="E78" t="s">
-        <v>36</v>
-      </c>
-      <c r="G78" t="s">
-        <v>37</v>
-      </c>
-      <c r="H78" t="s">
-        <v>204</v>
-      </c>
-      <c r="I78" t="s">
-        <v>39</v>
-      </c>
-      <c r="J78" t="s">
-        <v>40</v>
-      </c>
-      <c r="K78" t="s">
-        <v>205</v>
-      </c>
       <c r="L78" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M78" t="s">
+        <v>61</v>
+      </c>
+      <c r="N78" t="s">
         <v>62</v>
       </c>
-      <c r="N78" t="s">
+      <c r="P78" t="s">
         <v>63</v>
-      </c>
-      <c r="P78" t="s">
-        <v>64</v>
       </c>
       <c r="Q78">
         <v>5</v>
       </c>
       <c r="R78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T78">
         <v>100</v>
       </c>
       <c r="W78" t="s">
+        <v>64</v>
+      </c>
+      <c r="X78" t="s">
         <v>65</v>
       </c>
-      <c r="X78" t="s">
+      <c r="AB78" t="s">
         <v>66</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AC78" t="s">
         <v>67</v>
       </c>
-      <c r="AC78" t="s">
-        <v>68</v>
-      </c>
       <c r="AD78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AE78" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
+        <v>199</v>
+      </c>
+      <c r="C79" t="s">
+        <v>200</v>
+      </c>
+      <c r="D79" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" t="s">
+        <v>36</v>
+      </c>
+      <c r="G79" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" t="s">
+        <v>201</v>
+      </c>
+      <c r="I79" t="s">
+        <v>39</v>
+      </c>
+      <c r="J79" t="s">
+        <v>40</v>
+      </c>
+      <c r="K79" t="s">
         <v>202</v>
       </c>
-      <c r="C79" t="s">
-        <v>203</v>
-      </c>
-      <c r="D79" t="s">
-        <v>35</v>
-      </c>
-      <c r="E79" t="s">
-        <v>36</v>
-      </c>
-      <c r="G79" t="s">
-        <v>37</v>
-      </c>
-      <c r="H79" t="s">
-        <v>204</v>
-      </c>
-      <c r="I79" t="s">
-        <v>39</v>
-      </c>
-      <c r="J79" t="s">
-        <v>40</v>
-      </c>
-      <c r="K79" t="s">
-        <v>205</v>
-      </c>
       <c r="L79" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M79" t="s">
+        <v>69</v>
+      </c>
+      <c r="N79" t="s">
+        <v>107</v>
+      </c>
+      <c r="O79" t="s">
         <v>70</v>
-      </c>
-      <c r="N79" t="s">
-        <v>110</v>
-      </c>
-      <c r="O79" t="s">
-        <v>71</v>
       </c>
       <c r="Q79">
         <v>6</v>
       </c>
       <c r="R79" t="s">
+        <v>45</v>
+      </c>
+      <c r="S79" t="s">
         <v>46</v>
-      </c>
-      <c r="S79" t="s">
-        <v>47</v>
       </c>
       <c r="T79">
         <v>1</v>
       </c>
       <c r="W79" t="s">
+        <v>71</v>
+      </c>
+      <c r="X79" t="s">
         <v>72</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>73</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>74</v>
       </c>
-      <c r="Z79" t="s">
-        <v>75</v>
-      </c>
       <c r="AA79" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AD79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
+        <v>199</v>
+      </c>
+      <c r="C80" t="s">
+        <v>200</v>
+      </c>
+      <c r="D80" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" t="s">
+        <v>36</v>
+      </c>
+      <c r="G80" t="s">
+        <v>37</v>
+      </c>
+      <c r="H80" t="s">
+        <v>201</v>
+      </c>
+      <c r="I80" t="s">
+        <v>39</v>
+      </c>
+      <c r="J80" t="s">
+        <v>40</v>
+      </c>
+      <c r="K80" t="s">
         <v>202</v>
       </c>
-      <c r="C80" t="s">
+      <c r="L80" t="s">
+        <v>210</v>
+      </c>
+      <c r="M80" t="s">
+        <v>76</v>
+      </c>
+      <c r="N80" t="s">
+        <v>77</v>
+      </c>
+      <c r="P80" t="s">
         <v>203</v>
-      </c>
-      <c r="D80" t="s">
-        <v>35</v>
-      </c>
-      <c r="E80" t="s">
-        <v>36</v>
-      </c>
-      <c r="G80" t="s">
-        <v>37</v>
-      </c>
-      <c r="H80" t="s">
-        <v>204</v>
-      </c>
-      <c r="I80" t="s">
-        <v>39</v>
-      </c>
-      <c r="J80" t="s">
-        <v>40</v>
-      </c>
-      <c r="K80" t="s">
-        <v>205</v>
-      </c>
-      <c r="L80" t="s">
-        <v>213</v>
-      </c>
-      <c r="M80" t="s">
-        <v>77</v>
-      </c>
-      <c r="N80" t="s">
-        <v>78</v>
-      </c>
-      <c r="P80" t="s">
-        <v>206</v>
       </c>
       <c r="Q80">
         <v>7</v>
       </c>
       <c r="R80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T80">
         <v>8</v>
@@ -6178,190 +6175,190 @@
         <v>2</v>
       </c>
       <c r="AD80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE80" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
+        <v>199</v>
+      </c>
+      <c r="C81" t="s">
+        <v>200</v>
+      </c>
+      <c r="D81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" t="s">
+        <v>37</v>
+      </c>
+      <c r="H81" t="s">
+        <v>201</v>
+      </c>
+      <c r="I81" t="s">
+        <v>39</v>
+      </c>
+      <c r="J81" t="s">
+        <v>40</v>
+      </c>
+      <c r="K81" t="s">
         <v>202</v>
       </c>
-      <c r="C81" t="s">
-        <v>203</v>
-      </c>
-      <c r="D81" t="s">
-        <v>35</v>
-      </c>
-      <c r="E81" t="s">
-        <v>36</v>
-      </c>
-      <c r="G81" t="s">
-        <v>37</v>
-      </c>
-      <c r="H81" t="s">
-        <v>204</v>
-      </c>
-      <c r="I81" t="s">
-        <v>39</v>
-      </c>
-      <c r="J81" t="s">
-        <v>40</v>
-      </c>
-      <c r="K81" t="s">
-        <v>205</v>
-      </c>
       <c r="L81" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M81" t="s">
+        <v>82</v>
+      </c>
+      <c r="N81" t="s">
+        <v>112</v>
+      </c>
+      <c r="P81" t="s">
         <v>83</v>
-      </c>
-      <c r="N81" t="s">
-        <v>115</v>
-      </c>
-      <c r="P81" t="s">
-        <v>84</v>
       </c>
       <c r="Q81">
         <v>8</v>
       </c>
       <c r="R81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T81">
         <v>20</v>
       </c>
       <c r="W81" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="X81" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Y81" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Z81" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AA81" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AD81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE81" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
+        <v>199</v>
+      </c>
+      <c r="C82" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82" t="s">
+        <v>37</v>
+      </c>
+      <c r="H82" t="s">
+        <v>201</v>
+      </c>
+      <c r="I82" t="s">
+        <v>39</v>
+      </c>
+      <c r="J82" t="s">
+        <v>40</v>
+      </c>
+      <c r="K82" t="s">
         <v>202</v>
       </c>
-      <c r="C82" t="s">
-        <v>203</v>
-      </c>
-      <c r="D82" t="s">
-        <v>35</v>
-      </c>
-      <c r="E82" t="s">
-        <v>36</v>
-      </c>
-      <c r="G82" t="s">
-        <v>37</v>
-      </c>
-      <c r="H82" t="s">
-        <v>204</v>
-      </c>
-      <c r="I82" t="s">
-        <v>39</v>
-      </c>
-      <c r="J82" t="s">
-        <v>40</v>
-      </c>
-      <c r="K82" t="s">
-        <v>205</v>
-      </c>
       <c r="L82" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M82" t="s">
+        <v>87</v>
+      </c>
+      <c r="N82" t="s">
+        <v>220</v>
+      </c>
+      <c r="P82" t="s">
         <v>88</v>
-      </c>
-      <c r="N82" t="s">
-        <v>223</v>
-      </c>
-      <c r="P82" t="s">
-        <v>89</v>
       </c>
       <c r="Q82">
         <v>9</v>
       </c>
       <c r="R82" t="s">
+        <v>45</v>
+      </c>
+      <c r="S82" t="s">
         <v>46</v>
-      </c>
-      <c r="S82" t="s">
-        <v>47</v>
       </c>
       <c r="T82">
         <v>100</v>
       </c>
       <c r="AD82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
+        <v>199</v>
+      </c>
+      <c r="C83" t="s">
+        <v>200</v>
+      </c>
+      <c r="D83" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83" t="s">
+        <v>36</v>
+      </c>
+      <c r="G83" t="s">
+        <v>37</v>
+      </c>
+      <c r="H83" t="s">
+        <v>201</v>
+      </c>
+      <c r="I83" t="s">
+        <v>39</v>
+      </c>
+      <c r="J83" t="s">
+        <v>40</v>
+      </c>
+      <c r="K83" t="s">
         <v>202</v>
       </c>
-      <c r="C83" t="s">
-        <v>203</v>
-      </c>
-      <c r="D83" t="s">
-        <v>35</v>
-      </c>
-      <c r="E83" t="s">
-        <v>36</v>
-      </c>
-      <c r="G83" t="s">
-        <v>37</v>
-      </c>
-      <c r="H83" t="s">
-        <v>204</v>
-      </c>
-      <c r="I83" t="s">
-        <v>39</v>
-      </c>
-      <c r="J83" t="s">
-        <v>40</v>
-      </c>
-      <c r="K83" t="s">
-        <v>205</v>
-      </c>
       <c r="L83" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>92</v>
+        <v>222</v>
       </c>
       <c r="Q83">
         <v>10</v>
       </c>
       <c r="R83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T83">
         <v>8</v>
@@ -6370,57 +6367,57 @@
         <v>2</v>
       </c>
       <c r="AD83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
+        <v>199</v>
+      </c>
+      <c r="C84" t="s">
+        <v>200</v>
+      </c>
+      <c r="D84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" t="s">
+        <v>37</v>
+      </c>
+      <c r="H84" t="s">
+        <v>201</v>
+      </c>
+      <c r="I84" t="s">
+        <v>39</v>
+      </c>
+      <c r="J84" t="s">
+        <v>40</v>
+      </c>
+      <c r="K84" t="s">
         <v>202</v>
       </c>
-      <c r="C84" t="s">
-        <v>203</v>
-      </c>
-      <c r="D84" t="s">
-        <v>35</v>
-      </c>
-      <c r="E84" t="s">
-        <v>36</v>
-      </c>
-      <c r="G84" t="s">
-        <v>37</v>
-      </c>
-      <c r="H84" t="s">
-        <v>204</v>
-      </c>
-      <c r="I84" t="s">
-        <v>39</v>
-      </c>
-      <c r="J84" t="s">
-        <v>40</v>
-      </c>
-      <c r="K84" t="s">
-        <v>205</v>
-      </c>
       <c r="L84" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M84" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P84" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="Q84">
         <v>11</v>
       </c>
       <c r="R84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T84">
         <v>8</v>
@@ -6429,81 +6426,81 @@
         <v>2</v>
       </c>
       <c r="AD84" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AE84" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
+        <v>199</v>
+      </c>
+      <c r="C85" t="s">
+        <v>200</v>
+      </c>
+      <c r="D85" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" t="s">
+        <v>36</v>
+      </c>
+      <c r="G85" t="s">
+        <v>37</v>
+      </c>
+      <c r="H85" t="s">
+        <v>201</v>
+      </c>
+      <c r="I85" t="s">
+        <v>39</v>
+      </c>
+      <c r="J85" t="s">
+        <v>40</v>
+      </c>
+      <c r="K85" t="s">
         <v>202</v>
       </c>
-      <c r="C85" t="s">
-        <v>203</v>
-      </c>
-      <c r="D85" t="s">
-        <v>35</v>
-      </c>
-      <c r="E85" t="s">
-        <v>36</v>
-      </c>
-      <c r="G85" t="s">
-        <v>37</v>
-      </c>
-      <c r="H85" t="s">
-        <v>204</v>
-      </c>
-      <c r="I85" t="s">
-        <v>39</v>
-      </c>
-      <c r="J85" t="s">
-        <v>40</v>
-      </c>
-      <c r="K85" t="s">
-        <v>205</v>
-      </c>
       <c r="L85" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M85" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O85" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q85">
         <v>12</v>
       </c>
       <c r="R85" t="s">
+        <v>45</v>
+      </c>
+      <c r="S85" t="s">
         <v>46</v>
-      </c>
-      <c r="S85" t="s">
-        <v>47</v>
       </c>
       <c r="T85">
         <v>1</v>
       </c>
       <c r="W85" t="s">
+        <v>71</v>
+      </c>
+      <c r="X85" t="s">
         <v>72</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>73</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>74</v>
       </c>
-      <c r="Z85" t="s">
-        <v>75</v>
-      </c>
       <c r="AA85" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AD85" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE85" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/curation/draft/collection/collection_specialization_LB_Local_Urinalysis.xlsx
+++ b/curation/draft/collection/collection_specialization_LB_Local_Urinalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53479412-5442-4446-A3AD-717DE40F9E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C990333C-5A48-4331-9E9B-F31A747672EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Collection_LB" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_LB!$A$1:$AG$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_LB!$A$1:$AG$74</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="207">
   <si>
     <t>package_date</t>
   </si>
@@ -229,9 +229,6 @@
     <t>C13283</t>
   </si>
   <si>
-    <t>COLOR_LBFAST</t>
-  </si>
-  <si>
     <t>LBFAST</t>
   </si>
   <si>
@@ -268,9 +265,6 @@
     <t>LBORRES when LBTESTCD = COLOR</t>
   </si>
   <si>
-    <t>COLOR_LBORRESU</t>
-  </si>
-  <si>
     <t>LBORRESU</t>
   </si>
   <si>
@@ -280,18 +274,6 @@
     <t>LBORRESU; LBTESTCD; LBTEST</t>
   </si>
   <si>
-    <t>LBORRESU when LBTESTCD = COLOR</t>
-  </si>
-  <si>
-    <t>COLOR_LBMETHOD</t>
-  </si>
-  <si>
-    <t>LBMETHOD</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
     <t>COLOR_LBORNRLO</t>
   </si>
   <si>
@@ -376,9 +358,6 @@
     <t>LBORRESU when LBTESTCD = KETONES</t>
   </si>
   <si>
-    <t>KETONES_LBMETHOD</t>
-  </si>
-  <si>
     <t>KETONES_LBORNRLO</t>
   </si>
   <si>
@@ -436,9 +415,6 @@
     <t>LBORRESU when LBTESTCD = NITRITE</t>
   </si>
   <si>
-    <t>NITRITE_LBMETHOD</t>
-  </si>
-  <si>
     <t>NITRITE_LBORNRLO</t>
   </si>
   <si>
@@ -487,15 +463,6 @@
     <t>LBORRES when LBTESTCD = PH</t>
   </si>
   <si>
-    <t>PH_LBORRESU</t>
-  </si>
-  <si>
-    <t>LBORRESU when LBTESTCD = PH</t>
-  </si>
-  <si>
-    <t>PH_LBMETHOD</t>
-  </si>
-  <si>
     <t>PH_LBORNRLO</t>
   </si>
   <si>
@@ -553,9 +520,6 @@
     <t>LBORRESU when LBTESTCD = PROT</t>
   </si>
   <si>
-    <t>PROT_LBMETHOD</t>
-  </si>
-  <si>
     <t>PROT_LBORNRLO</t>
   </si>
   <si>
@@ -604,15 +568,6 @@
     <t>LBORRES when LBTESTCD = SPGRAV</t>
   </si>
   <si>
-    <t>SPGRAV_LBORRESU</t>
-  </si>
-  <si>
-    <t>LBORRESU when LBTESTCD = SPGRAV</t>
-  </si>
-  <si>
-    <t>SPGRAV_LBMETHOD</t>
-  </si>
-  <si>
     <t>SPGRAV_LBORNRLO</t>
   </si>
   <si>
@@ -670,9 +625,6 @@
     <t>LBORRESU when LBTESTCD = UROBIL</t>
   </si>
   <si>
-    <t>UROBIL_LBMETHOD</t>
-  </si>
-  <si>
     <t>UROBIL_LBORNRLO</t>
   </si>
   <si>
@@ -685,16 +637,13 @@
     <t>C82515</t>
   </si>
   <si>
-    <t>C82535</t>
-  </si>
-  <si>
     <t>Lab Panel Name</t>
   </si>
   <si>
+    <t>Normal Range Upper Limit</t>
+  </si>
+  <si>
     <t>Normal Range Lower Limit</t>
-  </si>
-  <si>
-    <t>Normal Range Upper Limit</t>
   </si>
 </sst>
 </file>
@@ -1082,18 +1031,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG85"/>
+  <dimension ref="A1:AG74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24:P84"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="P19" sqref="P19:P72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="40.85546875" customWidth="1"/>
+    <col min="10" max="10" width="40.7109375" customWidth="1"/>
     <col min="11" max="11" width="38.28515625" customWidth="1"/>
     <col min="12" max="13" width="22" customWidth="1"/>
+    <col min="16" max="16" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="17.42578125" customWidth="1"/>
     <col min="26" max="26" width="23.140625" customWidth="1"/>
     <col min="30" max="30" width="26.7109375" customWidth="1"/>
@@ -1237,7 +1189,7 @@
         <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1414,7 +1366,7 @@
         <v>56</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="P5" t="s">
         <v>57</v>
@@ -1538,49 +1490,37 @@
         <v>41</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N7" t="s">
-        <v>107</v>
-      </c>
-      <c r="O7" t="s">
-        <v>70</v>
+        <v>76</v>
+      </c>
+      <c r="P7" t="s">
+        <v>42</v>
       </c>
       <c r="Q7">
         <v>6</v>
       </c>
       <c r="R7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="W7" t="s">
-        <v>71</v>
-      </c>
-      <c r="X7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>108</v>
+        <v>8</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
       </c>
       <c r="AD7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
@@ -1612,25 +1552,22 @@
         <v>41</v>
       </c>
       <c r="L8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>206</v>
       </c>
       <c r="Q8">
         <v>7</v>
       </c>
       <c r="R8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T8">
         <v>8</v>
@@ -1639,10 +1576,10 @@
         <v>2</v>
       </c>
       <c r="AD8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="AE8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
@@ -1674,31 +1611,34 @@
         <v>41</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
-      </c>
-      <c r="N9" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="Q9">
         <v>8</v>
       </c>
+      <c r="R9" t="s">
+        <v>45</v>
+      </c>
       <c r="S9" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="T9">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
       </c>
       <c r="AD9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AE9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
@@ -1730,16 +1670,13 @@
         <v>41</v>
       </c>
       <c r="L10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M10" t="s">
-        <v>87</v>
-      </c>
-      <c r="N10" t="s">
-        <v>220</v>
-      </c>
-      <c r="P10" t="s">
         <v>88</v>
+      </c>
+      <c r="O10" t="s">
+        <v>89</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -1751,21 +1688,36 @@
         <v>46</v>
       </c>
       <c r="T10">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="W10" t="s">
+        <v>70</v>
+      </c>
+      <c r="X10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>102</v>
       </c>
       <c r="AD10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
         <v>35</v>
@@ -1777,7 +1729,7 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="I11" t="s">
         <v>39</v>
@@ -1786,45 +1738,48 @@
         <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="L11" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M11" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R11" t="s">
         <v>45</v>
       </c>
       <c r="S11" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="T11">
-        <v>8</v>
-      </c>
-      <c r="U11">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="V11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>48</v>
       </c>
       <c r="AD11" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="AE11" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
@@ -1836,7 +1791,7 @@
         <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="I12" t="s">
         <v>39</v>
@@ -1845,45 +1800,45 @@
         <v>40</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M12" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="P12" t="s">
-        <v>223</v>
+        <v>51</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="R12" t="s">
         <v>45</v>
       </c>
       <c r="S12" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="T12">
-        <v>8</v>
-      </c>
-      <c r="U12">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="V12" t="s">
+        <v>47</v>
       </c>
       <c r="AD12" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="AE12" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
@@ -1895,7 +1850,7 @@
         <v>37</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s">
         <v>39</v>
@@ -1904,19 +1859,19 @@
         <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="L13" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="M13" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="O13" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="R13" t="s">
         <v>45</v>
@@ -1925,36 +1880,21 @@
         <v>46</v>
       </c>
       <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="W13" t="s">
-        <v>71</v>
-      </c>
-      <c r="X13" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="AD13" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="AE13" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
         <v>35</v>
@@ -1966,57 +1906,54 @@
         <v>37</v>
       </c>
       <c r="H14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" t="s">
+        <v>93</v>
+      </c>
+      <c r="L14" t="s">
         <v>98</v>
       </c>
-      <c r="I14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" t="s">
-        <v>99</v>
-      </c>
-      <c r="L14" t="s">
-        <v>101</v>
-      </c>
       <c r="M14" t="s">
-        <v>44</v>
+        <v>56</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="P14" t="s">
-        <v>221</v>
+        <v>57</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R14" t="s">
         <v>45</v>
       </c>
       <c r="S14" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="T14">
-        <v>100</v>
-      </c>
-      <c r="V14" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="AE14" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
         <v>35</v>
@@ -2028,7 +1965,7 @@
         <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I15" t="s">
         <v>39</v>
@@ -2037,22 +1974,25 @@
         <v>40</v>
       </c>
       <c r="K15" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" t="s">
         <v>99</v>
       </c>
-      <c r="L15" t="s">
-        <v>102</v>
-      </c>
       <c r="M15" t="s">
-        <v>50</v>
+        <v>61</v>
+      </c>
+      <c r="N15" t="s">
+        <v>62</v>
       </c>
       <c r="P15" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S15" t="s">
         <v>46</v>
@@ -2060,22 +2000,31 @@
       <c r="T15">
         <v>100</v>
       </c>
-      <c r="V15" t="s">
-        <v>47</v>
+      <c r="W15" t="s">
+        <v>64</v>
+      </c>
+      <c r="X15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>67</v>
       </c>
       <c r="AD15" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="AE15" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
         <v>35</v>
@@ -2087,7 +2036,7 @@
         <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I16" t="s">
         <v>39</v>
@@ -2096,19 +2045,22 @@
         <v>40</v>
       </c>
       <c r="K16" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M16" t="s">
-        <v>53</v>
+        <v>68</v>
+      </c>
+      <c r="N16" t="s">
+        <v>101</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R16" t="s">
         <v>45</v>
@@ -2117,21 +2069,36 @@
         <v>46</v>
       </c>
       <c r="T16">
-        <v>200</v>
+        <v>1</v>
+      </c>
+      <c r="W16" t="s">
+        <v>70</v>
+      </c>
+      <c r="X16" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>102</v>
       </c>
       <c r="AD16" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AE16" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s">
         <v>35</v>
@@ -2143,7 +2110,7 @@
         <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I17" t="s">
         <v>39</v>
@@ -2152,45 +2119,48 @@
         <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L17" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+      <c r="R17" t="s">
+        <v>47</v>
+      </c>
+      <c r="S17" t="s">
+        <v>77</v>
+      </c>
+      <c r="T17">
+        <v>8</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s">
         <v>104</v>
-      </c>
-      <c r="M17" t="s">
-        <v>56</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="P17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q17">
-        <v>4</v>
-      </c>
-      <c r="R17" t="s">
-        <v>45</v>
-      </c>
-      <c r="S17" t="s">
-        <v>58</v>
-      </c>
-      <c r="T17">
-        <v>10</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
         <v>35</v>
@@ -2202,7 +2172,7 @@
         <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I18" t="s">
         <v>39</v>
@@ -2211,22 +2181,22 @@
         <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L18" t="s">
         <v>105</v>
       </c>
       <c r="M18" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="P18" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R18" t="s">
         <v>47</v>
@@ -2235,33 +2205,36 @@
         <v>46</v>
       </c>
       <c r="T18">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="W18" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="X18" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>67</v>
+        <v>108</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>102</v>
       </c>
       <c r="AD18" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AE18" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
         <v>35</v>
@@ -2273,7 +2246,7 @@
         <v>37</v>
       </c>
       <c r="H19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I19" t="s">
         <v>39</v>
@@ -2282,60 +2255,45 @@
         <v>40</v>
       </c>
       <c r="K19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L19" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M19" t="s">
-        <v>69</v>
-      </c>
-      <c r="N19" t="s">
-        <v>107</v>
-      </c>
-      <c r="O19" t="s">
-        <v>70</v>
+        <v>84</v>
+      </c>
+      <c r="P19" t="s">
+        <v>206</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R19" t="s">
         <v>45</v>
       </c>
       <c r="S19" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="W19" t="s">
-        <v>71</v>
-      </c>
-      <c r="X19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>108</v>
+        <v>8</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
       </c>
       <c r="AD19" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="AE19" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
         <v>35</v>
@@ -2347,7 +2305,7 @@
         <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I20" t="s">
         <v>39</v>
@@ -2356,28 +2314,25 @@
         <v>40</v>
       </c>
       <c r="K20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M20" t="s">
-        <v>76</v>
-      </c>
-      <c r="N20" t="s">
+        <v>86</v>
+      </c>
+      <c r="P20" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q20">
+        <v>10</v>
+      </c>
+      <c r="R20" t="s">
+        <v>45</v>
+      </c>
+      <c r="S20" t="s">
         <v>77</v>
-      </c>
-      <c r="P20" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q20">
-        <v>7</v>
-      </c>
-      <c r="R20" t="s">
-        <v>47</v>
-      </c>
-      <c r="S20" t="s">
-        <v>78</v>
       </c>
       <c r="T20">
         <v>8</v>
@@ -2386,18 +2341,18 @@
         <v>2</v>
       </c>
       <c r="AD20" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AE20" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
         <v>35</v>
@@ -2409,7 +2364,7 @@
         <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I21" t="s">
         <v>39</v>
@@ -2418,60 +2373,57 @@
         <v>40</v>
       </c>
       <c r="K21" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L21" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M21" t="s">
-        <v>82</v>
-      </c>
-      <c r="N21" t="s">
-        <v>112</v>
-      </c>
-      <c r="P21" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="O21" t="s">
+        <v>89</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S21" t="s">
         <v>46</v>
       </c>
       <c r="T21">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="W21" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="X21" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="Y21" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="Z21" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="AA21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AD21" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="AE21" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
@@ -2483,7 +2435,7 @@
         <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="I22" t="s">
         <v>39</v>
@@ -2492,22 +2444,19 @@
         <v>40</v>
       </c>
       <c r="K22" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="L22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M22" t="s">
-        <v>87</v>
-      </c>
-      <c r="N22" t="s">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R22" t="s">
         <v>45</v>
@@ -2518,19 +2467,25 @@
       <c r="T22">
         <v>100</v>
       </c>
+      <c r="V22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>48</v>
+      </c>
       <c r="AD22" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="AE22" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
@@ -2542,7 +2497,7 @@
         <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="I23" t="s">
         <v>39</v>
@@ -2551,45 +2506,45 @@
         <v>40</v>
       </c>
       <c r="K23" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="L23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M23" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="P23" t="s">
-        <v>222</v>
+        <v>51</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R23" t="s">
         <v>45</v>
       </c>
       <c r="S23" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="T23">
-        <v>8</v>
-      </c>
-      <c r="U23">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="V23" t="s">
+        <v>47</v>
       </c>
       <c r="AD23" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AE23" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -2601,7 +2556,7 @@
         <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="I24" t="s">
         <v>39</v>
@@ -2610,45 +2565,42 @@
         <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="L24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M24" t="s">
-        <v>92</v>
-      </c>
-      <c r="P24" t="s">
-        <v>223</v>
+        <v>53</v>
+      </c>
+      <c r="O24" t="s">
+        <v>54</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="R24" t="s">
         <v>45</v>
       </c>
       <c r="S24" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="T24">
-        <v>8</v>
-      </c>
-      <c r="U24">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="AD24" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="AE24" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
@@ -2660,7 +2612,7 @@
         <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="I25" t="s">
         <v>39</v>
@@ -2669,57 +2621,45 @@
         <v>40</v>
       </c>
       <c r="K25" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="L25" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M25" t="s">
-        <v>94</v>
-      </c>
-      <c r="O25" t="s">
-        <v>95</v>
+        <v>56</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="P25" t="s">
+        <v>57</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="R25" t="s">
         <v>45</v>
       </c>
       <c r="S25" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="W25" t="s">
-        <v>71</v>
-      </c>
-      <c r="X25" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="AD25" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="AE25" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
         <v>35</v>
@@ -2731,31 +2671,34 @@
         <v>37</v>
       </c>
       <c r="H26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" t="s">
         <v>123</v>
       </c>
-      <c r="I26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26" t="s">
-        <v>124</v>
-      </c>
-      <c r="L26" t="s">
-        <v>126</v>
-      </c>
       <c r="M26" t="s">
-        <v>44</v>
+        <v>61</v>
+      </c>
+      <c r="N26" t="s">
+        <v>62</v>
       </c>
       <c r="P26" t="s">
-        <v>221</v>
+        <v>63</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S26" t="s">
         <v>46</v>
@@ -2763,25 +2706,31 @@
       <c r="T26">
         <v>100</v>
       </c>
-      <c r="V26" t="s">
-        <v>47</v>
+      <c r="W26" t="s">
+        <v>64</v>
+      </c>
+      <c r="X26" t="s">
+        <v>65</v>
       </c>
       <c r="AB26" t="s">
-        <v>48</v>
+        <v>66</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>67</v>
       </c>
       <c r="AD26" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="AE26" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
         <v>35</v>
@@ -2793,7 +2742,7 @@
         <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I27" t="s">
         <v>39</v>
@@ -2802,19 +2751,22 @@
         <v>40</v>
       </c>
       <c r="K27" t="s">
+        <v>117</v>
+      </c>
+      <c r="L27" t="s">
         <v>124</v>
       </c>
-      <c r="L27" t="s">
-        <v>127</v>
-      </c>
       <c r="M27" t="s">
-        <v>50</v>
-      </c>
-      <c r="P27" t="s">
-        <v>51</v>
+        <v>68</v>
+      </c>
+      <c r="N27" t="s">
+        <v>101</v>
+      </c>
+      <c r="O27" t="s">
+        <v>69</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R27" t="s">
         <v>45</v>
@@ -2823,24 +2775,36 @@
         <v>46</v>
       </c>
       <c r="T27">
-        <v>100</v>
-      </c>
-      <c r="V27" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="W27" t="s">
+        <v>70</v>
+      </c>
+      <c r="X27" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>102</v>
       </c>
       <c r="AD27" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="AE27" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
         <v>35</v>
@@ -2852,7 +2816,7 @@
         <v>37</v>
       </c>
       <c r="H28" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I28" t="s">
         <v>39</v>
@@ -2861,42 +2825,48 @@
         <v>40</v>
       </c>
       <c r="K28" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M28" t="s">
-        <v>53</v>
-      </c>
-      <c r="O28" t="s">
-        <v>54</v>
+        <v>75</v>
+      </c>
+      <c r="N28" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" t="s">
+        <v>118</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S28" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="T28">
-        <v>200</v>
+        <v>8</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
       </c>
       <c r="AD28" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
         <v>35</v>
@@ -2908,7 +2878,7 @@
         <v>37</v>
       </c>
       <c r="H29" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I29" t="s">
         <v>39</v>
@@ -2917,45 +2887,60 @@
         <v>40</v>
       </c>
       <c r="K29" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L29" t="s">
+        <v>127</v>
+      </c>
+      <c r="M29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N29" t="s">
+        <v>106</v>
+      </c>
+      <c r="P29" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q29">
+        <v>8</v>
+      </c>
+      <c r="R29" t="s">
+        <v>47</v>
+      </c>
+      <c r="S29" t="s">
+        <v>46</v>
+      </c>
+      <c r="T29">
+        <v>20</v>
+      </c>
+      <c r="W29" t="s">
+        <v>107</v>
+      </c>
+      <c r="X29" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE29" t="s">
         <v>129</v>
-      </c>
-      <c r="M29" t="s">
-        <v>56</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="P29" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q29">
-        <v>4</v>
-      </c>
-      <c r="R29" t="s">
-        <v>45</v>
-      </c>
-      <c r="S29" t="s">
-        <v>58</v>
-      </c>
-      <c r="T29">
-        <v>10</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
@@ -2967,7 +2952,7 @@
         <v>37</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I30" t="s">
         <v>39</v>
@@ -2976,57 +2961,45 @@
         <v>40</v>
       </c>
       <c r="K30" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L30" t="s">
         <v>130</v>
       </c>
       <c r="M30" t="s">
-        <v>61</v>
-      </c>
-      <c r="N30" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="P30" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="Q30">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S30" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="T30">
-        <v>100</v>
-      </c>
-      <c r="W30" t="s">
-        <v>64</v>
-      </c>
-      <c r="X30" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>67</v>
+        <v>8</v>
+      </c>
+      <c r="U30">
+        <v>2</v>
       </c>
       <c r="AD30" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="AE30" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
         <v>35</v>
@@ -3038,7 +3011,7 @@
         <v>37</v>
       </c>
       <c r="H31" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I31" t="s">
         <v>39</v>
@@ -3047,60 +3020,45 @@
         <v>40</v>
       </c>
       <c r="K31" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L31" t="s">
         <v>131</v>
       </c>
       <c r="M31" t="s">
-        <v>69</v>
-      </c>
-      <c r="N31" t="s">
-        <v>107</v>
-      </c>
-      <c r="O31" t="s">
-        <v>70</v>
+        <v>86</v>
+      </c>
+      <c r="P31" t="s">
+        <v>205</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R31" t="s">
         <v>45</v>
       </c>
       <c r="S31" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="T31">
-        <v>1</v>
-      </c>
-      <c r="W31" t="s">
-        <v>71</v>
-      </c>
-      <c r="X31" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>108</v>
+        <v>8</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
       </c>
       <c r="AD31" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="AE31" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
         <v>35</v>
@@ -3112,7 +3070,7 @@
         <v>37</v>
       </c>
       <c r="H32" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I32" t="s">
         <v>39</v>
@@ -3121,48 +3079,57 @@
         <v>40</v>
       </c>
       <c r="K32" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L32" t="s">
         <v>132</v>
       </c>
       <c r="M32" t="s">
-        <v>76</v>
-      </c>
-      <c r="N32" t="s">
-        <v>77</v>
-      </c>
-      <c r="P32" t="s">
-        <v>125</v>
+        <v>88</v>
+      </c>
+      <c r="O32" t="s">
+        <v>89</v>
       </c>
       <c r="Q32">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S32" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="T32">
-        <v>8</v>
-      </c>
-      <c r="U32">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="W32" t="s">
+        <v>70</v>
+      </c>
+      <c r="X32" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>102</v>
       </c>
       <c r="AD32" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AE32" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
@@ -3174,7 +3141,7 @@
         <v>37</v>
       </c>
       <c r="H33" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="I33" t="s">
         <v>39</v>
@@ -3183,60 +3150,48 @@
         <v>40</v>
       </c>
       <c r="K33" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L33" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M33" t="s">
-        <v>82</v>
-      </c>
-      <c r="N33" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="P33" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S33" t="s">
         <v>46</v>
       </c>
       <c r="T33">
-        <v>20</v>
-      </c>
-      <c r="W33" t="s">
-        <v>113</v>
-      </c>
-      <c r="X33" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="V33" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>48</v>
       </c>
       <c r="AD33" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="AE33" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
@@ -3248,7 +3203,7 @@
         <v>37</v>
       </c>
       <c r="H34" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="I34" t="s">
         <v>39</v>
@@ -3257,22 +3212,19 @@
         <v>40</v>
       </c>
       <c r="K34" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L34" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M34" t="s">
-        <v>87</v>
-      </c>
-      <c r="N34" t="s">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="P34" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R34" t="s">
         <v>45</v>
@@ -3283,19 +3235,22 @@
       <c r="T34">
         <v>100</v>
       </c>
+      <c r="V34" t="s">
+        <v>47</v>
+      </c>
       <c r="AD34" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="AE34" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s">
         <v>35</v>
@@ -3307,7 +3262,7 @@
         <v>37</v>
       </c>
       <c r="H35" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="I35" t="s">
         <v>39</v>
@@ -3316,45 +3271,42 @@
         <v>40</v>
       </c>
       <c r="K35" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M35" t="s">
-        <v>90</v>
-      </c>
-      <c r="P35" t="s">
-        <v>222</v>
+        <v>53</v>
+      </c>
+      <c r="O35" t="s">
+        <v>54</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R35" t="s">
         <v>45</v>
       </c>
       <c r="S35" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="T35">
-        <v>8</v>
-      </c>
-      <c r="U35">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="AD35" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="AE35" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
         <v>35</v>
@@ -3366,7 +3318,7 @@
         <v>37</v>
       </c>
       <c r="H36" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="I36" t="s">
         <v>39</v>
@@ -3375,45 +3327,45 @@
         <v>40</v>
       </c>
       <c r="K36" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L36" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M36" t="s">
-        <v>92</v>
+        <v>56</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="P36" t="s">
-        <v>223</v>
+        <v>57</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="R36" t="s">
         <v>45</v>
       </c>
       <c r="S36" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="T36">
-        <v>8</v>
-      </c>
-      <c r="U36">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AD36" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="AE36" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D37" t="s">
         <v>35</v>
@@ -3425,7 +3377,7 @@
         <v>37</v>
       </c>
       <c r="H37" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="I37" t="s">
         <v>39</v>
@@ -3434,57 +3386,57 @@
         <v>40</v>
       </c>
       <c r="K37" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M37" t="s">
-        <v>94</v>
-      </c>
-      <c r="O37" t="s">
-        <v>95</v>
+        <v>61</v>
+      </c>
+      <c r="N37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="s">
+        <v>63</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="R37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S37" t="s">
         <v>46</v>
       </c>
       <c r="T37">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="W37" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="X37" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>108</v>
+        <v>65</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>67</v>
       </c>
       <c r="AD37" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="AE37" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
         <v>35</v>
@@ -3496,28 +3448,31 @@
         <v>37</v>
       </c>
       <c r="H38" t="s">
+        <v>135</v>
+      </c>
+      <c r="I38" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K38" t="s">
+        <v>136</v>
+      </c>
+      <c r="L38" t="s">
         <v>143</v>
       </c>
-      <c r="I38" t="s">
-        <v>39</v>
-      </c>
-      <c r="J38" t="s">
-        <v>40</v>
-      </c>
-      <c r="K38" t="s">
-        <v>144</v>
-      </c>
-      <c r="L38" t="s">
-        <v>146</v>
-      </c>
       <c r="M38" t="s">
-        <v>44</v>
-      </c>
-      <c r="P38" t="s">
-        <v>221</v>
+        <v>68</v>
+      </c>
+      <c r="N38" t="s">
+        <v>101</v>
+      </c>
+      <c r="O38" t="s">
+        <v>69</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R38" t="s">
         <v>45</v>
@@ -3526,27 +3481,36 @@
         <v>46</v>
       </c>
       <c r="T38">
-        <v>100</v>
-      </c>
-      <c r="V38" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="W38" t="s">
+        <v>70</v>
+      </c>
+      <c r="X38" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>102</v>
       </c>
       <c r="AD38" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="AE38" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D39" t="s">
         <v>35</v>
@@ -3558,7 +3522,7 @@
         <v>37</v>
       </c>
       <c r="H39" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I39" t="s">
         <v>39</v>
@@ -3567,45 +3531,48 @@
         <v>40</v>
       </c>
       <c r="K39" t="s">
+        <v>136</v>
+      </c>
+      <c r="L39" t="s">
         <v>144</v>
       </c>
-      <c r="L39" t="s">
-        <v>147</v>
-      </c>
       <c r="M39" t="s">
-        <v>50</v>
+        <v>75</v>
+      </c>
+      <c r="N39" t="s">
+        <v>76</v>
       </c>
       <c r="P39" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="Q39">
+        <v>7</v>
+      </c>
+      <c r="R39" t="s">
+        <v>47</v>
+      </c>
+      <c r="S39" t="s">
+        <v>77</v>
+      </c>
+      <c r="T39">
+        <v>8</v>
+      </c>
+      <c r="U39">
         <v>2</v>
       </c>
-      <c r="R39" t="s">
-        <v>45</v>
-      </c>
-      <c r="S39" t="s">
-        <v>46</v>
-      </c>
-      <c r="T39">
-        <v>100</v>
-      </c>
-      <c r="V39" t="s">
-        <v>47</v>
-      </c>
       <c r="AD39" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="AE39" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s">
         <v>35</v>
@@ -3617,7 +3584,7 @@
         <v>37</v>
       </c>
       <c r="H40" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I40" t="s">
         <v>39</v>
@@ -3626,42 +3593,45 @@
         <v>40</v>
       </c>
       <c r="K40" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="L40" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M40" t="s">
-        <v>53</v>
-      </c>
-      <c r="O40" t="s">
-        <v>54</v>
+        <v>84</v>
+      </c>
+      <c r="P40" t="s">
+        <v>206</v>
       </c>
       <c r="Q40">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R40" t="s">
         <v>45</v>
       </c>
       <c r="S40" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="T40">
-        <v>200</v>
+        <v>8</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
       </c>
       <c r="AD40" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="AE40" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D41" t="s">
         <v>35</v>
@@ -3673,7 +3643,7 @@
         <v>37</v>
       </c>
       <c r="H41" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I41" t="s">
         <v>39</v>
@@ -3682,45 +3652,45 @@
         <v>40</v>
       </c>
       <c r="K41" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="L41" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M41" t="s">
-        <v>56</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>219</v>
+        <v>86</v>
       </c>
       <c r="P41" t="s">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="Q41">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R41" t="s">
         <v>45</v>
       </c>
       <c r="S41" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="T41">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
       </c>
       <c r="AD41" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="AE41" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
         <v>35</v>
@@ -3732,7 +3702,7 @@
         <v>37</v>
       </c>
       <c r="H42" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I42" t="s">
         <v>39</v>
@@ -3741,57 +3711,57 @@
         <v>40</v>
       </c>
       <c r="K42" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="L42" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M42" t="s">
-        <v>61</v>
-      </c>
-      <c r="N42" t="s">
-        <v>62</v>
-      </c>
-      <c r="P42" t="s">
-        <v>63</v>
+        <v>88</v>
+      </c>
+      <c r="O42" t="s">
+        <v>89</v>
       </c>
       <c r="Q42">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S42" t="s">
         <v>46</v>
       </c>
       <c r="T42">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="W42" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="X42" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>102</v>
       </c>
       <c r="AD42" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="AE42" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s">
         <v>35</v>
@@ -3803,7 +3773,7 @@
         <v>37</v>
       </c>
       <c r="H43" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="I43" t="s">
         <v>39</v>
@@ -3812,22 +3782,19 @@
         <v>40</v>
       </c>
       <c r="K43" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="L43" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M43" t="s">
-        <v>69</v>
-      </c>
-      <c r="N43" t="s">
-        <v>107</v>
-      </c>
-      <c r="O43" t="s">
-        <v>70</v>
+        <v>44</v>
+      </c>
+      <c r="P43" t="s">
+        <v>204</v>
       </c>
       <c r="Q43">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R43" t="s">
         <v>45</v>
@@ -3836,36 +3803,27 @@
         <v>46</v>
       </c>
       <c r="T43">
-        <v>1</v>
-      </c>
-      <c r="W43" t="s">
-        <v>71</v>
-      </c>
-      <c r="X43" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="V43" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>48</v>
       </c>
       <c r="AD43" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="AE43" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D44" t="s">
         <v>35</v>
@@ -3877,7 +3835,7 @@
         <v>37</v>
       </c>
       <c r="H44" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="I44" t="s">
         <v>39</v>
@@ -3886,48 +3844,45 @@
         <v>40</v>
       </c>
       <c r="K44" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="L44" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M44" t="s">
-        <v>76</v>
-      </c>
-      <c r="N44" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P44" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="Q44">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R44" t="s">
+        <v>45</v>
+      </c>
+      <c r="S44" t="s">
+        <v>46</v>
+      </c>
+      <c r="T44">
+        <v>100</v>
+      </c>
+      <c r="V44" t="s">
         <v>47</v>
       </c>
-      <c r="S44" t="s">
-        <v>78</v>
-      </c>
-      <c r="T44">
-        <v>8</v>
-      </c>
-      <c r="U44">
-        <v>2</v>
-      </c>
       <c r="AD44" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AE44" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D45" t="s">
         <v>35</v>
@@ -3939,7 +3894,7 @@
         <v>37</v>
       </c>
       <c r="H45" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="I45" t="s">
         <v>39</v>
@@ -3948,42 +3903,42 @@
         <v>40</v>
       </c>
       <c r="K45" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="L45" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M45" t="s">
-        <v>82</v>
-      </c>
-      <c r="N45" t="s">
-        <v>112</v>
-      </c>
-      <c r="P45" t="s">
-        <v>83</v>
+        <v>53</v>
+      </c>
+      <c r="O45" t="s">
+        <v>54</v>
       </c>
       <c r="Q45">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="R45" t="s">
+        <v>45</v>
       </c>
       <c r="S45" t="s">
         <v>46</v>
       </c>
       <c r="T45">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="AD45" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="AE45" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D46" t="s">
         <v>35</v>
@@ -3995,7 +3950,7 @@
         <v>37</v>
       </c>
       <c r="H46" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="I46" t="s">
         <v>39</v>
@@ -4004,45 +3959,45 @@
         <v>40</v>
       </c>
       <c r="K46" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="L46" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M46" t="s">
-        <v>87</v>
-      </c>
-      <c r="N46" t="s">
-        <v>220</v>
+        <v>56</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="P46" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="Q46">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R46" t="s">
         <v>45</v>
       </c>
       <c r="S46" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="T46">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AD46" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="AE46" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D47" t="s">
         <v>35</v>
@@ -4054,7 +4009,7 @@
         <v>37</v>
       </c>
       <c r="H47" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="I47" t="s">
         <v>39</v>
@@ -4063,45 +4018,57 @@
         <v>40</v>
       </c>
       <c r="K47" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="L47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M47" t="s">
-        <v>90</v>
+        <v>61</v>
+      </c>
+      <c r="N47" t="s">
+        <v>62</v>
       </c>
       <c r="P47" t="s">
-        <v>222</v>
+        <v>63</v>
       </c>
       <c r="Q47">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S47" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="T47">
-        <v>8</v>
-      </c>
-      <c r="U47">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="W47" t="s">
+        <v>64</v>
+      </c>
+      <c r="X47" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>67</v>
       </c>
       <c r="AD47" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="AE47" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D48" t="s">
         <v>35</v>
@@ -4113,7 +4080,7 @@
         <v>37</v>
       </c>
       <c r="H48" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="I48" t="s">
         <v>39</v>
@@ -4122,45 +4089,60 @@
         <v>40</v>
       </c>
       <c r="K48" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="L48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M48" t="s">
-        <v>92</v>
-      </c>
-      <c r="P48" t="s">
-        <v>223</v>
+        <v>68</v>
+      </c>
+      <c r="N48" t="s">
+        <v>101</v>
+      </c>
+      <c r="O48" t="s">
+        <v>69</v>
       </c>
       <c r="Q48">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="R48" t="s">
         <v>45</v>
       </c>
       <c r="S48" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="T48">
-        <v>8</v>
-      </c>
-      <c r="U48">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="W48" t="s">
+        <v>70</v>
+      </c>
+      <c r="X48" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>102</v>
       </c>
       <c r="AD48" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="AE48" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D49" t="s">
         <v>35</v>
@@ -4172,7 +4154,7 @@
         <v>37</v>
       </c>
       <c r="H49" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="I49" t="s">
         <v>39</v>
@@ -4181,57 +4163,48 @@
         <v>40</v>
       </c>
       <c r="K49" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="L49" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M49" t="s">
-        <v>94</v>
-      </c>
-      <c r="O49" t="s">
-        <v>95</v>
+        <v>75</v>
+      </c>
+      <c r="N49" t="s">
+        <v>76</v>
+      </c>
+      <c r="P49" t="s">
+        <v>153</v>
       </c>
       <c r="Q49">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="R49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S49" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="T49">
-        <v>1</v>
-      </c>
-      <c r="W49" t="s">
-        <v>71</v>
-      </c>
-      <c r="X49" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>108</v>
+        <v>8</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
       </c>
       <c r="AD49" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="AE49" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D50" t="s">
         <v>35</v>
@@ -4243,57 +4216,69 @@
         <v>37</v>
       </c>
       <c r="H50" t="s">
+        <v>151</v>
+      </c>
+      <c r="I50" t="s">
+        <v>39</v>
+      </c>
+      <c r="J50" t="s">
+        <v>40</v>
+      </c>
+      <c r="K50" t="s">
+        <v>152</v>
+      </c>
+      <c r="L50" t="s">
         <v>162</v>
       </c>
-      <c r="I50" t="s">
-        <v>39</v>
-      </c>
-      <c r="J50" t="s">
-        <v>40</v>
-      </c>
-      <c r="K50" t="s">
-        <v>163</v>
-      </c>
-      <c r="L50" t="s">
-        <v>165</v>
-      </c>
       <c r="M50" t="s">
-        <v>44</v>
+        <v>80</v>
+      </c>
+      <c r="N50" t="s">
+        <v>106</v>
       </c>
       <c r="P50" t="s">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="Q50">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S50" t="s">
         <v>46</v>
       </c>
       <c r="T50">
-        <v>100</v>
-      </c>
-      <c r="V50" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>48</v>
+        <v>20</v>
+      </c>
+      <c r="W50" t="s">
+        <v>107</v>
+      </c>
+      <c r="X50" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>102</v>
       </c>
       <c r="AD50" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="AE50" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D51" t="s">
         <v>35</v>
@@ -4305,7 +4290,7 @@
         <v>37</v>
       </c>
       <c r="H51" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="I51" t="s">
         <v>39</v>
@@ -4314,45 +4299,45 @@
         <v>40</v>
       </c>
       <c r="K51" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="L51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M51" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="P51" t="s">
-        <v>51</v>
+        <v>206</v>
       </c>
       <c r="Q51">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R51" t="s">
         <v>45</v>
       </c>
       <c r="S51" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="T51">
-        <v>100</v>
-      </c>
-      <c r="V51" t="s">
-        <v>47</v>
+        <v>8</v>
+      </c>
+      <c r="U51">
+        <v>2</v>
       </c>
       <c r="AD51" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="AE51" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D52" t="s">
         <v>35</v>
@@ -4364,7 +4349,7 @@
         <v>37</v>
       </c>
       <c r="H52" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="I52" t="s">
         <v>39</v>
@@ -4373,42 +4358,45 @@
         <v>40</v>
       </c>
       <c r="K52" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="L52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M52" t="s">
-        <v>53</v>
-      </c>
-      <c r="O52" t="s">
-        <v>54</v>
+        <v>86</v>
+      </c>
+      <c r="P52" t="s">
+        <v>205</v>
       </c>
       <c r="Q52">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R52" t="s">
         <v>45</v>
       </c>
       <c r="S52" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="T52">
-        <v>200</v>
+        <v>8</v>
+      </c>
+      <c r="U52">
+        <v>2</v>
       </c>
       <c r="AD52" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="AE52" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C53" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D53" t="s">
         <v>35</v>
@@ -4420,7 +4408,7 @@
         <v>37</v>
       </c>
       <c r="H53" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="I53" t="s">
         <v>39</v>
@@ -4429,45 +4417,57 @@
         <v>40</v>
       </c>
       <c r="K53" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="L53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M53" t="s">
-        <v>56</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="P53" t="s">
-        <v>57</v>
+        <v>88</v>
+      </c>
+      <c r="O53" t="s">
+        <v>89</v>
       </c>
       <c r="Q53">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="R53" t="s">
         <v>45</v>
       </c>
       <c r="S53" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="T53">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="W53" t="s">
+        <v>70</v>
+      </c>
+      <c r="X53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>102</v>
       </c>
       <c r="AD53" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="AE53" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D54" t="s">
         <v>35</v>
@@ -4479,7 +4479,7 @@
         <v>37</v>
       </c>
       <c r="H54" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="I54" t="s">
         <v>39</v>
@@ -4488,25 +4488,22 @@
         <v>40</v>
       </c>
       <c r="K54" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L54" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M54" t="s">
-        <v>61</v>
-      </c>
-      <c r="N54" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="P54" t="s">
-        <v>63</v>
+        <v>204</v>
       </c>
       <c r="Q54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S54" t="s">
         <v>46</v>
@@ -4514,31 +4511,25 @@
       <c r="T54">
         <v>100</v>
       </c>
-      <c r="W54" t="s">
-        <v>64</v>
-      </c>
-      <c r="X54" t="s">
-        <v>65</v>
+      <c r="V54" t="s">
+        <v>47</v>
       </c>
       <c r="AB54" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="AD54" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="AE54" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C55" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D55" t="s">
         <v>35</v>
@@ -4550,7 +4541,7 @@
         <v>37</v>
       </c>
       <c r="H55" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="I55" t="s">
         <v>39</v>
@@ -4559,22 +4550,19 @@
         <v>40</v>
       </c>
       <c r="K55" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L55" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M55" t="s">
-        <v>69</v>
-      </c>
-      <c r="N55" t="s">
-        <v>107</v>
-      </c>
-      <c r="O55" t="s">
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="P55" t="s">
+        <v>51</v>
       </c>
       <c r="Q55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R55" t="s">
         <v>45</v>
@@ -4583,36 +4571,24 @@
         <v>46</v>
       </c>
       <c r="T55">
-        <v>1</v>
-      </c>
-      <c r="W55" t="s">
-        <v>71</v>
-      </c>
-      <c r="X55" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z55" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA55" t="s">
-        <v>108</v>
+        <v>100</v>
+      </c>
+      <c r="V55" t="s">
+        <v>47</v>
       </c>
       <c r="AD55" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="AE55" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D56" t="s">
         <v>35</v>
@@ -4624,7 +4600,7 @@
         <v>37</v>
       </c>
       <c r="H56" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="I56" t="s">
         <v>39</v>
@@ -4633,48 +4609,42 @@
         <v>40</v>
       </c>
       <c r="K56" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L56" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M56" t="s">
-        <v>76</v>
-      </c>
-      <c r="N56" t="s">
-        <v>77</v>
-      </c>
-      <c r="P56" t="s">
-        <v>164</v>
+        <v>53</v>
+      </c>
+      <c r="O56" t="s">
+        <v>54</v>
       </c>
       <c r="Q56">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S56" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="T56">
-        <v>8</v>
-      </c>
-      <c r="U56">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="AD56" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="AE56" t="s">
-        <v>172</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C57" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D57" t="s">
         <v>35</v>
@@ -4686,7 +4656,7 @@
         <v>37</v>
       </c>
       <c r="H57" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="I57" t="s">
         <v>39</v>
@@ -4695,60 +4665,45 @@
         <v>40</v>
       </c>
       <c r="K57" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L57" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M57" t="s">
-        <v>82</v>
-      </c>
-      <c r="N57" t="s">
-        <v>112</v>
+        <v>56</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="P57" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="Q57">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R57" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S57" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="T57">
-        <v>20</v>
-      </c>
-      <c r="W57" t="s">
-        <v>113</v>
-      </c>
-      <c r="X57" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="AD57" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="AE57" t="s">
-        <v>175</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C58" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D58" t="s">
         <v>35</v>
@@ -4760,7 +4715,7 @@
         <v>37</v>
       </c>
       <c r="H58" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="I58" t="s">
         <v>39</v>
@@ -4769,25 +4724,25 @@
         <v>40</v>
       </c>
       <c r="K58" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M58" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="N58" t="s">
-        <v>220</v>
+        <v>62</v>
       </c>
       <c r="P58" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="Q58">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S58" t="s">
         <v>46</v>
@@ -4795,19 +4750,31 @@
       <c r="T58">
         <v>100</v>
       </c>
+      <c r="W58" t="s">
+        <v>64</v>
+      </c>
+      <c r="X58" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>67</v>
+      </c>
       <c r="AD58" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="AE58" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C59" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D59" t="s">
         <v>35</v>
@@ -4819,7 +4786,7 @@
         <v>37</v>
       </c>
       <c r="H59" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="I59" t="s">
         <v>39</v>
@@ -4828,45 +4795,60 @@
         <v>40</v>
       </c>
       <c r="K59" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L59" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M59" t="s">
-        <v>90</v>
-      </c>
-      <c r="P59" t="s">
-        <v>222</v>
+        <v>68</v>
+      </c>
+      <c r="N59" t="s">
+        <v>101</v>
+      </c>
+      <c r="O59" t="s">
+        <v>69</v>
       </c>
       <c r="Q59">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R59" t="s">
         <v>45</v>
       </c>
       <c r="S59" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="T59">
-        <v>8</v>
-      </c>
-      <c r="U59">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="W59" t="s">
+        <v>70</v>
+      </c>
+      <c r="X59" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>102</v>
       </c>
       <c r="AD59" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="AE59" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C60" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D60" t="s">
         <v>35</v>
@@ -4878,7 +4860,7 @@
         <v>37</v>
       </c>
       <c r="H60" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="I60" t="s">
         <v>39</v>
@@ -4887,25 +4869,28 @@
         <v>40</v>
       </c>
       <c r="K60" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L60" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M60" t="s">
-        <v>92</v>
+        <v>75</v>
+      </c>
+      <c r="N60" t="s">
+        <v>76</v>
       </c>
       <c r="P60" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
       <c r="Q60">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="R60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T60">
         <v>8</v>
@@ -4914,18 +4899,18 @@
         <v>2</v>
       </c>
       <c r="AD60" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="AE60" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C61" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D61" t="s">
         <v>35</v>
@@ -4937,7 +4922,7 @@
         <v>37</v>
       </c>
       <c r="H61" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="I61" t="s">
         <v>39</v>
@@ -4946,57 +4931,45 @@
         <v>40</v>
       </c>
       <c r="K61" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L61" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M61" t="s">
-        <v>94</v>
-      </c>
-      <c r="O61" t="s">
-        <v>95</v>
+        <v>84</v>
+      </c>
+      <c r="P61" t="s">
+        <v>206</v>
       </c>
       <c r="Q61">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="R61" t="s">
         <v>45</v>
       </c>
       <c r="S61" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="T61">
-        <v>1</v>
-      </c>
-      <c r="W61" t="s">
-        <v>71</v>
-      </c>
-      <c r="X61" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>108</v>
+        <v>8</v>
+      </c>
+      <c r="U61">
+        <v>2</v>
       </c>
       <c r="AD61" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="AE61" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C62" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D62" t="s">
         <v>35</v>
@@ -5008,57 +4981,54 @@
         <v>37</v>
       </c>
       <c r="H62" t="s">
+        <v>170</v>
+      </c>
+      <c r="I62" t="s">
+        <v>39</v>
+      </c>
+      <c r="J62" t="s">
+        <v>40</v>
+      </c>
+      <c r="K62" t="s">
+        <v>171</v>
+      </c>
+      <c r="L62" t="s">
         <v>182</v>
       </c>
-      <c r="I62" t="s">
-        <v>39</v>
-      </c>
-      <c r="J62" t="s">
-        <v>40</v>
-      </c>
-      <c r="K62" t="s">
-        <v>183</v>
-      </c>
-      <c r="L62" t="s">
-        <v>185</v>
-      </c>
       <c r="M62" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="P62" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="Q62">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R62" t="s">
         <v>45</v>
       </c>
       <c r="S62" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="T62">
-        <v>100</v>
-      </c>
-      <c r="V62" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB62" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="U62">
+        <v>2</v>
       </c>
       <c r="AD62" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="AE62" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C63" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D63" t="s">
         <v>35</v>
@@ -5070,7 +5040,7 @@
         <v>37</v>
       </c>
       <c r="H63" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="I63" t="s">
         <v>39</v>
@@ -5079,19 +5049,19 @@
         <v>40</v>
       </c>
       <c r="K63" t="s">
+        <v>171</v>
+      </c>
+      <c r="L63" t="s">
         <v>183</v>
       </c>
-      <c r="L63" t="s">
-        <v>186</v>
-      </c>
       <c r="M63" t="s">
-        <v>50</v>
-      </c>
-      <c r="P63" t="s">
-        <v>51</v>
+        <v>88</v>
+      </c>
+      <c r="O63" t="s">
+        <v>89</v>
       </c>
       <c r="Q63">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R63" t="s">
         <v>45</v>
@@ -5100,24 +5070,36 @@
         <v>46</v>
       </c>
       <c r="T63">
-        <v>100</v>
-      </c>
-      <c r="V63" t="s">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="W63" t="s">
+        <v>70</v>
+      </c>
+      <c r="X63" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>102</v>
       </c>
       <c r="AD63" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="AE63" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C64" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D64" t="s">
         <v>35</v>
@@ -5129,7 +5111,7 @@
         <v>37</v>
       </c>
       <c r="H64" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I64" t="s">
         <v>39</v>
@@ -5138,19 +5120,19 @@
         <v>40</v>
       </c>
       <c r="K64" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L64" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M64" t="s">
-        <v>53</v>
-      </c>
-      <c r="O64" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="P64" t="s">
+        <v>204</v>
       </c>
       <c r="Q64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R64" t="s">
         <v>45</v>
@@ -5159,21 +5141,27 @@
         <v>46</v>
       </c>
       <c r="T64">
-        <v>200</v>
+        <v>100</v>
+      </c>
+      <c r="V64" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>48</v>
       </c>
       <c r="AD64" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AE64" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C65" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D65" t="s">
         <v>35</v>
@@ -5185,7 +5173,7 @@
         <v>37</v>
       </c>
       <c r="H65" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I65" t="s">
         <v>39</v>
@@ -5194,45 +5182,45 @@
         <v>40</v>
       </c>
       <c r="K65" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L65" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M65" t="s">
-        <v>56</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c r="P65" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R65" t="s">
         <v>45</v>
       </c>
       <c r="S65" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="T65">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="V65" t="s">
+        <v>47</v>
       </c>
       <c r="AD65" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AE65" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C66" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D66" t="s">
         <v>35</v>
@@ -5244,7 +5232,7 @@
         <v>37</v>
       </c>
       <c r="H66" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I66" t="s">
         <v>39</v>
@@ -5253,57 +5241,42 @@
         <v>40</v>
       </c>
       <c r="K66" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L66" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M66" t="s">
-        <v>61</v>
-      </c>
-      <c r="N66" t="s">
-        <v>62</v>
-      </c>
-      <c r="P66" t="s">
-        <v>63</v>
+        <v>53</v>
+      </c>
+      <c r="O66" t="s">
+        <v>54</v>
       </c>
       <c r="Q66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S66" t="s">
         <v>46</v>
       </c>
       <c r="T66">
-        <v>100</v>
-      </c>
-      <c r="W66" t="s">
-        <v>64</v>
-      </c>
-      <c r="X66" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC66" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="AD66" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="AE66" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C67" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D67" t="s">
         <v>35</v>
@@ -5315,7 +5288,7 @@
         <v>37</v>
       </c>
       <c r="H67" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I67" t="s">
         <v>39</v>
@@ -5324,60 +5297,45 @@
         <v>40</v>
       </c>
       <c r="K67" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L67" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M67" t="s">
-        <v>69</v>
-      </c>
-      <c r="N67" t="s">
-        <v>107</v>
-      </c>
-      <c r="O67" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="P67" t="s">
+        <v>57</v>
       </c>
       <c r="Q67">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R67" t="s">
         <v>45</v>
       </c>
       <c r="S67" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="T67">
-        <v>1</v>
-      </c>
-      <c r="W67" t="s">
-        <v>71</v>
-      </c>
-      <c r="X67" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z67" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA67" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="AD67" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="AE67" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C68" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D68" t="s">
         <v>35</v>
@@ -5389,7 +5347,7 @@
         <v>37</v>
       </c>
       <c r="H68" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I68" t="s">
         <v>39</v>
@@ -5398,48 +5356,57 @@
         <v>40</v>
       </c>
       <c r="K68" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L68" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M68" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="N68" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="P68" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="Q68">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R68" t="s">
         <v>47</v>
       </c>
       <c r="S68" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="T68">
-        <v>8</v>
-      </c>
-      <c r="U68">
-        <v>2</v>
+        <v>100</v>
+      </c>
+      <c r="W68" t="s">
+        <v>64</v>
+      </c>
+      <c r="X68" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>67</v>
       </c>
       <c r="AD68" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="AE68" t="s">
-        <v>192</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C69" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D69" t="s">
         <v>35</v>
@@ -5451,7 +5418,7 @@
         <v>37</v>
       </c>
       <c r="H69" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I69" t="s">
         <v>39</v>
@@ -5460,42 +5427,60 @@
         <v>40</v>
       </c>
       <c r="K69" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L69" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M69" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="N69" t="s">
-        <v>112</v>
-      </c>
-      <c r="P69" t="s">
-        <v>83</v>
+        <v>101</v>
+      </c>
+      <c r="O69" t="s">
+        <v>69</v>
       </c>
       <c r="Q69">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="R69" t="s">
+        <v>45</v>
       </c>
       <c r="S69" t="s">
         <v>46</v>
       </c>
       <c r="T69">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="W69" t="s">
+        <v>70</v>
+      </c>
+      <c r="X69" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>102</v>
       </c>
       <c r="AD69" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="AE69" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C70" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D70" t="s">
         <v>35</v>
@@ -5507,7 +5492,7 @@
         <v>37</v>
       </c>
       <c r="H70" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I70" t="s">
         <v>39</v>
@@ -5516,45 +5501,48 @@
         <v>40</v>
       </c>
       <c r="K70" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L70" t="s">
         <v>195</v>
       </c>
       <c r="M70" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="N70" t="s">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="P70" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="Q70">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R70" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S70" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="T70">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
       </c>
       <c r="AD70" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AE70" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D71" t="s">
         <v>35</v>
@@ -5566,7 +5554,7 @@
         <v>37</v>
       </c>
       <c r="H71" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I71" t="s">
         <v>39</v>
@@ -5575,45 +5563,60 @@
         <v>40</v>
       </c>
       <c r="K71" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L71" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M71" t="s">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="N71" t="s">
+        <v>106</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="Q71">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S71" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="T71">
-        <v>8</v>
-      </c>
-      <c r="U71">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="W71" t="s">
+        <v>107</v>
+      </c>
+      <c r="X71" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>102</v>
       </c>
       <c r="AD71" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AE71" t="s">
-        <v>90</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D72" t="s">
         <v>35</v>
@@ -5625,7 +5628,7 @@
         <v>37</v>
       </c>
       <c r="H72" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I72" t="s">
         <v>39</v>
@@ -5634,25 +5637,25 @@
         <v>40</v>
       </c>
       <c r="K72" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L72" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M72" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="P72" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="Q72">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R72" t="s">
         <v>45</v>
       </c>
       <c r="S72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T72">
         <v>8</v>
@@ -5661,18 +5664,18 @@
         <v>2</v>
       </c>
       <c r="AD72" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AE72" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C73" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D73" t="s">
         <v>35</v>
@@ -5684,7 +5687,7 @@
         <v>37</v>
       </c>
       <c r="H73" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I73" t="s">
         <v>39</v>
@@ -5693,57 +5696,45 @@
         <v>40</v>
       </c>
       <c r="K73" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L73" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M73" t="s">
-        <v>94</v>
-      </c>
-      <c r="O73" t="s">
-        <v>95</v>
+        <v>86</v>
+      </c>
+      <c r="P73" t="s">
+        <v>205</v>
       </c>
       <c r="Q73">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R73" t="s">
         <v>45</v>
       </c>
       <c r="S73" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="T73">
-        <v>1</v>
-      </c>
-      <c r="W73" t="s">
-        <v>71</v>
-      </c>
-      <c r="X73" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z73" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA73" t="s">
-        <v>108</v>
+        <v>8</v>
+      </c>
+      <c r="U73">
+        <v>2</v>
       </c>
       <c r="AD73" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="AE73" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C74" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D74" t="s">
         <v>35</v>
@@ -5755,7 +5746,7 @@
         <v>37</v>
       </c>
       <c r="H74" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="I74" t="s">
         <v>39</v>
@@ -5764,19 +5755,19 @@
         <v>40</v>
       </c>
       <c r="K74" t="s">
+        <v>187</v>
+      </c>
+      <c r="L74" t="s">
         <v>202</v>
       </c>
-      <c r="L74" t="s">
-        <v>204</v>
-      </c>
       <c r="M74" t="s">
-        <v>44</v>
-      </c>
-      <c r="P74" t="s">
-        <v>221</v>
+        <v>88</v>
+      </c>
+      <c r="O74" t="s">
+        <v>89</v>
       </c>
       <c r="Q74">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="R74" t="s">
         <v>45</v>
@@ -5785,726 +5776,32 @@
         <v>46</v>
       </c>
       <c r="T74">
-        <v>100</v>
-      </c>
-      <c r="V74" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="W74" t="s">
+        <v>70</v>
+      </c>
+      <c r="X74" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>102</v>
       </c>
       <c r="AD74" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="AE74" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>199</v>
-      </c>
-      <c r="C75" t="s">
-        <v>200</v>
-      </c>
-      <c r="D75" t="s">
-        <v>35</v>
-      </c>
-      <c r="E75" t="s">
-        <v>36</v>
-      </c>
-      <c r="G75" t="s">
-        <v>37</v>
-      </c>
-      <c r="H75" t="s">
-        <v>201</v>
-      </c>
-      <c r="I75" t="s">
-        <v>39</v>
-      </c>
-      <c r="J75" t="s">
-        <v>40</v>
-      </c>
-      <c r="K75" t="s">
-        <v>202</v>
-      </c>
-      <c r="L75" t="s">
-        <v>205</v>
-      </c>
-      <c r="M75" t="s">
-        <v>50</v>
-      </c>
-      <c r="P75" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q75">
-        <v>2</v>
-      </c>
-      <c r="R75" t="s">
-        <v>45</v>
-      </c>
-      <c r="S75" t="s">
-        <v>46</v>
-      </c>
-      <c r="T75">
-        <v>100</v>
-      </c>
-      <c r="V75" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD75" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE75" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>199</v>
-      </c>
-      <c r="C76" t="s">
-        <v>200</v>
-      </c>
-      <c r="D76" t="s">
-        <v>35</v>
-      </c>
-      <c r="E76" t="s">
-        <v>36</v>
-      </c>
-      <c r="G76" t="s">
-        <v>37</v>
-      </c>
-      <c r="H76" t="s">
-        <v>201</v>
-      </c>
-      <c r="I76" t="s">
-        <v>39</v>
-      </c>
-      <c r="J76" t="s">
-        <v>40</v>
-      </c>
-      <c r="K76" t="s">
-        <v>202</v>
-      </c>
-      <c r="L76" t="s">
-        <v>206</v>
-      </c>
-      <c r="M76" t="s">
-        <v>53</v>
-      </c>
-      <c r="O76" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q76">
-        <v>3</v>
-      </c>
-      <c r="R76" t="s">
-        <v>45</v>
-      </c>
-      <c r="S76" t="s">
-        <v>46</v>
-      </c>
-      <c r="T76">
-        <v>200</v>
-      </c>
-      <c r="AD76" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE76" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>199</v>
-      </c>
-      <c r="C77" t="s">
-        <v>200</v>
-      </c>
-      <c r="D77" t="s">
-        <v>35</v>
-      </c>
-      <c r="E77" t="s">
-        <v>36</v>
-      </c>
-      <c r="G77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H77" t="s">
-        <v>201</v>
-      </c>
-      <c r="I77" t="s">
-        <v>39</v>
-      </c>
-      <c r="J77" t="s">
-        <v>40</v>
-      </c>
-      <c r="K77" t="s">
-        <v>202</v>
-      </c>
-      <c r="L77" t="s">
-        <v>207</v>
-      </c>
-      <c r="M77" t="s">
-        <v>56</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="P77" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q77">
-        <v>4</v>
-      </c>
-      <c r="R77" t="s">
-        <v>45</v>
-      </c>
-      <c r="S77" t="s">
-        <v>58</v>
-      </c>
-      <c r="T77">
-        <v>10</v>
-      </c>
-      <c r="AD77" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>199</v>
-      </c>
-      <c r="C78" t="s">
-        <v>200</v>
-      </c>
-      <c r="D78" t="s">
-        <v>35</v>
-      </c>
-      <c r="E78" t="s">
-        <v>36</v>
-      </c>
-      <c r="G78" t="s">
-        <v>37</v>
-      </c>
-      <c r="H78" t="s">
-        <v>201</v>
-      </c>
-      <c r="I78" t="s">
-        <v>39</v>
-      </c>
-      <c r="J78" t="s">
-        <v>40</v>
-      </c>
-      <c r="K78" t="s">
-        <v>202</v>
-      </c>
-      <c r="L78" t="s">
-        <v>208</v>
-      </c>
-      <c r="M78" t="s">
-        <v>61</v>
-      </c>
-      <c r="N78" t="s">
-        <v>62</v>
-      </c>
-      <c r="P78" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q78">
-        <v>5</v>
-      </c>
-      <c r="R78" t="s">
-        <v>47</v>
-      </c>
-      <c r="S78" t="s">
-        <v>46</v>
-      </c>
-      <c r="T78">
-        <v>100</v>
-      </c>
-      <c r="W78" t="s">
-        <v>64</v>
-      </c>
-      <c r="X78" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB78" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD78" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE78" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>199</v>
-      </c>
-      <c r="C79" t="s">
-        <v>200</v>
-      </c>
-      <c r="D79" t="s">
-        <v>35</v>
-      </c>
-      <c r="E79" t="s">
-        <v>36</v>
-      </c>
-      <c r="G79" t="s">
-        <v>37</v>
-      </c>
-      <c r="H79" t="s">
-        <v>201</v>
-      </c>
-      <c r="I79" t="s">
-        <v>39</v>
-      </c>
-      <c r="J79" t="s">
-        <v>40</v>
-      </c>
-      <c r="K79" t="s">
-        <v>202</v>
-      </c>
-      <c r="L79" t="s">
-        <v>209</v>
-      </c>
-      <c r="M79" t="s">
-        <v>69</v>
-      </c>
-      <c r="N79" t="s">
-        <v>107</v>
-      </c>
-      <c r="O79" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q79">
-        <v>6</v>
-      </c>
-      <c r="R79" t="s">
-        <v>45</v>
-      </c>
-      <c r="S79" t="s">
-        <v>46</v>
-      </c>
-      <c r="T79">
-        <v>1</v>
-      </c>
-      <c r="W79" t="s">
-        <v>71</v>
-      </c>
-      <c r="X79" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA79" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD79" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE79" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>199</v>
-      </c>
-      <c r="C80" t="s">
-        <v>200</v>
-      </c>
-      <c r="D80" t="s">
-        <v>35</v>
-      </c>
-      <c r="E80" t="s">
-        <v>36</v>
-      </c>
-      <c r="G80" t="s">
-        <v>37</v>
-      </c>
-      <c r="H80" t="s">
-        <v>201</v>
-      </c>
-      <c r="I80" t="s">
-        <v>39</v>
-      </c>
-      <c r="J80" t="s">
-        <v>40</v>
-      </c>
-      <c r="K80" t="s">
-        <v>202</v>
-      </c>
-      <c r="L80" t="s">
-        <v>210</v>
-      </c>
-      <c r="M80" t="s">
-        <v>76</v>
-      </c>
-      <c r="N80" t="s">
-        <v>77</v>
-      </c>
-      <c r="P80" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q80">
-        <v>7</v>
-      </c>
-      <c r="R80" t="s">
-        <v>47</v>
-      </c>
-      <c r="S80" t="s">
-        <v>78</v>
-      </c>
-      <c r="T80">
-        <v>8</v>
-      </c>
-      <c r="U80">
-        <v>2</v>
-      </c>
-      <c r="AD80" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE80" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="81" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>199</v>
-      </c>
-      <c r="C81" t="s">
-        <v>200</v>
-      </c>
-      <c r="D81" t="s">
-        <v>35</v>
-      </c>
-      <c r="E81" t="s">
-        <v>36</v>
-      </c>
-      <c r="G81" t="s">
-        <v>37</v>
-      </c>
-      <c r="H81" t="s">
-        <v>201</v>
-      </c>
-      <c r="I81" t="s">
-        <v>39</v>
-      </c>
-      <c r="J81" t="s">
-        <v>40</v>
-      </c>
-      <c r="K81" t="s">
-        <v>202</v>
-      </c>
-      <c r="L81" t="s">
-        <v>212</v>
-      </c>
-      <c r="M81" t="s">
-        <v>82</v>
-      </c>
-      <c r="N81" t="s">
-        <v>112</v>
-      </c>
-      <c r="P81" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q81">
-        <v>8</v>
-      </c>
-      <c r="R81" t="s">
-        <v>47</v>
-      </c>
-      <c r="S81" t="s">
-        <v>46</v>
-      </c>
-      <c r="T81">
-        <v>20</v>
-      </c>
-      <c r="W81" t="s">
-        <v>113</v>
-      </c>
-      <c r="X81" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z81" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA81" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD81" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE81" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="82" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>199</v>
-      </c>
-      <c r="C82" t="s">
-        <v>200</v>
-      </c>
-      <c r="D82" t="s">
-        <v>35</v>
-      </c>
-      <c r="E82" t="s">
-        <v>36</v>
-      </c>
-      <c r="G82" t="s">
-        <v>37</v>
-      </c>
-      <c r="H82" t="s">
-        <v>201</v>
-      </c>
-      <c r="I82" t="s">
-        <v>39</v>
-      </c>
-      <c r="J82" t="s">
-        <v>40</v>
-      </c>
-      <c r="K82" t="s">
-        <v>202</v>
-      </c>
-      <c r="L82" t="s">
-        <v>215</v>
-      </c>
-      <c r="M82" t="s">
-        <v>87</v>
-      </c>
-      <c r="N82" t="s">
-        <v>220</v>
-      </c>
-      <c r="P82" t="s">
         <v>88</v>
       </c>
-      <c r="Q82">
-        <v>9</v>
-      </c>
-      <c r="R82" t="s">
-        <v>45</v>
-      </c>
-      <c r="S82" t="s">
-        <v>46</v>
-      </c>
-      <c r="T82">
-        <v>100</v>
-      </c>
-      <c r="AD82" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE82" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>199</v>
-      </c>
-      <c r="C83" t="s">
-        <v>200</v>
-      </c>
-      <c r="D83" t="s">
-        <v>35</v>
-      </c>
-      <c r="E83" t="s">
-        <v>36</v>
-      </c>
-      <c r="G83" t="s">
-        <v>37</v>
-      </c>
-      <c r="H83" t="s">
-        <v>201</v>
-      </c>
-      <c r="I83" t="s">
-        <v>39</v>
-      </c>
-      <c r="J83" t="s">
-        <v>40</v>
-      </c>
-      <c r="K83" t="s">
-        <v>202</v>
-      </c>
-      <c r="L83" t="s">
-        <v>216</v>
-      </c>
-      <c r="M83" t="s">
-        <v>90</v>
-      </c>
-      <c r="P83" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q83">
-        <v>10</v>
-      </c>
-      <c r="R83" t="s">
-        <v>45</v>
-      </c>
-      <c r="S83" t="s">
-        <v>78</v>
-      </c>
-      <c r="T83">
-        <v>8</v>
-      </c>
-      <c r="U83">
-        <v>2</v>
-      </c>
-      <c r="AD83" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE83" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
-        <v>199</v>
-      </c>
-      <c r="C84" t="s">
-        <v>200</v>
-      </c>
-      <c r="D84" t="s">
-        <v>35</v>
-      </c>
-      <c r="E84" t="s">
-        <v>36</v>
-      </c>
-      <c r="G84" t="s">
-        <v>37</v>
-      </c>
-      <c r="H84" t="s">
-        <v>201</v>
-      </c>
-      <c r="I84" t="s">
-        <v>39</v>
-      </c>
-      <c r="J84" t="s">
-        <v>40</v>
-      </c>
-      <c r="K84" t="s">
-        <v>202</v>
-      </c>
-      <c r="L84" t="s">
-        <v>217</v>
-      </c>
-      <c r="M84" t="s">
-        <v>92</v>
-      </c>
-      <c r="P84" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q84">
-        <v>11</v>
-      </c>
-      <c r="R84" t="s">
-        <v>45</v>
-      </c>
-      <c r="S84" t="s">
-        <v>78</v>
-      </c>
-      <c r="T84">
-        <v>8</v>
-      </c>
-      <c r="U84">
-        <v>2</v>
-      </c>
-      <c r="AD84" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE84" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="85" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
-        <v>199</v>
-      </c>
-      <c r="C85" t="s">
-        <v>200</v>
-      </c>
-      <c r="D85" t="s">
-        <v>35</v>
-      </c>
-      <c r="E85" t="s">
-        <v>36</v>
-      </c>
-      <c r="G85" t="s">
-        <v>37</v>
-      </c>
-      <c r="H85" t="s">
-        <v>201</v>
-      </c>
-      <c r="I85" t="s">
-        <v>39</v>
-      </c>
-      <c r="J85" t="s">
-        <v>40</v>
-      </c>
-      <c r="K85" t="s">
-        <v>202</v>
-      </c>
-      <c r="L85" t="s">
-        <v>218</v>
-      </c>
-      <c r="M85" t="s">
-        <v>94</v>
-      </c>
-      <c r="O85" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q85">
-        <v>12</v>
-      </c>
-      <c r="R85" t="s">
-        <v>45</v>
-      </c>
-      <c r="S85" t="s">
-        <v>46</v>
-      </c>
-      <c r="T85">
-        <v>1</v>
-      </c>
-      <c r="W85" t="s">
-        <v>71</v>
-      </c>
-      <c r="X85" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z85" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA85" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD85" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE85" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG85" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AG74" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/curation/draft/collection/collection_specialization_LB_Local_Urinalysis.xlsx
+++ b/curation/draft/collection/collection_specialization_LB_Local_Urinalysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C990333C-5A48-4331-9E9B-F31A747672EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0491CEE6-A852-4238-BFC2-3DE3D10ADA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_LB" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="209">
   <si>
     <t>package_date</t>
   </si>
@@ -644,6 +644,12 @@
   </si>
   <si>
     <t>Normal Range Lower Limit</t>
+  </si>
+  <si>
+    <t>LBCAT = URINALYSIS</t>
+  </si>
+  <si>
+    <t>LBSPEC = URINE</t>
   </si>
 </sst>
 </file>
@@ -1033,10 +1039,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="P19" sqref="P19:P72"/>
+      <selection pane="bottomLeft" activeCell="AE68" sqref="AE68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,6 +1054,7 @@
     <col min="16" max="16" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="17.42578125" customWidth="1"/>
     <col min="26" max="26" width="23.140625" customWidth="1"/>
+    <col min="28" max="28" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="26.7109375" customWidth="1"/>
     <col min="31" max="31" width="31.42578125" customWidth="1"/>
     <col min="32" max="32" width="22.42578125" customWidth="1"/>
@@ -1213,7 +1220,7 @@
         <v>44</v>
       </c>
       <c r="AE2" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
@@ -1458,7 +1465,7 @@
         <v>61</v>
       </c>
       <c r="AE6" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -1771,7 +1778,7 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
@@ -2016,7 +2023,7 @@
         <v>61</v>
       </c>
       <c r="AE15" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
@@ -2477,7 +2484,7 @@
         <v>44</v>
       </c>
       <c r="AE22" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.25">
@@ -2722,7 +2729,7 @@
         <v>61</v>
       </c>
       <c r="AE26" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.25">
@@ -3183,7 +3190,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="2:31" x14ac:dyDescent="0.25">
@@ -3428,7 +3435,7 @@
         <v>61</v>
       </c>
       <c r="AE37" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.25">
@@ -3815,7 +3822,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="2:31" x14ac:dyDescent="0.25">
@@ -4060,7 +4067,7 @@
         <v>61</v>
       </c>
       <c r="AE47" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="2:31" x14ac:dyDescent="0.25">
@@ -4521,7 +4528,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="2:31" x14ac:dyDescent="0.25">
@@ -4766,7 +4773,7 @@
         <v>61</v>
       </c>
       <c r="AE58" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="2:31" x14ac:dyDescent="0.25">
@@ -5153,7 +5160,7 @@
         <v>44</v>
       </c>
       <c r="AE64" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.25">
@@ -5398,7 +5405,7 @@
         <v>61</v>
       </c>
       <c r="AE68" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="2:31" x14ac:dyDescent="0.25">
